--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="644">
+  <si>
+    <t>...1</t>
+  </si>
   <si>
     <t>country</t>
   </si>
@@ -1992,62 +1995,64 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I2" t="e">
         <v>#N/A</v>
@@ -2061,31 +2066,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G3" t="e">
         <v>#N/A</v>
       </c>
       <c r="H3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J3" t="e">
         <v>#N/A</v>
@@ -2096,19 +2101,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
@@ -2117,7 +2122,7 @@
         <v>#N/A</v>
       </c>
       <c r="H4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I4" t="e">
         <v>#N/A</v>
@@ -2131,19 +2136,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F5" t="e">
         <v>#N/A</v>
@@ -2152,7 +2157,7 @@
         <v>#N/A</v>
       </c>
       <c r="H5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I5" t="e">
         <v>#N/A</v>
@@ -2166,16 +2171,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E6" t="e">
         <v>#N/A</v>
@@ -2201,31 +2206,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J7" t="e">
         <v>#N/A</v>
@@ -2236,28 +2241,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G8" t="e">
         <v>#N/A</v>
       </c>
       <c r="H8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I8" t="e">
         <v>#N/A</v>
@@ -2266,24 +2271,24 @@
         <v>#N/A</v>
       </c>
       <c r="K8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F9" t="e">
         <v>#N/A</v>
@@ -2292,7 +2297,7 @@
         <v>#N/A</v>
       </c>
       <c r="H9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I9" t="e">
         <v>#N/A</v>
@@ -2306,28 +2311,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G10" t="e">
         <v>#N/A</v>
       </c>
       <c r="H10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I10" t="e">
         <v>#N/A</v>
@@ -2336,24 +2341,24 @@
         <v>#N/A</v>
       </c>
       <c r="K10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>
@@ -2362,7 +2367,7 @@
         <v>#N/A</v>
       </c>
       <c r="H11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I11" t="e">
         <v>#N/A</v>
@@ -2371,24 +2376,24 @@
         <v>#N/A</v>
       </c>
       <c r="K11" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F12" t="e">
         <v>#N/A</v>
@@ -2397,7 +2402,7 @@
         <v>#N/A</v>
       </c>
       <c r="H12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I12" t="e">
         <v>#N/A</v>
@@ -2406,24 +2411,24 @@
         <v>#N/A</v>
       </c>
       <c r="K12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E13" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F13" t="e">
         <v>#N/A</v>
@@ -2432,7 +2437,7 @@
         <v>#N/A</v>
       </c>
       <c r="H13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I13" t="e">
         <v>#N/A</v>
@@ -2441,21 +2446,21 @@
         <v>#N/A</v>
       </c>
       <c r="K13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E14" t="e">
         <v>#N/A</v>
@@ -2481,16 +2486,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
@@ -2502,7 +2507,7 @@
         <v>#N/A</v>
       </c>
       <c r="H15" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I15" t="e">
         <v>#N/A</v>
@@ -2516,31 +2521,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G16" t="e">
         <v>#N/A</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J16" t="e">
         <v>#N/A</v>
@@ -2551,16 +2556,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E17" t="e">
         <v>#N/A</v>
@@ -2586,19 +2591,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F18" t="e">
         <v>#N/A</v>
@@ -2607,7 +2612,7 @@
         <v>#N/A</v>
       </c>
       <c r="H18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I18" t="e">
         <v>#N/A</v>
@@ -2621,19 +2626,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>
@@ -2642,7 +2647,7 @@
         <v>#N/A</v>
       </c>
       <c r="H19" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I19" t="e">
         <v>#N/A</v>
@@ -2656,16 +2661,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E20" t="e">
         <v>#N/A</v>
@@ -2691,16 +2696,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E21" t="e">
         <v>#N/A</v>
@@ -2726,19 +2731,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E22" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F22" t="e">
         <v>#N/A</v>
@@ -2747,7 +2752,7 @@
         <v>#N/A</v>
       </c>
       <c r="H22" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I22" t="e">
         <v>#N/A</v>
@@ -2756,24 +2761,24 @@
         <v>#N/A</v>
       </c>
       <c r="K22" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E23" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
@@ -2782,7 +2787,7 @@
         <v>#N/A</v>
       </c>
       <c r="H23" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I23" t="e">
         <v>#N/A</v>
@@ -2796,19 +2801,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E24" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
@@ -2817,7 +2822,7 @@
         <v>#N/A</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I24" t="e">
         <v>#N/A</v>
@@ -2831,19 +2836,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F25" t="e">
         <v>#N/A</v>
@@ -2852,7 +2857,7 @@
         <v>#N/A</v>
       </c>
       <c r="H25" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I25" t="e">
         <v>#N/A</v>
@@ -2866,19 +2871,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F26" t="e">
         <v>#N/A</v>
@@ -2887,7 +2892,7 @@
         <v>#N/A</v>
       </c>
       <c r="H26" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I26" t="e">
         <v>#N/A</v>
@@ -2901,19 +2906,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E27" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
@@ -2922,7 +2927,7 @@
         <v>#N/A</v>
       </c>
       <c r="H27" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I27" t="e">
         <v>#N/A</v>
@@ -2936,19 +2941,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E28" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
@@ -2957,7 +2962,7 @@
         <v>#N/A</v>
       </c>
       <c r="H28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I28" t="e">
         <v>#N/A</v>
@@ -2971,16 +2976,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E29" t="e">
         <v>#N/A</v>
@@ -3006,19 +3011,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E30" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
@@ -3027,7 +3032,7 @@
         <v>#N/A</v>
       </c>
       <c r="H30" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I30" t="e">
         <v>#N/A</v>
@@ -3041,19 +3046,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E31" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
@@ -3062,7 +3067,7 @@
         <v>#N/A</v>
       </c>
       <c r="H31" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I31" t="e">
         <v>#N/A</v>
@@ -3071,24 +3076,24 @@
         <v>#N/A</v>
       </c>
       <c r="K31" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E32" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
@@ -3097,7 +3102,7 @@
         <v>#N/A</v>
       </c>
       <c r="H32" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I32" t="e">
         <v>#N/A</v>
@@ -3111,19 +3116,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E33" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -3132,7 +3137,7 @@
         <v>#N/A</v>
       </c>
       <c r="H33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I33" t="e">
         <v>#N/A</v>
@@ -3146,19 +3151,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E34" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
@@ -3167,7 +3172,7 @@
         <v>#N/A</v>
       </c>
       <c r="H34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I34" t="e">
         <v>#N/A</v>
@@ -3181,28 +3186,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D35" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E35" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F35" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G35" t="e">
         <v>#N/A</v>
       </c>
       <c r="H35" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I35" t="e">
         <v>#N/A</v>
@@ -3216,28 +3221,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E36" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F36" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G36" t="e">
         <v>#N/A</v>
       </c>
       <c r="H36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I36" t="e">
         <v>#N/A</v>
@@ -3246,24 +3251,24 @@
         <v>#N/A</v>
       </c>
       <c r="K36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E37" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
@@ -3272,7 +3277,7 @@
         <v>#N/A</v>
       </c>
       <c r="H37" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I37" t="e">
         <v>#N/A</v>
@@ -3286,16 +3291,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E38" t="e">
         <v>#N/A</v>
@@ -3307,7 +3312,7 @@
         <v>#N/A</v>
       </c>
       <c r="H38" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I38" t="e">
         <v>#N/A</v>
@@ -3321,19 +3326,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E39" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F39" t="e">
         <v>#N/A</v>
@@ -3342,7 +3347,7 @@
         <v>#N/A</v>
       </c>
       <c r="H39" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I39" t="e">
         <v>#N/A</v>
@@ -3356,28 +3361,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E40" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F40" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G40" t="e">
         <v>#N/A</v>
       </c>
       <c r="H40" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I40" t="e">
         <v>#N/A</v>
@@ -3386,21 +3391,21 @@
         <v>#N/A</v>
       </c>
       <c r="K40" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D41" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E41" t="e">
         <v>#N/A</v>
@@ -3412,7 +3417,7 @@
         <v>#N/A</v>
       </c>
       <c r="H41" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I41" t="e">
         <v>#N/A</v>
@@ -3426,16 +3431,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D42" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E42" t="e">
         <v>#N/A</v>
@@ -3456,24 +3461,24 @@
         <v>#N/A</v>
       </c>
       <c r="K42" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D43" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E43" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
@@ -3482,7 +3487,7 @@
         <v>#N/A</v>
       </c>
       <c r="H43" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I43" t="e">
         <v>#N/A</v>
@@ -3491,24 +3496,24 @@
         <v>#N/A</v>
       </c>
       <c r="K43" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D44" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E44" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
@@ -3517,7 +3522,7 @@
         <v>#N/A</v>
       </c>
       <c r="H44" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I44" t="e">
         <v>#N/A</v>
@@ -3531,19 +3536,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E45" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
@@ -3552,7 +3557,7 @@
         <v>#N/A</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I45" t="e">
         <v>#N/A</v>
@@ -3566,19 +3571,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E46" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
@@ -3587,7 +3592,7 @@
         <v>#N/A</v>
       </c>
       <c r="H46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I46" t="e">
         <v>#N/A</v>
@@ -3601,16 +3606,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D47" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E47" t="e">
         <v>#N/A</v>
@@ -3636,16 +3641,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D48" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E48" t="e">
         <v>#N/A</v>
@@ -3671,19 +3676,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D49" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E49" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
@@ -3692,7 +3697,7 @@
         <v>#N/A</v>
       </c>
       <c r="H49" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I49" t="e">
         <v>#N/A</v>
@@ -3706,19 +3711,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E50" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
@@ -3727,7 +3732,7 @@
         <v>#N/A</v>
       </c>
       <c r="H50" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I50" t="e">
         <v>#N/A</v>
@@ -3741,16 +3746,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D51" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E51" t="e">
         <v>#N/A</v>
@@ -3762,7 +3767,7 @@
         <v>#N/A</v>
       </c>
       <c r="H51" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I51" t="e">
         <v>#N/A</v>
@@ -3771,24 +3776,24 @@
         <v>#N/A</v>
       </c>
       <c r="K51" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D52" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E52" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
@@ -3797,7 +3802,7 @@
         <v>#N/A</v>
       </c>
       <c r="H52" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I52" t="e">
         <v>#N/A</v>
@@ -3811,19 +3816,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D53" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E53" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
@@ -3832,7 +3837,7 @@
         <v>#N/A</v>
       </c>
       <c r="H53" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I53" t="e">
         <v>#N/A</v>
@@ -3846,28 +3851,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D54" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E54" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F54" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G54" t="e">
         <v>#N/A</v>
       </c>
       <c r="H54" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I54" t="e">
         <v>#N/A</v>
@@ -3881,19 +3886,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D55" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E55" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F55" t="e">
         <v>#N/A</v>
@@ -3902,7 +3907,7 @@
         <v>#N/A</v>
       </c>
       <c r="H55" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I55" t="e">
         <v>#N/A</v>
@@ -3916,19 +3921,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D56" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E56" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F56" t="e">
         <v>#N/A</v>
@@ -3937,7 +3942,7 @@
         <v>#N/A</v>
       </c>
       <c r="H56" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I56" t="e">
         <v>#N/A</v>
@@ -3951,19 +3956,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D57" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E57" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F57" t="e">
         <v>#N/A</v>
@@ -3972,7 +3977,7 @@
         <v>#N/A</v>
       </c>
       <c r="H57" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I57" t="e">
         <v>#N/A</v>
@@ -3986,16 +3991,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E58" t="e">
         <v>#N/A</v>
@@ -4021,19 +4026,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D59" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E59" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F59" t="e">
         <v>#N/A</v>
@@ -4042,7 +4047,7 @@
         <v>#N/A</v>
       </c>
       <c r="H59" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I59" t="e">
         <v>#N/A</v>
@@ -4051,24 +4056,24 @@
         <v>#N/A</v>
       </c>
       <c r="K59" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D60" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E60" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F60" t="e">
         <v>#N/A</v>
@@ -4077,7 +4082,7 @@
         <v>#N/A</v>
       </c>
       <c r="H60" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I60" t="e">
         <v>#N/A</v>
@@ -4091,16 +4096,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C61" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D61" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E61" t="e">
         <v>#N/A</v>
@@ -4126,19 +4131,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C62" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D62" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E62" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F62" t="e">
         <v>#N/A</v>
@@ -4147,7 +4152,7 @@
         <v>#N/A</v>
       </c>
       <c r="H62" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I62" t="e">
         <v>#N/A</v>
@@ -4161,13 +4166,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D63" t="e">
         <v>#N/A</v>
@@ -4196,16 +4201,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D64" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E64" t="e">
         <v>#N/A</v>
@@ -4231,19 +4236,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C65" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D65" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E65" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F65" t="e">
         <v>#N/A</v>
@@ -4252,7 +4257,7 @@
         <v>#N/A</v>
       </c>
       <c r="H65" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I65" t="e">
         <v>#N/A</v>
@@ -4266,16 +4271,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E66" t="e">
         <v>#N/A</v>
@@ -4301,19 +4306,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E67" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F67" t="e">
         <v>#N/A</v>
@@ -4322,7 +4327,7 @@
         <v>#N/A</v>
       </c>
       <c r="H67" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I67" t="e">
         <v>#N/A</v>
@@ -4336,16 +4341,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E68" t="e">
         <v>#N/A</v>
@@ -4371,16 +4376,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D69" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E69" t="e">
         <v>#N/A</v>
@@ -4406,19 +4411,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D70" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E70" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F70" t="e">
         <v>#N/A</v>
@@ -4427,7 +4432,7 @@
         <v>#N/A</v>
       </c>
       <c r="H70" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I70" t="e">
         <v>#N/A</v>
@@ -4441,19 +4446,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C71" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D71" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E71" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F71" t="e">
         <v>#N/A</v>
@@ -4462,7 +4467,7 @@
         <v>#N/A</v>
       </c>
       <c r="H71" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I71" t="e">
         <v>#N/A</v>
@@ -4476,16 +4481,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D72" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E72" t="e">
         <v>#N/A</v>
@@ -4511,16 +4516,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E73" t="e">
         <v>#N/A</v>
@@ -4546,16 +4551,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C74" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D74" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E74" t="e">
         <v>#N/A</v>
@@ -4581,19 +4586,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D75" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E75" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F75" t="e">
         <v>#N/A</v>
@@ -4602,7 +4607,7 @@
         <v>#N/A</v>
       </c>
       <c r="H75" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I75" t="e">
         <v>#N/A</v>
@@ -4611,21 +4616,21 @@
         <v>#N/A</v>
       </c>
       <c r="K75" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D76" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E76" t="e">
         <v>#N/A</v>
@@ -4646,33 +4651,33 @@
         <v>#N/A</v>
       </c>
       <c r="K76" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E77" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F77" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G77" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H77" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I77" t="e">
         <v>#N/A</v>
@@ -4686,19 +4691,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E78" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F78" t="e">
         <v>#N/A</v>
@@ -4707,7 +4712,7 @@
         <v>#N/A</v>
       </c>
       <c r="H78" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I78" t="e">
         <v>#N/A</v>
@@ -4716,21 +4721,21 @@
         <v>#N/A</v>
       </c>
       <c r="K78" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C79" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D79" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E79" t="e">
         <v>#N/A</v>
@@ -4756,16 +4761,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D80" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E80" t="e">
         <v>#N/A</v>
@@ -4791,19 +4796,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E81" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F81" t="e">
         <v>#N/A</v>
@@ -4812,7 +4817,7 @@
         <v>#N/A</v>
       </c>
       <c r="H81" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I81" t="e">
         <v>#N/A</v>
@@ -4826,16 +4831,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D82" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E82" t="e">
         <v>#N/A</v>
@@ -4861,28 +4866,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C83" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D83" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E83" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F83" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G83" t="e">
         <v>#N/A</v>
       </c>
       <c r="H83" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I83" t="e">
         <v>#N/A</v>
@@ -4896,16 +4901,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C84" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D84" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E84" t="e">
         <v>#N/A</v>
@@ -4931,16 +4936,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D85" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E85" t="e">
         <v>#N/A</v>
@@ -4966,19 +4971,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E86" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F86" t="e">
         <v>#N/A</v>
@@ -4987,7 +4992,7 @@
         <v>#N/A</v>
       </c>
       <c r="H86" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I86" t="e">
         <v>#N/A</v>
@@ -5001,16 +5006,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C87" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E87" t="e">
         <v>#N/A</v>
@@ -5031,24 +5036,24 @@
         <v>#N/A</v>
       </c>
       <c r="K87" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E88" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F88" t="e">
         <v>#N/A</v>
@@ -5057,7 +5062,7 @@
         <v>#N/A</v>
       </c>
       <c r="H88" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I88" t="e">
         <v>#N/A</v>
@@ -5071,16 +5076,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D89" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E89" t="e">
         <v>#N/A</v>
@@ -5106,16 +5111,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D90" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E90" t="e">
         <v>#N/A</v>
@@ -5136,18 +5141,18 @@
         <v>#N/A</v>
       </c>
       <c r="K90" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C91" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D91" t="e">
         <v>#N/A</v>
@@ -5176,19 +5181,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D92" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E92" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F92" t="e">
         <v>#N/A</v>
@@ -5197,7 +5202,7 @@
         <v>#N/A</v>
       </c>
       <c r="H92" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I92" t="e">
         <v>#N/A</v>
@@ -5206,24 +5211,24 @@
         <v>#N/A</v>
       </c>
       <c r="K92" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D93" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E93" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F93" t="e">
         <v>#N/A</v>
@@ -5232,7 +5237,7 @@
         <v>#N/A</v>
       </c>
       <c r="H93" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I93" t="e">
         <v>#N/A</v>
@@ -5246,19 +5251,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E94" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F94" t="e">
         <v>#N/A</v>
@@ -5267,7 +5272,7 @@
         <v>#N/A</v>
       </c>
       <c r="H94" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I94" t="e">
         <v>#N/A</v>
@@ -5281,19 +5286,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D95" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E95" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F95" t="e">
         <v>#N/A</v>
@@ -5302,7 +5307,7 @@
         <v>#N/A</v>
       </c>
       <c r="H95" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I95" t="e">
         <v>#N/A</v>
@@ -5316,19 +5321,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D96" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E96" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F96" t="e">
         <v>#N/A</v>
@@ -5337,7 +5342,7 @@
         <v>#N/A</v>
       </c>
       <c r="H96" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I96" t="e">
         <v>#N/A</v>
@@ -5351,16 +5356,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C97" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D97" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E97" t="e">
         <v>#N/A</v>
@@ -5372,7 +5377,7 @@
         <v>#N/A</v>
       </c>
       <c r="H97" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I97" t="e">
         <v>#N/A</v>
@@ -5381,21 +5386,21 @@
         <v>#N/A</v>
       </c>
       <c r="K97" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C98" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D98" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E98" t="e">
         <v>#N/A</v>
@@ -5407,7 +5412,7 @@
         <v>#N/A</v>
       </c>
       <c r="H98" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I98" t="e">
         <v>#N/A</v>
@@ -5421,19 +5426,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C99" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D99" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E99" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F99" t="e">
         <v>#N/A</v>
@@ -5442,7 +5447,7 @@
         <v>#N/A</v>
       </c>
       <c r="H99" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I99" t="e">
         <v>#N/A</v>
@@ -5456,13 +5461,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C100" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D100" t="e">
         <v>#N/A</v>
@@ -5491,19 +5496,19 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D101" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E101" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F101" t="e">
         <v>#N/A</v>
@@ -5512,7 +5517,7 @@
         <v>#N/A</v>
       </c>
       <c r="H101" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I101" t="e">
         <v>#N/A</v>
@@ -5526,16 +5531,16 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E102" t="e">
         <v>#N/A</v>
@@ -5561,19 +5566,19 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E103" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F103" t="e">
         <v>#N/A</v>
@@ -5582,7 +5587,7 @@
         <v>#N/A</v>
       </c>
       <c r="H103" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I103" t="e">
         <v>#N/A</v>
@@ -5596,16 +5601,16 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C104" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E104" t="e">
         <v>#N/A</v>
@@ -5626,24 +5631,24 @@
         <v>#N/A</v>
       </c>
       <c r="K104" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E105" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F105" t="e">
         <v>#N/A</v>
@@ -5652,7 +5657,7 @@
         <v>#N/A</v>
       </c>
       <c r="H105" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I105" t="e">
         <v>#N/A</v>
@@ -5666,19 +5671,19 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E106" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F106" t="e">
         <v>#N/A</v>
@@ -5687,7 +5692,7 @@
         <v>#N/A</v>
       </c>
       <c r="H106" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I106" t="e">
         <v>#N/A</v>
@@ -5701,16 +5706,16 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E107" t="e">
         <v>#N/A</v>
@@ -5736,16 +5741,16 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C108" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E108" t="e">
         <v>#N/A</v>
@@ -5771,19 +5776,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C109" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E109" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F109" t="e">
         <v>#N/A</v>
@@ -5792,7 +5797,7 @@
         <v>#N/A</v>
       </c>
       <c r="H109" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I109" t="e">
         <v>#N/A</v>
@@ -5806,19 +5811,19 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C110" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E110" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F110" t="e">
         <v>#N/A</v>
@@ -5827,7 +5832,7 @@
         <v>#N/A</v>
       </c>
       <c r="H110" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I110" t="e">
         <v>#N/A</v>
@@ -5841,16 +5846,16 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E111" t="e">
         <v>#N/A</v>
@@ -5871,24 +5876,24 @@
         <v>#N/A</v>
       </c>
       <c r="K111" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E112" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F112" t="e">
         <v>#N/A</v>
@@ -5897,7 +5902,7 @@
         <v>#N/A</v>
       </c>
       <c r="H112" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I112" t="e">
         <v>#N/A</v>
@@ -5911,19 +5916,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C113" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D113" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E113" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F113" t="e">
         <v>#N/A</v>
@@ -5932,7 +5937,7 @@
         <v>#N/A</v>
       </c>
       <c r="H113" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I113" t="e">
         <v>#N/A</v>
@@ -5946,16 +5951,16 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D114" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E114" t="e">
         <v>#N/A</v>
@@ -5981,19 +5986,19 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C115" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D115" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E115" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F115" t="e">
         <v>#N/A</v>
@@ -6002,7 +6007,7 @@
         <v>#N/A</v>
       </c>
       <c r="H115" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I115" t="e">
         <v>#N/A</v>
@@ -6016,19 +6021,19 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C116" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D116" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E116" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F116" t="e">
         <v>#N/A</v>
@@ -6037,7 +6042,7 @@
         <v>#N/A</v>
       </c>
       <c r="H116" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I116" t="e">
         <v>#N/A</v>
@@ -6046,24 +6051,24 @@
         <v>#N/A</v>
       </c>
       <c r="K116" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C117" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D117" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E117" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F117" t="e">
         <v>#N/A</v>
@@ -6072,7 +6077,7 @@
         <v>#N/A</v>
       </c>
       <c r="H117" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I117" t="e">
         <v>#N/A</v>
@@ -6086,19 +6091,19 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C118" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D118" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F118" t="e">
         <v>#N/A</v>
@@ -6107,7 +6112,7 @@
         <v>#N/A</v>
       </c>
       <c r="H118" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I118" t="e">
         <v>#N/A</v>
@@ -6121,19 +6126,19 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C119" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D119" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E119" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F119" t="e">
         <v>#N/A</v>
@@ -6142,7 +6147,7 @@
         <v>#N/A</v>
       </c>
       <c r="H119" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I119" t="e">
         <v>#N/A</v>
@@ -6156,28 +6161,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C120" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D120" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E120" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F120" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G120" t="e">
         <v>#N/A</v>
       </c>
       <c r="H120" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I120" t="e">
         <v>#N/A</v>
@@ -6191,19 +6196,19 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C121" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D121" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E121" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F121" t="e">
         <v>#N/A</v>
@@ -6212,7 +6217,7 @@
         <v>#N/A</v>
       </c>
       <c r="H121" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I121" t="e">
         <v>#N/A</v>
@@ -6221,21 +6226,21 @@
         <v>#N/A</v>
       </c>
       <c r="K121" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C122" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D122" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E122" t="e">
         <v>#N/A</v>
@@ -6261,19 +6266,19 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C123" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D123" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E123" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F123" t="e">
         <v>#N/A</v>
@@ -6282,10 +6287,10 @@
         <v>#N/A</v>
       </c>
       <c r="H123" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I123" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="J123" t="e">
         <v>#N/A</v>
@@ -6296,16 +6301,16 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C124" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D124" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E124" t="e">
         <v>#N/A</v>
@@ -6326,21 +6331,21 @@
         <v>#N/A</v>
       </c>
       <c r="K124" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C125" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D125" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E125" t="e">
         <v>#N/A</v>
@@ -6366,16 +6371,16 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C126" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D126" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E126" t="e">
         <v>#N/A</v>
@@ -6401,28 +6406,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C127" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D127" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E127" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F127" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G127" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H127" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I127" t="e">
         <v>#N/A</v>
@@ -6436,22 +6441,22 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C128" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D128" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E128" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F128" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G128" t="e">
         <v>#N/A</v>
@@ -6460,7 +6465,7 @@
         <v>#N/A</v>
       </c>
       <c r="I128" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J128" t="e">
         <v>#N/A</v>
@@ -6471,16 +6476,16 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C129" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D129" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E129" t="e">
         <v>#N/A</v>
@@ -6501,24 +6506,24 @@
         <v>#N/A</v>
       </c>
       <c r="K129" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C130" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D130" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E130" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F130" t="e">
         <v>#N/A</v>
@@ -6527,7 +6532,7 @@
         <v>#N/A</v>
       </c>
       <c r="H130" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I130" t="e">
         <v>#N/A</v>
@@ -6541,19 +6546,19 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C131" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D131" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E131" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F131" t="e">
         <v>#N/A</v>
@@ -6562,7 +6567,7 @@
         <v>#N/A</v>
       </c>
       <c r="H131" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I131" t="e">
         <v>#N/A</v>
@@ -6576,19 +6581,19 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C132" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D132" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E132" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F132" t="e">
         <v>#N/A</v>
@@ -6597,7 +6602,7 @@
         <v>#N/A</v>
       </c>
       <c r="H132" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I132" t="e">
         <v>#N/A</v>
@@ -6611,28 +6616,28 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D133" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E133" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F133" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G133" t="e">
         <v>#N/A</v>
       </c>
       <c r="H133" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I133" t="e">
         <v>#N/A</v>
@@ -6646,16 +6651,16 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C134" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D134" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E134" t="e">
         <v>#N/A</v>
@@ -6667,7 +6672,7 @@
         <v>#N/A</v>
       </c>
       <c r="H134" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I134" t="e">
         <v>#N/A</v>
@@ -6681,19 +6686,19 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C135" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D135" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E135" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F135" t="e">
         <v>#N/A</v>
@@ -6702,7 +6707,7 @@
         <v>#N/A</v>
       </c>
       <c r="H135" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I135" t="e">
         <v>#N/A</v>
@@ -6716,16 +6721,16 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C136" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D136" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E136" t="e">
         <v>#N/A</v>
@@ -6751,19 +6756,19 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D137" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E137" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F137" t="e">
         <v>#N/A</v>
@@ -6772,7 +6777,7 @@
         <v>#N/A</v>
       </c>
       <c r="H137" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I137" t="e">
         <v>#N/A</v>
@@ -6786,16 +6791,16 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C138" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D138" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E138" t="e">
         <v>#N/A</v>
@@ -6821,16 +6826,16 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B139" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C139" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D139" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E139" t="e">
         <v>#N/A</v>
@@ -6856,19 +6861,19 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C140" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D140" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E140" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F140" t="e">
         <v>#N/A</v>
@@ -6877,7 +6882,7 @@
         <v>#N/A</v>
       </c>
       <c r="H140" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I140" t="e">
         <v>#N/A</v>
@@ -6891,16 +6896,16 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C141" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D141" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E141" t="e">
         <v>#N/A</v>
@@ -6921,24 +6926,24 @@
         <v>#N/A</v>
       </c>
       <c r="K141" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C142" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D142" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E142" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F142" t="e">
         <v>#N/A</v>
@@ -6947,7 +6952,7 @@
         <v>#N/A</v>
       </c>
       <c r="H142" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I142" t="e">
         <v>#N/A</v>
@@ -6961,19 +6966,19 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C143" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D143" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E143" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F143" t="e">
         <v>#N/A</v>
@@ -6982,7 +6987,7 @@
         <v>#N/A</v>
       </c>
       <c r="H143" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I143" t="e">
         <v>#N/A</v>
@@ -6996,19 +7001,19 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C144" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D144" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E144" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F144" t="e">
         <v>#N/A</v>
@@ -7017,7 +7022,7 @@
         <v>#N/A</v>
       </c>
       <c r="H144" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I144" t="e">
         <v>#N/A</v>
@@ -7031,19 +7036,19 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C145" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D145" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E145" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F145" t="e">
         <v>#N/A</v>
@@ -7052,7 +7057,7 @@
         <v>#N/A</v>
       </c>
       <c r="H145" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I145" t="e">
         <v>#N/A</v>
@@ -7066,19 +7071,19 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C146" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D146" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E146" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F146" t="e">
         <v>#N/A</v>
@@ -7087,7 +7092,7 @@
         <v>#N/A</v>
       </c>
       <c r="H146" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I146" t="e">
         <v>#N/A</v>
@@ -7101,19 +7106,19 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C147" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D147" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E147" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F147" t="e">
         <v>#N/A</v>
@@ -7122,7 +7127,7 @@
         <v>#N/A</v>
       </c>
       <c r="H147" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I147" t="e">
         <v>#N/A</v>
@@ -7131,24 +7136,24 @@
         <v>#N/A</v>
       </c>
       <c r="K147" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B148" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C148" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D148" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E148" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F148" t="e">
         <v>#N/A</v>
@@ -7157,7 +7162,7 @@
         <v>#N/A</v>
       </c>
       <c r="H148" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I148" t="e">
         <v>#N/A</v>
@@ -7166,24 +7171,24 @@
         <v>#N/A</v>
       </c>
       <c r="K148" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C149" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D149" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E149" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F149" t="e">
         <v>#N/A</v>
@@ -7192,7 +7197,7 @@
         <v>#N/A</v>
       </c>
       <c r="H149" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I149" t="e">
         <v>#N/A</v>
@@ -7201,24 +7206,24 @@
         <v>#N/A</v>
       </c>
       <c r="K149" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B150" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C150" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D150" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E150" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F150" t="e">
         <v>#N/A</v>
@@ -7227,7 +7232,7 @@
         <v>#N/A</v>
       </c>
       <c r="H150" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I150" t="e">
         <v>#N/A</v>
@@ -7241,19 +7246,19 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B151" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C151" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D151" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E151" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F151" t="e">
         <v>#N/A</v>
@@ -7262,7 +7267,7 @@
         <v>#N/A</v>
       </c>
       <c r="H151" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I151" t="e">
         <v>#N/A</v>
@@ -7276,19 +7281,19 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B152" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C152" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D152" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E152" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F152" t="e">
         <v>#N/A</v>
@@ -7297,7 +7302,7 @@
         <v>#N/A</v>
       </c>
       <c r="H152" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I152" t="e">
         <v>#N/A</v>
@@ -7311,16 +7316,16 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C153" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D153" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E153" t="e">
         <v>#N/A</v>
@@ -7346,16 +7351,16 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B154" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C154" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D154" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E154" t="e">
         <v>#N/A</v>
@@ -7381,19 +7386,19 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C155" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D155" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E155" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F155" t="e">
         <v>#N/A</v>
@@ -7402,7 +7407,7 @@
         <v>#N/A</v>
       </c>
       <c r="H155" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I155" t="e">
         <v>#N/A</v>
@@ -7416,16 +7421,16 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B156" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C156" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D156" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E156" t="e">
         <v>#N/A</v>
@@ -7451,19 +7456,19 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B157" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C157" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D157" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E157" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F157" t="e">
         <v>#N/A</v>
@@ -7472,7 +7477,7 @@
         <v>#N/A</v>
       </c>
       <c r="H157" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I157" t="e">
         <v>#N/A</v>
@@ -7486,16 +7491,16 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C158" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D158" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E158" t="e">
         <v>#N/A</v>
@@ -7507,10 +7512,10 @@
         <v>#N/A</v>
       </c>
       <c r="H158" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I158" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J158" t="e">
         <v>#N/A</v>
@@ -7521,16 +7526,16 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C159" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D159" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E159" t="e">
         <v>#N/A</v>
@@ -7556,19 +7561,19 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C160" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D160" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E160" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F160" t="e">
         <v>#N/A</v>
@@ -7577,7 +7582,7 @@
         <v>#N/A</v>
       </c>
       <c r="H160" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I160" t="e">
         <v>#N/A</v>
@@ -7586,21 +7591,21 @@
         <v>#N/A</v>
       </c>
       <c r="K160" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C161" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D161" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E161" t="e">
         <v>#N/A</v>
@@ -7626,19 +7631,19 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B162" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C162" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D162" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E162" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F162" t="e">
         <v>#N/A</v>
@@ -7647,7 +7652,7 @@
         <v>#N/A</v>
       </c>
       <c r="H162" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I162" t="e">
         <v>#N/A</v>
@@ -7661,19 +7666,19 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C163" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D163" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E163" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F163" t="e">
         <v>#N/A</v>
@@ -7682,7 +7687,7 @@
         <v>#N/A</v>
       </c>
       <c r="H163" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I163" t="e">
         <v>#N/A</v>
@@ -7696,16 +7701,16 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C164" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D164" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E164" t="e">
         <v>#N/A</v>
@@ -7731,19 +7736,19 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B165" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C165" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D165" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E165" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F165" t="e">
         <v>#N/A</v>
@@ -7752,7 +7757,7 @@
         <v>#N/A</v>
       </c>
       <c r="H165" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I165" t="e">
         <v>#N/A</v>
@@ -7766,19 +7771,19 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B166" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C166" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D166" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E166" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F166" t="e">
         <v>#N/A</v>
@@ -7787,7 +7792,7 @@
         <v>#N/A</v>
       </c>
       <c r="H166" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I166" t="e">
         <v>#N/A</v>
@@ -7801,19 +7806,19 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C167" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D167" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E167" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F167" t="e">
         <v>#N/A</v>
@@ -7822,7 +7827,7 @@
         <v>#N/A</v>
       </c>
       <c r="H167" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I167" t="e">
         <v>#N/A</v>
@@ -7836,19 +7841,19 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C168" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D168" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E168" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F168" t="e">
         <v>#N/A</v>
@@ -7857,7 +7862,7 @@
         <v>#N/A</v>
       </c>
       <c r="H168" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I168" t="e">
         <v>#N/A</v>
@@ -7871,19 +7876,19 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B169" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C169" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D169" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E169" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F169" t="e">
         <v>#N/A</v>
@@ -7892,7 +7897,7 @@
         <v>#N/A</v>
       </c>
       <c r="H169" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I169" t="e">
         <v>#N/A</v>
@@ -7906,16 +7911,16 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B170" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C170" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D170" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E170" t="e">
         <v>#N/A</v>
@@ -7941,19 +7946,19 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B171" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C171" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D171" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E171" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F171" t="e">
         <v>#N/A</v>
@@ -7962,7 +7967,7 @@
         <v>#N/A</v>
       </c>
       <c r="H171" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I171" t="e">
         <v>#N/A</v>
@@ -7976,28 +7981,28 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C172" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D172" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E172" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F172" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G172" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H172" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I172" t="e">
         <v>#N/A</v>
@@ -8011,28 +8016,28 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B173" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C173" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D173" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E173" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F173" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G173" t="e">
         <v>#N/A</v>
       </c>
       <c r="H173" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I173" t="e">
         <v>#N/A</v>
@@ -8046,16 +8051,16 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C174" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D174" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E174" t="e">
         <v>#N/A</v>
@@ -8081,16 +8086,16 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B175" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C175" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D175" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E175" t="e">
         <v>#N/A</v>
@@ -8116,16 +8121,16 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C176" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D176" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E176" t="e">
         <v>#N/A</v>
@@ -8151,19 +8156,19 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B177" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C177" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D177" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E177" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F177" t="e">
         <v>#N/A</v>
@@ -8172,7 +8177,7 @@
         <v>#N/A</v>
       </c>
       <c r="H177" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I177" t="e">
         <v>#N/A</v>
@@ -8186,19 +8191,19 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B178" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C178" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D178" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E178" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F178" t="e">
         <v>#N/A</v>
@@ -8207,7 +8212,7 @@
         <v>#N/A</v>
       </c>
       <c r="H178" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I178" t="e">
         <v>#N/A</v>
@@ -8221,19 +8226,19 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B179" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D179" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E179" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F179" t="e">
         <v>#N/A</v>
@@ -8242,7 +8247,7 @@
         <v>#N/A</v>
       </c>
       <c r="H179" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I179" t="e">
         <v>#N/A</v>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="644">
-  <si>
-    <t>...1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="466">
   <si>
     <t>country</t>
   </si>
@@ -47,540 +44,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1613,6 +1076,9 @@
     <t>Selenium</t>
   </si>
   <si>
+    <t>pdf</t>
+  </si>
+  <si>
     <t>html2</t>
   </si>
   <si>
@@ -1634,7 +1100,7 @@
     <t>https://new.shendetesia.gov.al/covid-19</t>
   </si>
   <si>
-    <t>reporte[-_]matutino[-_]covid.*.pdf</t>
+    <t>https://www.argentina.gob.ar/sites/default/files/DATE-reporte-matutino-covid-19.pdf</t>
   </si>
   <si>
     <t>https://infogram.com/--1h7j4drmogk92nr</t>
@@ -1703,7 +1169,7 @@
     <t>([,0-9]+)</t>
   </si>
   <si>
-    <t>([0-9 .,]+) pruebas diagnósticas</t>
+    <t>(?&lt;=se realizaron)(.*)(?=pruebas diagn)</t>
   </si>
   <si>
     <t>Ընդհանուր թեստեր - ([0-9 .,]+)</t>
@@ -1853,7 +1319,7 @@
     <t>(?&lt;=janë kryer)(.*)(?=testime\.)</t>
   </si>
   <si>
-    <t>([0-9 .,]+) nuevas muestras</t>
+    <t>(?&lt;=fueron realizadas)(.*)(?=nuevas muestras)</t>
   </si>
   <si>
     <t>last,TESTS</t>
@@ -2025,162 +1491,147 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="E2" t="s">
-        <v>530</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>538</v>
+        <v>377</v>
       </c>
       <c r="G2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H2" t="s">
-        <v>560</v>
+        <v>382</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I2" t="e">
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K2" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#N/A</v>
+        <v>361</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="s">
+        <v>383</v>
       </c>
       <c r="H3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I3" t="s">
-        <v>612</v>
+        <v>434</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K3" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H4" t="s">
-        <v>562</v>
+      <c r="G4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I4" t="e">
         <v>#N/A</v>
       </c>
       <c r="J4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K4" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H5" t="s">
-        <v>562</v>
+      <c r="G5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I5" t="e">
         <v>#N/A</v>
       </c>
       <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" t="s">
-        <v>411</v>
+        <v>232</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E6" t="e">
         <v>#N/A</v>
@@ -2198,269 +1649,245 @@
         <v>#N/A</v>
       </c>
       <c r="J6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K6" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="E7" t="s">
-        <v>530</v>
+        <v>362</v>
       </c>
       <c r="F7" t="s">
-        <v>540</v>
+        <v>378</v>
       </c>
       <c r="G7" t="s">
-        <v>556</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
-        <v>563</v>
-      </c>
-      <c r="I7" t="s">
-        <v>613</v>
+        <v>435</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K7" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E8" t="s">
-        <v>533</v>
-      </c>
-      <c r="F8" t="s">
-        <v>541</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H8" t="s">
-        <v>564</v>
+        <v>363</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K8" t="s">
-        <v>618</v>
+      <c r="J8" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
-      </c>
-      <c r="E9" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H9" t="s">
-        <v>562</v>
+      <c r="G9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I9" t="e">
         <v>#N/A</v>
       </c>
       <c r="J9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K9" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="E10" t="s">
-        <v>534</v>
-      </c>
-      <c r="F10" t="s">
-        <v>542</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H10" t="s">
-        <v>565</v>
+        <v>364</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K10" t="s">
-        <v>619</v>
+      <c r="J10" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
-      </c>
-      <c r="E11" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H11" t="s">
-        <v>566</v>
+      <c r="G11" t="s">
+        <v>388</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K11" t="s">
-        <v>620</v>
+      <c r="J11" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>417</v>
-      </c>
-      <c r="E12" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H12" t="s">
-        <v>567</v>
+      <c r="G12" t="s">
+        <v>389</v>
+      </c>
+      <c r="H12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K12" t="s">
-        <v>621</v>
+      <c r="J12" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
-      </c>
-      <c r="E13" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H13" t="s">
-        <v>568</v>
+      <c r="G13" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K13" t="s">
-        <v>622</v>
+      <c r="J13" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" t="s">
-        <v>419</v>
+        <v>240</v>
+      </c>
+      <c r="D14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E14" t="e">
         <v>#N/A</v>
@@ -2478,24 +1905,21 @@
         <v>#N/A</v>
       </c>
       <c r="J14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K14" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" t="s">
-        <v>420</v>
+        <v>241</v>
+      </c>
+      <c r="D15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
@@ -2503,69 +1927,63 @@
       <c r="F15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H15" t="s">
-        <v>569</v>
+      <c r="G15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I15" t="e">
         <v>#N/A</v>
       </c>
       <c r="J15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K15" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s">
-        <v>534</v>
-      </c>
-      <c r="F16" t="s">
-        <v>543</v>
-      </c>
-      <c r="G16" t="e">
-        <v>#N/A</v>
+        <v>365</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G16" t="s">
+        <v>392</v>
       </c>
       <c r="H16" t="s">
-        <v>570</v>
-      </c>
-      <c r="I16" t="s">
-        <v>614</v>
+        <v>436</v>
+      </c>
+      <c r="I16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K16" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" t="s">
-        <v>422</v>
+        <v>243</v>
+      </c>
+      <c r="D17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E17" t="e">
         <v>#N/A</v>
@@ -2583,94 +2001,85 @@
         <v>#N/A</v>
       </c>
       <c r="J17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K17" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D18" t="s">
-        <v>410</v>
-      </c>
-      <c r="E18" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H18" t="s">
-        <v>562</v>
+      <c r="G18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I18" t="e">
         <v>#N/A</v>
       </c>
       <c r="J18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K18" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
-      </c>
-      <c r="E19" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H19" t="s">
-        <v>571</v>
+      <c r="G19" t="s">
+        <v>393</v>
+      </c>
+      <c r="H19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I19" t="e">
         <v>#N/A</v>
       </c>
       <c r="J19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K19" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" t="s">
-        <v>424</v>
+        <v>245</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E20" t="e">
         <v>#N/A</v>
@@ -2688,24 +2097,21 @@
         <v>#N/A</v>
       </c>
       <c r="J20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K20" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" t="s">
-        <v>425</v>
+        <v>246</v>
+      </c>
+      <c r="D21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E21" t="e">
         <v>#N/A</v>
@@ -2723,269 +2129,245 @@
         <v>#N/A</v>
       </c>
       <c r="J21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K21" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s">
-        <v>426</v>
-      </c>
-      <c r="E22" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H22" t="s">
-        <v>568</v>
+      <c r="G22" t="s">
+        <v>390</v>
+      </c>
+      <c r="H22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K22" t="s">
-        <v>623</v>
+      <c r="J22" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H23" t="s">
-        <v>562</v>
+      <c r="G23" t="s">
+        <v>384</v>
+      </c>
+      <c r="H23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I23" t="e">
         <v>#N/A</v>
       </c>
       <c r="J23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K23" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="D24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E24" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H24" t="s">
-        <v>572</v>
+      <c r="G24" t="s">
+        <v>394</v>
+      </c>
+      <c r="H24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I24" t="e">
         <v>#N/A</v>
       </c>
       <c r="J24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K24" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="D25" t="s">
-        <v>428</v>
-      </c>
-      <c r="E25" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H25" t="s">
-        <v>562</v>
+      <c r="G25" t="s">
+        <v>384</v>
+      </c>
+      <c r="H25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I25" t="e">
         <v>#N/A</v>
       </c>
       <c r="J25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K25" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
-        <v>429</v>
-      </c>
-      <c r="E26" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H26" t="s">
-        <v>573</v>
+      <c r="G26" t="s">
+        <v>395</v>
+      </c>
+      <c r="H26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I26" t="e">
         <v>#N/A</v>
       </c>
       <c r="J26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K26" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>369</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>410</v>
-      </c>
-      <c r="E27" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H27" t="s">
-        <v>562</v>
+      <c r="G27" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I27" t="e">
         <v>#N/A</v>
       </c>
       <c r="J27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K27" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>410</v>
-      </c>
-      <c r="E28" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H28" t="s">
-        <v>562</v>
+      <c r="G28" t="s">
+        <v>384</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I28" t="e">
         <v>#N/A</v>
       </c>
       <c r="J28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K28" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" t="s">
-        <v>430</v>
+        <v>251</v>
+      </c>
+      <c r="D29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E29" t="e">
         <v>#N/A</v>
@@ -3003,304 +2385,277 @@
         <v>#N/A</v>
       </c>
       <c r="J29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K29" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>410</v>
-      </c>
-      <c r="E30" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H30" t="s">
-        <v>562</v>
+      <c r="G30" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I30" t="e">
         <v>#N/A</v>
       </c>
       <c r="J30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K30" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="D31" t="s">
-        <v>431</v>
-      </c>
-      <c r="E31" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H31" t="s">
-        <v>574</v>
+      <c r="G31" t="s">
+        <v>396</v>
+      </c>
+      <c r="H31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K31" t="s">
-        <v>624</v>
+      <c r="J31" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>370</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
-        <v>410</v>
-      </c>
-      <c r="E32" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H32" t="s">
-        <v>562</v>
+      <c r="G32" t="s">
+        <v>384</v>
+      </c>
+      <c r="H32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I32" t="e">
         <v>#N/A</v>
       </c>
       <c r="J32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K32" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>371</v>
+        <v>231</v>
       </c>
       <c r="D33" t="s">
-        <v>410</v>
-      </c>
-      <c r="E33" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H33" t="s">
-        <v>562</v>
+      <c r="G33" t="s">
+        <v>384</v>
+      </c>
+      <c r="H33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I33" t="e">
         <v>#N/A</v>
       </c>
       <c r="J33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K33" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
-      </c>
-      <c r="E34" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H34" t="s">
-        <v>562</v>
+      <c r="G34" t="s">
+        <v>384</v>
+      </c>
+      <c r="H34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I34" t="e">
         <v>#N/A</v>
       </c>
       <c r="J34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K34" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="D35" t="s">
-        <v>432</v>
+        <v>356</v>
       </c>
       <c r="E35" t="s">
-        <v>534</v>
-      </c>
-      <c r="F35" t="s">
-        <v>544</v>
-      </c>
-      <c r="G35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H35" t="s">
-        <v>575</v>
-      </c>
-      <c r="I35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J35" t="n">
+        <v>366</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" t="s">
+        <v>397</v>
+      </c>
+      <c r="H35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I35" t="n">
         <v>60556.0</v>
       </c>
-      <c r="K35" t="e">
+      <c r="J35" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>356</v>
       </c>
       <c r="E36" t="s">
-        <v>534</v>
-      </c>
-      <c r="F36" t="s">
-        <v>545</v>
-      </c>
-      <c r="G36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H36" t="s">
-        <v>576</v>
+        <v>367</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G36" t="s">
+        <v>398</v>
+      </c>
+      <c r="H36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K36" t="s">
-        <v>625</v>
+      <c r="J36" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D37" t="s">
-        <v>410</v>
-      </c>
-      <c r="E37" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H37" t="s">
-        <v>562</v>
+      <c r="G37" t="s">
+        <v>384</v>
+      </c>
+      <c r="H37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I37" t="e">
         <v>#N/A</v>
       </c>
       <c r="J37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K37" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
-      </c>
-      <c r="D38" t="s">
-        <v>434</v>
+        <v>255</v>
+      </c>
+      <c r="D38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E38" t="e">
         <v>#N/A</v>
@@ -3308,104 +2663,95 @@
       <c r="F38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H38" t="s">
-        <v>568</v>
+      <c r="G38" t="s">
+        <v>390</v>
+      </c>
+      <c r="H38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I38" t="e">
         <v>#N/A</v>
       </c>
       <c r="J38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K38" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>373</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>410</v>
-      </c>
-      <c r="E39" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H39" t="s">
-        <v>562</v>
+      <c r="G39" t="s">
+        <v>384</v>
+      </c>
+      <c r="H39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I39" t="e">
         <v>#N/A</v>
       </c>
       <c r="J39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K39" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D40" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="E40" t="s">
-        <v>533</v>
-      </c>
-      <c r="F40" t="s">
-        <v>435</v>
-      </c>
-      <c r="G40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H40" t="s">
-        <v>577</v>
+        <v>256</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G40" t="s">
+        <v>399</v>
+      </c>
+      <c r="H40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K40" t="s">
-        <v>626</v>
+      <c r="J40" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" t="s">
-        <v>436</v>
+        <v>257</v>
+      </c>
+      <c r="D41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E41" t="e">
         <v>#N/A</v>
@@ -3413,34 +2759,31 @@
       <c r="F41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H41" t="s">
-        <v>578</v>
+      <c r="G41" t="s">
+        <v>400</v>
+      </c>
+      <c r="H41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I41" t="e">
         <v>#N/A</v>
       </c>
       <c r="J41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K41" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" t="s">
-        <v>437</v>
+        <v>258</v>
+      </c>
+      <c r="D42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E42" t="e">
         <v>#N/A</v>
@@ -3457,165 +2800,150 @@
       <c r="I42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K42" t="s">
-        <v>627</v>
+      <c r="J42" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="D43" t="s">
-        <v>438</v>
-      </c>
-      <c r="E43" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H43" t="s">
-        <v>579</v>
+      <c r="G43" t="s">
+        <v>401</v>
+      </c>
+      <c r="H43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K43" t="s">
-        <v>628</v>
+      <c r="J43" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" t="s">
         <v>231</v>
       </c>
-      <c r="C44" t="s">
-        <v>375</v>
-      </c>
       <c r="D44" t="s">
-        <v>410</v>
-      </c>
-      <c r="E44" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H44" t="s">
-        <v>562</v>
+      <c r="G44" t="s">
+        <v>384</v>
+      </c>
+      <c r="H44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I44" t="e">
         <v>#N/A</v>
       </c>
       <c r="J44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K44" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="D45" t="s">
-        <v>439</v>
-      </c>
-      <c r="E45" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H45" t="s">
-        <v>580</v>
+      <c r="G45" t="s">
+        <v>402</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I45" t="e">
         <v>#N/A</v>
       </c>
       <c r="J45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s">
-        <v>410</v>
-      </c>
-      <c r="E46" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H46" t="s">
-        <v>562</v>
+      <c r="G46" t="s">
+        <v>384</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I46" t="e">
         <v>#N/A</v>
       </c>
       <c r="J46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K46" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" t="s">
-        <v>440</v>
+        <v>261</v>
+      </c>
+      <c r="D47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E47" t="e">
         <v>#N/A</v>
@@ -3633,24 +2961,21 @@
         <v>#N/A</v>
       </c>
       <c r="J47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K47" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>376</v>
-      </c>
-      <c r="D48" t="s">
-        <v>441</v>
+        <v>262</v>
+      </c>
+      <c r="D48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E48" t="e">
         <v>#N/A</v>
@@ -3668,94 +2993,85 @@
         <v>#N/A</v>
       </c>
       <c r="J48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K48" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
-        <v>442</v>
-      </c>
-      <c r="E49" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H49" t="s">
-        <v>581</v>
+      <c r="G49" t="s">
+        <v>403</v>
+      </c>
+      <c r="H49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I49" t="e">
         <v>#N/A</v>
       </c>
       <c r="J49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K49" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>410</v>
-      </c>
-      <c r="E50" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H50" t="s">
-        <v>562</v>
+      <c r="G50" t="s">
+        <v>384</v>
+      </c>
+      <c r="H50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I50" t="e">
         <v>#N/A</v>
       </c>
       <c r="J50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K50" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>377</v>
-      </c>
-      <c r="D51" t="s">
-        <v>443</v>
+        <v>264</v>
+      </c>
+      <c r="D51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E51" t="e">
         <v>#N/A</v>
@@ -3763,244 +3079,223 @@
       <c r="F51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H51" t="s">
-        <v>582</v>
+      <c r="G51" t="s">
+        <v>404</v>
+      </c>
+      <c r="H51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K51" t="s">
-        <v>629</v>
+      <c r="J51" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="C52" t="s">
-        <v>378</v>
+        <v>231</v>
       </c>
       <c r="D52" t="s">
-        <v>410</v>
-      </c>
-      <c r="E52" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H52" t="s">
-        <v>562</v>
+      <c r="G52" t="s">
+        <v>384</v>
+      </c>
+      <c r="H52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I52" t="e">
         <v>#N/A</v>
       </c>
       <c r="J52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K52" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D53" t="s">
-        <v>410</v>
-      </c>
-      <c r="E53" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H53" t="s">
-        <v>562</v>
+      <c r="G53" t="s">
+        <v>384</v>
+      </c>
+      <c r="H53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I53" t="e">
         <v>#N/A</v>
       </c>
       <c r="J53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K53" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>444</v>
+        <v>358</v>
       </c>
       <c r="E54" t="s">
-        <v>536</v>
-      </c>
-      <c r="F54" t="s">
-        <v>546</v>
-      </c>
-      <c r="G54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H54" t="s">
-        <v>583</v>
+        <v>368</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G54" t="s">
+        <v>405</v>
+      </c>
+      <c r="H54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I54" t="e">
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K54" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E55" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H55" t="s">
-        <v>562</v>
+      <c r="G55" t="s">
+        <v>384</v>
+      </c>
+      <c r="H55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I55" t="e">
         <v>#N/A</v>
       </c>
       <c r="J55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K55" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D56" t="s">
-        <v>410</v>
-      </c>
-      <c r="E56" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H56" t="s">
-        <v>562</v>
+      <c r="G56" t="s">
+        <v>384</v>
+      </c>
+      <c r="H56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I56" t="e">
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K56" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="D57" t="s">
-        <v>445</v>
-      </c>
-      <c r="E57" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H57" t="s">
-        <v>584</v>
+      <c r="G57" t="s">
+        <v>406</v>
+      </c>
+      <c r="H57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I57" t="e">
         <v>#N/A</v>
       </c>
       <c r="J57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K57" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" t="s">
-        <v>446</v>
+        <v>267</v>
+      </c>
+      <c r="D58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E58" t="e">
         <v>#N/A</v>
@@ -4018,94 +3313,85 @@
         <v>#N/A</v>
       </c>
       <c r="J58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K58" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D59" t="s">
-        <v>447</v>
-      </c>
-      <c r="E59" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H59" t="s">
-        <v>585</v>
+      <c r="G59" t="s">
+        <v>407</v>
+      </c>
+      <c r="H59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K59" t="s">
-        <v>630</v>
+      <c r="J59" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="D60" t="s">
-        <v>448</v>
-      </c>
-      <c r="E60" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H60" t="s">
-        <v>585</v>
+      <c r="G60" t="s">
+        <v>407</v>
+      </c>
+      <c r="H60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I60" t="e">
         <v>#N/A</v>
       </c>
       <c r="J60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K60" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C61" t="s">
-        <v>380</v>
-      </c>
-      <c r="D61" t="s">
-        <v>449</v>
+        <v>270</v>
+      </c>
+      <c r="D61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E61" t="e">
         <v>#N/A</v>
@@ -4123,56 +3409,50 @@
         <v>#N/A</v>
       </c>
       <c r="J61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K61" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>410</v>
-      </c>
-      <c r="E62" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H62" t="s">
-        <v>562</v>
+      <c r="G62" t="s">
+        <v>384</v>
+      </c>
+      <c r="H62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I62" t="e">
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K62" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" t="s">
-        <v>250</v>
+        <v>71</v>
+      </c>
+      <c r="C63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D63" t="e">
         <v>#N/A</v>
@@ -4193,24 +3473,21 @@
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K63" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
-      </c>
-      <c r="D64" t="s">
-        <v>450</v>
+        <v>271</v>
+      </c>
+      <c r="D64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E64" t="e">
         <v>#N/A</v>
@@ -4228,59 +3505,53 @@
         <v>#N/A</v>
       </c>
       <c r="J64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K64" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
-        <v>410</v>
-      </c>
-      <c r="E65" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H65" t="s">
-        <v>562</v>
+      <c r="G65" t="s">
+        <v>384</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I65" t="e">
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K65" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
-      </c>
-      <c r="D66" t="s">
-        <v>451</v>
+        <v>272</v>
+      </c>
+      <c r="D66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E66" t="e">
         <v>#N/A</v>
@@ -4298,59 +3569,53 @@
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K66" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>452</v>
-      </c>
-      <c r="E67" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H67" t="s">
-        <v>586</v>
+      <c r="G67" t="s">
+        <v>408</v>
+      </c>
+      <c r="H67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I67" t="e">
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K67" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>255</v>
-      </c>
-      <c r="D68" t="s">
-        <v>453</v>
+        <v>274</v>
+      </c>
+      <c r="D68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E68" t="e">
         <v>#N/A</v>
@@ -4368,24 +3633,21 @@
         <v>#N/A</v>
       </c>
       <c r="J68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K68" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" t="s">
-        <v>454</v>
+        <v>275</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E69" t="e">
         <v>#N/A</v>
@@ -4403,94 +3665,85 @@
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K69" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="D70" t="s">
-        <v>410</v>
-      </c>
-      <c r="E70" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H70" t="s">
-        <v>562</v>
+      <c r="G70" t="s">
+        <v>384</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I70" t="e">
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K70" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="D71" t="s">
-        <v>410</v>
-      </c>
-      <c r="E71" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H71" t="s">
-        <v>562</v>
+      <c r="G71" t="s">
+        <v>384</v>
+      </c>
+      <c r="H71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I71" t="e">
         <v>#N/A</v>
       </c>
       <c r="J71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K71" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
-      </c>
-      <c r="D72" t="s">
-        <v>455</v>
+        <v>276</v>
+      </c>
+      <c r="D72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E72" t="e">
         <v>#N/A</v>
@@ -4508,24 +3761,21 @@
         <v>#N/A</v>
       </c>
       <c r="J72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K72" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
-      </c>
-      <c r="D73" t="s">
-        <v>456</v>
+        <v>277</v>
+      </c>
+      <c r="D73" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E73" t="e">
         <v>#N/A</v>
@@ -4543,24 +3793,21 @@
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K73" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>382</v>
-      </c>
-      <c r="D74" t="s">
-        <v>457</v>
+        <v>278</v>
+      </c>
+      <c r="D74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E74" t="e">
         <v>#N/A</v>
@@ -4578,59 +3825,53 @@
         <v>#N/A</v>
       </c>
       <c r="J74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K74" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="D75" t="s">
-        <v>458</v>
-      </c>
-      <c r="E75" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H75" t="s">
-        <v>585</v>
+      <c r="G75" t="s">
+        <v>407</v>
+      </c>
+      <c r="H75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K75" t="s">
-        <v>631</v>
+      <c r="J75" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>263</v>
-      </c>
-      <c r="D76" t="s">
-        <v>459</v>
+        <v>280</v>
+      </c>
+      <c r="D76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E76" t="e">
         <v>#N/A</v>
@@ -4647,95 +3888,86 @@
       <c r="I76" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K76" t="s">
-        <v>632</v>
+      <c r="J76" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="D77" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="E77" t="s">
-        <v>532</v>
+        <v>369</v>
       </c>
       <c r="F77" t="s">
-        <v>547</v>
+        <v>379</v>
       </c>
       <c r="G77" t="s">
-        <v>557</v>
-      </c>
-      <c r="H77" t="s">
-        <v>562</v>
+        <v>384</v>
+      </c>
+      <c r="H77" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I77" t="e">
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K77" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D78" t="s">
-        <v>461</v>
-      </c>
-      <c r="E78" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H78" t="s">
-        <v>587</v>
+      <c r="G78" t="s">
+        <v>409</v>
+      </c>
+      <c r="H78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K78" t="s">
-        <v>633</v>
+      <c r="J78" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>266</v>
-      </c>
-      <c r="D79" t="s">
-        <v>462</v>
+        <v>283</v>
+      </c>
+      <c r="D79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E79" t="e">
         <v>#N/A</v>
@@ -4753,24 +3985,21 @@
         <v>#N/A</v>
       </c>
       <c r="J79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K79" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
-      </c>
-      <c r="D80" t="s">
-        <v>463</v>
+        <v>284</v>
+      </c>
+      <c r="D80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E80" t="e">
         <v>#N/A</v>
@@ -4788,59 +4017,53 @@
         <v>#N/A</v>
       </c>
       <c r="J80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K80" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D81" t="s">
-        <v>464</v>
-      </c>
-      <c r="E81" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H81" t="s">
-        <v>562</v>
+      <c r="G81" t="s">
+        <v>384</v>
+      </c>
+      <c r="H81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I81" t="e">
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K81" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
-      </c>
-      <c r="D82" t="s">
-        <v>465</v>
+        <v>286</v>
+      </c>
+      <c r="D82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E82" t="e">
         <v>#N/A</v>
@@ -4858,59 +4081,53 @@
         <v>#N/A</v>
       </c>
       <c r="J82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K82" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="D83" t="s">
-        <v>466</v>
+        <v>358</v>
       </c>
       <c r="E83" t="s">
-        <v>536</v>
-      </c>
-      <c r="F83" t="s">
-        <v>548</v>
-      </c>
-      <c r="G83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H83" t="s">
-        <v>588</v>
+        <v>370</v>
+      </c>
+      <c r="F83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G83" t="s">
+        <v>410</v>
+      </c>
+      <c r="H83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I83" t="e">
         <v>#N/A</v>
       </c>
       <c r="J83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K83" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>271</v>
-      </c>
-      <c r="D84" t="s">
-        <v>467</v>
+        <v>288</v>
+      </c>
+      <c r="D84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E84" t="e">
         <v>#N/A</v>
@@ -4928,24 +4145,21 @@
         <v>#N/A</v>
       </c>
       <c r="J84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K84" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" t="s">
-        <v>468</v>
+        <v>289</v>
+      </c>
+      <c r="D85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E85" t="e">
         <v>#N/A</v>
@@ -4963,59 +4177,53 @@
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K85" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D86" t="s">
-        <v>469</v>
-      </c>
-      <c r="E86" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H86" t="s">
-        <v>589</v>
+      <c r="G86" t="s">
+        <v>411</v>
+      </c>
+      <c r="H86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I86" t="e">
         <v>#N/A</v>
       </c>
       <c r="J86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K86" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" t="s">
-        <v>470</v>
+        <v>291</v>
+      </c>
+      <c r="D87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E87" t="e">
         <v>#N/A</v>
@@ -5032,60 +4240,54 @@
       <c r="I87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K87" t="s">
-        <v>634</v>
+      <c r="J87" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
-        <v>410</v>
-      </c>
-      <c r="E88" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E88" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F88" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H88" t="s">
-        <v>562</v>
+      <c r="G88" t="s">
+        <v>384</v>
+      </c>
+      <c r="H88" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I88" t="e">
         <v>#N/A</v>
       </c>
       <c r="J88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K88" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
-      </c>
-      <c r="D89" t="s">
-        <v>471</v>
+        <v>292</v>
+      </c>
+      <c r="D89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E89" t="e">
         <v>#N/A</v>
@@ -5103,24 +4305,21 @@
         <v>#N/A</v>
       </c>
       <c r="J89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K89" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>277</v>
-      </c>
-      <c r="D90" t="s">
-        <v>472</v>
+        <v>293</v>
+      </c>
+      <c r="D90" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E90" t="e">
         <v>#N/A</v>
@@ -5137,22 +4336,19 @@
       <c r="I90" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K90" t="s">
-        <v>628</v>
+      <c r="J90" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
-      </c>
-      <c r="C91" t="s">
-        <v>383</v>
+        <v>204</v>
+      </c>
+      <c r="C91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D91" t="e">
         <v>#N/A</v>
@@ -5173,199 +4369,181 @@
         <v>#N/A</v>
       </c>
       <c r="J91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K91" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D92" t="s">
-        <v>473</v>
-      </c>
-      <c r="E92" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E92" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H92" t="s">
-        <v>585</v>
+      <c r="G92" t="s">
+        <v>407</v>
+      </c>
+      <c r="H92" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K92" t="s">
-        <v>632</v>
+      <c r="J92" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D93" t="s">
-        <v>474</v>
-      </c>
-      <c r="E93" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E93" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H93" t="s">
-        <v>590</v>
+      <c r="G93" t="s">
+        <v>412</v>
+      </c>
+      <c r="H93" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I93" t="e">
         <v>#N/A</v>
       </c>
       <c r="J93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K93" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D94" t="s">
-        <v>410</v>
-      </c>
-      <c r="E94" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H94" t="s">
-        <v>562</v>
+      <c r="G94" t="s">
+        <v>384</v>
+      </c>
+      <c r="H94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I94" t="e">
         <v>#N/A</v>
       </c>
       <c r="J94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K94" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>282</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="D95" t="s">
-        <v>410</v>
-      </c>
-      <c r="E95" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E95" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F95" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H95" t="s">
-        <v>562</v>
+      <c r="G95" t="s">
+        <v>384</v>
+      </c>
+      <c r="H95" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I95" t="e">
         <v>#N/A</v>
       </c>
       <c r="J95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K95" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="D96" t="s">
-        <v>410</v>
-      </c>
-      <c r="E96" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H96" t="s">
-        <v>562</v>
+      <c r="G96" t="s">
+        <v>384</v>
+      </c>
+      <c r="H96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I96" t="e">
         <v>#N/A</v>
       </c>
       <c r="J96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K96" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>284</v>
-      </c>
-      <c r="D97" t="s">
-        <v>475</v>
+        <v>296</v>
+      </c>
+      <c r="D97" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E97" t="e">
         <v>#N/A</v>
@@ -5373,34 +4551,31 @@
       <c r="F97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H97" t="s">
-        <v>591</v>
+      <c r="G97" t="s">
+        <v>413</v>
+      </c>
+      <c r="H97" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K97" t="s">
-        <v>635</v>
+      <c r="J97" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>285</v>
-      </c>
-      <c r="D98" t="s">
-        <v>476</v>
+        <v>297</v>
+      </c>
+      <c r="D98" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E98" t="e">
         <v>#N/A</v>
@@ -5408,66 +4583,60 @@
       <c r="F98" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H98" t="s">
-        <v>592</v>
+      <c r="G98" t="s">
+        <v>414</v>
+      </c>
+      <c r="H98" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I98" t="e">
         <v>#N/A</v>
       </c>
       <c r="J98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K98" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="D99" t="s">
-        <v>410</v>
-      </c>
-      <c r="E99" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E99" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H99" t="s">
-        <v>562</v>
+      <c r="G99" t="s">
+        <v>384</v>
+      </c>
+      <c r="H99" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I99" t="e">
         <v>#N/A</v>
       </c>
       <c r="J99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K99" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
-      </c>
-      <c r="C100" t="s">
-        <v>287</v>
+        <v>108</v>
+      </c>
+      <c r="C100" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D100" t="e">
         <v>#N/A</v>
@@ -5488,59 +4657,53 @@
         <v>#N/A</v>
       </c>
       <c r="J100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K100" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="D101" t="s">
-        <v>410</v>
-      </c>
-      <c r="E101" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E101" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H101" t="s">
-        <v>562</v>
+      <c r="G101" t="s">
+        <v>384</v>
+      </c>
+      <c r="H101" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I101" t="e">
         <v>#N/A</v>
       </c>
       <c r="J101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K101" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
-      </c>
-      <c r="D102" t="s">
-        <v>477</v>
+        <v>298</v>
+      </c>
+      <c r="D102" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E102" t="e">
         <v>#N/A</v>
@@ -5558,59 +4721,53 @@
         <v>#N/A</v>
       </c>
       <c r="J102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K102" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="D103" t="s">
-        <v>410</v>
-      </c>
-      <c r="E103" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E103" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F103" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H103" t="s">
-        <v>562</v>
+      <c r="G103" t="s">
+        <v>384</v>
+      </c>
+      <c r="H103" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I103" t="e">
         <v>#N/A</v>
       </c>
       <c r="J103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K103" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
-      </c>
-      <c r="D104" t="s">
-        <v>478</v>
+        <v>299</v>
+      </c>
+      <c r="D104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E104" t="e">
         <v>#N/A</v>
@@ -5627,95 +4784,86 @@
       <c r="I104" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K104" t="s">
-        <v>636</v>
+      <c r="J104" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="D105" t="s">
-        <v>410</v>
-      </c>
-      <c r="E105" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F105" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H105" t="s">
-        <v>562</v>
+      <c r="G105" t="s">
+        <v>384</v>
+      </c>
+      <c r="H105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I105" t="e">
         <v>#N/A</v>
       </c>
       <c r="J105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K105" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>114</v>
       </c>
       <c r="C106" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="D106" t="s">
-        <v>410</v>
-      </c>
-      <c r="E106" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E106" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H106" t="s">
-        <v>562</v>
+      <c r="G106" t="s">
+        <v>384</v>
+      </c>
+      <c r="H106" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I106" t="e">
         <v>#N/A</v>
       </c>
       <c r="J106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K106" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>294</v>
-      </c>
-      <c r="D107" t="s">
-        <v>479</v>
+        <v>300</v>
+      </c>
+      <c r="D107" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E107" t="e">
         <v>#N/A</v>
@@ -5733,24 +4881,21 @@
         <v>#N/A</v>
       </c>
       <c r="J107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K107" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>295</v>
-      </c>
-      <c r="D108" t="s">
-        <v>480</v>
+        <v>301</v>
+      </c>
+      <c r="D108" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E108" t="e">
         <v>#N/A</v>
@@ -5768,94 +4913,85 @@
         <v>#N/A</v>
       </c>
       <c r="J108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K108" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="D109" t="s">
-        <v>410</v>
-      </c>
-      <c r="E109" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E109" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F109" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H109" t="s">
-        <v>562</v>
+      <c r="G109" t="s">
+        <v>384</v>
+      </c>
+      <c r="H109" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I109" t="e">
         <v>#N/A</v>
       </c>
       <c r="J109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K109" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="D110" t="s">
-        <v>410</v>
-      </c>
-      <c r="E110" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E110" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F110" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H110" t="s">
-        <v>562</v>
+      <c r="G110" t="s">
+        <v>384</v>
+      </c>
+      <c r="H110" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I110" t="e">
         <v>#N/A</v>
       </c>
       <c r="J110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K110" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s">
-        <v>298</v>
-      </c>
-      <c r="D111" t="s">
-        <v>481</v>
+        <v>302</v>
+      </c>
+      <c r="D111" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E111" t="e">
         <v>#N/A</v>
@@ -5872,95 +5008,86 @@
       <c r="I111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K111" t="s">
-        <v>637</v>
+      <c r="J111" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="D112" t="s">
-        <v>410</v>
-      </c>
-      <c r="E112" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E112" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H112" t="s">
-        <v>562</v>
+      <c r="G112" t="s">
+        <v>384</v>
+      </c>
+      <c r="H112" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I112" t="e">
         <v>#N/A</v>
       </c>
       <c r="J112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K112" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>300</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D113" t="s">
-        <v>482</v>
-      </c>
-      <c r="E113" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E113" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H113" t="s">
-        <v>562</v>
+      <c r="G113" t="s">
+        <v>384</v>
+      </c>
+      <c r="H113" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I113" t="e">
         <v>#N/A</v>
       </c>
       <c r="J113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K113" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>301</v>
-      </c>
-      <c r="D114" t="s">
-        <v>483</v>
+        <v>304</v>
+      </c>
+      <c r="D114" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E114" t="e">
         <v>#N/A</v>
@@ -5978,269 +5105,245 @@
         <v>#N/A</v>
       </c>
       <c r="J114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K114" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="D115" t="s">
-        <v>484</v>
-      </c>
-      <c r="E115" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E115" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H115" t="s">
-        <v>593</v>
+      <c r="G115" t="s">
+        <v>415</v>
+      </c>
+      <c r="H115" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I115" t="e">
         <v>#N/A</v>
       </c>
       <c r="J115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K115" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="D116" t="s">
-        <v>485</v>
-      </c>
-      <c r="E116" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E116" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F116" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H116" t="s">
-        <v>562</v>
+      <c r="G116" t="s">
+        <v>384</v>
+      </c>
+      <c r="H116" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I116" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K116" t="s">
-        <v>632</v>
+      <c r="J116" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="D117" t="s">
-        <v>410</v>
-      </c>
-      <c r="E117" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E117" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H117" t="s">
-        <v>562</v>
+      <c r="G117" t="s">
+        <v>384</v>
+      </c>
+      <c r="H117" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I117" t="e">
         <v>#N/A</v>
       </c>
       <c r="J117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K117" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="D118" t="s">
-        <v>410</v>
-      </c>
-      <c r="E118" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E118" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H118" t="s">
-        <v>562</v>
+      <c r="G118" t="s">
+        <v>384</v>
+      </c>
+      <c r="H118" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I118" t="e">
         <v>#N/A</v>
       </c>
       <c r="J118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K118" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="C119" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
       <c r="D119" t="s">
-        <v>486</v>
-      </c>
-      <c r="E119" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E119" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H119" t="s">
-        <v>594</v>
+      <c r="G119" t="s">
+        <v>416</v>
+      </c>
+      <c r="H119" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I119" t="e">
         <v>#N/A</v>
       </c>
       <c r="J119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K119" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>307</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D120" t="s">
-        <v>487</v>
+        <v>358</v>
       </c>
       <c r="E120" t="s">
-        <v>536</v>
-      </c>
-      <c r="F120" t="s">
-        <v>549</v>
-      </c>
-      <c r="G120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H120" t="s">
-        <v>595</v>
+        <v>371</v>
+      </c>
+      <c r="F120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G120" t="s">
+        <v>417</v>
+      </c>
+      <c r="H120" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I120" t="e">
         <v>#N/A</v>
       </c>
       <c r="J120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K120" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="D121" t="s">
-        <v>488</v>
-      </c>
-      <c r="E121" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E121" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H121" t="s">
-        <v>562</v>
+      <c r="G121" t="s">
+        <v>384</v>
+      </c>
+      <c r="H121" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K121" t="s">
-        <v>638</v>
+      <c r="J121" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="C122" t="s">
-        <v>309</v>
-      </c>
-      <c r="D122" t="s">
-        <v>489</v>
+        <v>310</v>
+      </c>
+      <c r="D122" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E122" t="e">
         <v>#N/A</v>
@@ -6258,59 +5361,53 @@
         <v>#N/A</v>
       </c>
       <c r="J122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K122" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D123" t="s">
-        <v>490</v>
-      </c>
-      <c r="E123" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G123" t="e">
-        <v>#N/A</v>
+      <c r="G123" t="s">
+        <v>418</v>
       </c>
       <c r="H123" t="s">
-        <v>596</v>
-      </c>
-      <c r="I123" t="s">
-        <v>615</v>
+        <v>437</v>
+      </c>
+      <c r="I123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K123" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>311</v>
-      </c>
-      <c r="D124" t="s">
-        <v>491</v>
+        <v>312</v>
+      </c>
+      <c r="D124" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E124" t="e">
         <v>#N/A</v>
@@ -6327,25 +5424,22 @@
       <c r="I124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K124" t="s">
-        <v>639</v>
+      <c r="J124" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
       <c r="C125" t="s">
-        <v>388</v>
-      </c>
-      <c r="D125" t="s">
-        <v>492</v>
+        <v>313</v>
+      </c>
+      <c r="D125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E125" t="e">
         <v>#N/A</v>
@@ -6363,24 +5457,21 @@
         <v>#N/A</v>
       </c>
       <c r="J125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K125" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>313</v>
-      </c>
-      <c r="D126" t="s">
-        <v>493</v>
+        <v>314</v>
+      </c>
+      <c r="D126" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E126" t="e">
         <v>#N/A</v>
@@ -6398,94 +5489,85 @@
         <v>#N/A</v>
       </c>
       <c r="J126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K126" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D127" t="s">
-        <v>494</v>
+        <v>359</v>
       </c>
       <c r="E127" t="s">
-        <v>537</v>
+        <v>372</v>
       </c>
       <c r="F127" t="s">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="G127" t="s">
-        <v>558</v>
-      </c>
-      <c r="H127" t="s">
-        <v>597</v>
+        <v>419</v>
+      </c>
+      <c r="H127" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I127" t="e">
         <v>#N/A</v>
       </c>
       <c r="J127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K127" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D128" t="s">
-        <v>495</v>
+        <v>356</v>
       </c>
       <c r="E128" t="s">
-        <v>534</v>
-      </c>
-      <c r="F128" t="s">
-        <v>551</v>
+        <v>373</v>
+      </c>
+      <c r="F128" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I128" t="s">
-        <v>616</v>
+      <c r="H128" t="s">
+        <v>438</v>
+      </c>
+      <c r="I128" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K128" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>316</v>
-      </c>
-      <c r="D129" t="s">
-        <v>496</v>
+        <v>317</v>
+      </c>
+      <c r="D129" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E129" t="e">
         <v>#N/A</v>
@@ -6502,165 +5584,150 @@
       <c r="I129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K129" t="s">
-        <v>640</v>
+      <c r="J129" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>317</v>
+        <v>138</v>
       </c>
       <c r="C130" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D130" t="s">
-        <v>497</v>
-      </c>
-      <c r="E130" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E130" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H130" t="s">
-        <v>568</v>
+      <c r="G130" t="s">
+        <v>390</v>
+      </c>
+      <c r="H130" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I130" t="e">
         <v>#N/A</v>
       </c>
       <c r="J130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K130" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="C131" t="s">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="D131" t="s">
-        <v>498</v>
-      </c>
-      <c r="E131" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E131" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F131" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H131" t="s">
-        <v>598</v>
+      <c r="G131" t="s">
+        <v>420</v>
+      </c>
+      <c r="H131" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I131" t="e">
         <v>#N/A</v>
       </c>
       <c r="J131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K131" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>231</v>
       </c>
       <c r="D132" t="s">
-        <v>410</v>
-      </c>
-      <c r="E132" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E132" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F132" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H132" t="s">
-        <v>562</v>
+      <c r="G132" t="s">
+        <v>384</v>
+      </c>
+      <c r="H132" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I132" t="e">
         <v>#N/A</v>
       </c>
       <c r="J132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K132" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>141</v>
       </c>
       <c r="C133" t="s">
         <v>320</v>
       </c>
       <c r="D133" t="s">
-        <v>499</v>
+        <v>352</v>
       </c>
       <c r="E133" t="s">
-        <v>531</v>
-      </c>
-      <c r="F133" t="s">
-        <v>552</v>
-      </c>
-      <c r="G133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H133" t="s">
-        <v>599</v>
+        <v>374</v>
+      </c>
+      <c r="F133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G133" t="s">
+        <v>421</v>
+      </c>
+      <c r="H133" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I133" t="e">
         <v>#N/A</v>
       </c>
       <c r="J133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K133" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>321</v>
+        <v>142</v>
       </c>
       <c r="C134" t="s">
         <v>321</v>
       </c>
-      <c r="D134" t="s">
-        <v>500</v>
+      <c r="D134" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E134" t="e">
         <v>#N/A</v>
@@ -6668,69 +5735,63 @@
       <c r="F134" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H134" t="s">
-        <v>600</v>
+      <c r="G134" t="s">
+        <v>422</v>
+      </c>
+      <c r="H134" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I134" t="e">
         <v>#N/A</v>
       </c>
       <c r="J134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K134" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="D135" t="s">
-        <v>410</v>
-      </c>
-      <c r="E135" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E135" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F135" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H135" t="s">
-        <v>562</v>
+      <c r="G135" t="s">
+        <v>384</v>
+      </c>
+      <c r="H135" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I135" t="e">
         <v>#N/A</v>
       </c>
       <c r="J135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K135" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="C136" t="s">
-        <v>391</v>
-      </c>
-      <c r="D136" t="s">
-        <v>501</v>
+        <v>322</v>
+      </c>
+      <c r="D136" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E136" t="e">
         <v>#N/A</v>
@@ -6748,59 +5809,53 @@
         <v>#N/A</v>
       </c>
       <c r="J136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K136" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D137" t="s">
-        <v>502</v>
-      </c>
-      <c r="E137" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E137" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F137" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H137" t="s">
-        <v>601</v>
+      <c r="G137" t="s">
+        <v>423</v>
+      </c>
+      <c r="H137" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I137" t="e">
         <v>#N/A</v>
       </c>
       <c r="J137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K137" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="C138" t="s">
-        <v>392</v>
-      </c>
-      <c r="D138" t="s">
-        <v>503</v>
+        <v>324</v>
+      </c>
+      <c r="D138" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E138" t="e">
         <v>#N/A</v>
@@ -6818,24 +5873,21 @@
         <v>#N/A</v>
       </c>
       <c r="J138" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K138" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>393</v>
-      </c>
-      <c r="D139" t="s">
-        <v>504</v>
+        <v>325</v>
+      </c>
+      <c r="D139" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E139" t="e">
         <v>#N/A</v>
@@ -6853,59 +5905,53 @@
         <v>#N/A</v>
       </c>
       <c r="J139" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K139" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="C140" t="s">
-        <v>394</v>
+        <v>231</v>
       </c>
       <c r="D140" t="s">
-        <v>410</v>
-      </c>
-      <c r="E140" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E140" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F140" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H140" t="s">
-        <v>562</v>
+      <c r="G140" t="s">
+        <v>384</v>
+      </c>
+      <c r="H140" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I140" t="e">
         <v>#N/A</v>
       </c>
       <c r="J140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K140" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="C141" t="s">
-        <v>395</v>
-      </c>
-      <c r="D141" t="s">
-        <v>505</v>
+        <v>326</v>
+      </c>
+      <c r="D141" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E141" t="e">
         <v>#N/A</v>
@@ -6922,410 +5968,374 @@
       <c r="I141" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K141" t="s">
-        <v>640</v>
+      <c r="J141" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>329</v>
+        <v>150</v>
       </c>
       <c r="C142" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D142" t="s">
-        <v>506</v>
-      </c>
-      <c r="E142" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E142" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F142" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H142" t="s">
-        <v>602</v>
+      <c r="G142" t="s">
+        <v>424</v>
+      </c>
+      <c r="H142" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I142" t="e">
         <v>#N/A</v>
       </c>
       <c r="J142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K142" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>330</v>
+        <v>151</v>
       </c>
       <c r="C143" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="D143" t="s">
-        <v>410</v>
-      </c>
-      <c r="E143" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E143" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F143" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H143" t="s">
-        <v>562</v>
+      <c r="G143" t="s">
+        <v>384</v>
+      </c>
+      <c r="H143" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I143" t="e">
         <v>#N/A</v>
       </c>
       <c r="J143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K143" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>331</v>
+        <v>152</v>
       </c>
       <c r="C144" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D144" t="s">
-        <v>507</v>
-      </c>
-      <c r="E144" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E144" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F144" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H144" t="s">
-        <v>603</v>
+      <c r="G144" t="s">
+        <v>425</v>
+      </c>
+      <c r="H144" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I144" t="e">
         <v>#N/A</v>
       </c>
       <c r="J144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K144" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="D145" t="s">
-        <v>410</v>
-      </c>
-      <c r="E145" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E145" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F145" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H145" t="s">
-        <v>562</v>
+      <c r="G145" t="s">
+        <v>384</v>
+      </c>
+      <c r="H145" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I145" t="e">
         <v>#N/A</v>
       </c>
       <c r="J145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K145" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="C146" t="s">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="D146" t="s">
-        <v>410</v>
-      </c>
-      <c r="E146" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E146" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F146" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G146" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H146" t="s">
-        <v>562</v>
+      <c r="G146" t="s">
+        <v>384</v>
+      </c>
+      <c r="H146" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I146" t="e">
         <v>#N/A</v>
       </c>
       <c r="J146" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K146" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="C147" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D147" t="s">
-        <v>508</v>
-      </c>
-      <c r="E147" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E147" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F147" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H147" t="s">
-        <v>562</v>
+      <c r="G147" t="s">
+        <v>384</v>
+      </c>
+      <c r="H147" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I147" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K147" t="s">
-        <v>632</v>
+      <c r="J147" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>335</v>
+        <v>156</v>
       </c>
       <c r="C148" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D148" t="s">
-        <v>509</v>
-      </c>
-      <c r="E148" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E148" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G148" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H148" t="s">
-        <v>585</v>
+      <c r="G148" t="s">
+        <v>407</v>
+      </c>
+      <c r="H148" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J148" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K148" t="s">
-        <v>641</v>
+      <c r="J148" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>336</v>
+        <v>157</v>
       </c>
       <c r="C149" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D149" t="s">
-        <v>510</v>
-      </c>
-      <c r="E149" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E149" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F149" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H149" t="s">
-        <v>604</v>
+      <c r="G149" t="s">
+        <v>426</v>
+      </c>
+      <c r="H149" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I149" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K149" t="s">
-        <v>642</v>
+      <c r="J149" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>337</v>
+        <v>158</v>
       </c>
       <c r="C150" t="s">
-        <v>337</v>
+        <v>231</v>
       </c>
       <c r="D150" t="s">
-        <v>410</v>
-      </c>
-      <c r="E150" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E150" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F150" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H150" t="s">
-        <v>562</v>
+      <c r="G150" t="s">
+        <v>384</v>
+      </c>
+      <c r="H150" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I150" t="e">
         <v>#N/A</v>
       </c>
       <c r="J150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K150" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="D151" t="s">
-        <v>511</v>
-      </c>
-      <c r="E151" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E151" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F151" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G151" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H151" t="s">
-        <v>562</v>
+      <c r="G151" t="s">
+        <v>384</v>
+      </c>
+      <c r="H151" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I151" t="e">
         <v>#N/A</v>
       </c>
       <c r="J151" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K151" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="C152" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
       <c r="D152" t="s">
-        <v>410</v>
-      </c>
-      <c r="E152" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E152" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F152" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G152" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H152" t="s">
-        <v>562</v>
+      <c r="G152" t="s">
+        <v>384</v>
+      </c>
+      <c r="H152" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I152" t="e">
         <v>#N/A</v>
       </c>
       <c r="J152" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K152" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="C153" t="s">
-        <v>340</v>
-      </c>
-      <c r="D153" t="s">
-        <v>512</v>
+        <v>333</v>
+      </c>
+      <c r="D153" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E153" t="e">
         <v>#N/A</v>
@@ -7343,24 +6353,21 @@
         <v>#N/A</v>
       </c>
       <c r="J153" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K153" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>341</v>
+        <v>220</v>
       </c>
       <c r="C154" t="s">
-        <v>399</v>
-      </c>
-      <c r="D154" t="s">
-        <v>513</v>
+        <v>334</v>
+      </c>
+      <c r="D154" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E154" t="e">
         <v>#N/A</v>
@@ -7378,59 +6385,53 @@
         <v>#N/A</v>
       </c>
       <c r="J154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K154" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="C155" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="D155" t="s">
-        <v>410</v>
-      </c>
-      <c r="E155" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E155" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F155" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H155" t="s">
-        <v>562</v>
+      <c r="G155" t="s">
+        <v>384</v>
+      </c>
+      <c r="H155" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I155" t="e">
         <v>#N/A</v>
       </c>
       <c r="J155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K155" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>343</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>343</v>
-      </c>
-      <c r="D156" t="s">
-        <v>514</v>
+        <v>335</v>
+      </c>
+      <c r="D156" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E156" t="e">
         <v>#N/A</v>
@@ -7448,59 +6449,53 @@
         <v>#N/A</v>
       </c>
       <c r="J156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K156" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="C157" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D157" t="s">
-        <v>515</v>
-      </c>
-      <c r="E157" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E157" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F157" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H157" t="s">
-        <v>605</v>
+      <c r="G157" t="s">
+        <v>427</v>
+      </c>
+      <c r="H157" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I157" t="e">
         <v>#N/A</v>
       </c>
       <c r="J157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K157" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>345</v>
+        <v>166</v>
       </c>
       <c r="C158" t="s">
-        <v>345</v>
-      </c>
-      <c r="D158" t="s">
-        <v>516</v>
+        <v>337</v>
+      </c>
+      <c r="D158" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E158" t="e">
         <v>#N/A</v>
@@ -7508,34 +6503,31 @@
       <c r="F158" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G158" t="e">
-        <v>#N/A</v>
+      <c r="G158" t="s">
+        <v>428</v>
       </c>
       <c r="H158" t="s">
-        <v>606</v>
-      </c>
-      <c r="I158" t="s">
-        <v>617</v>
+        <v>439</v>
+      </c>
+      <c r="I158" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K158" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="C159" t="s">
-        <v>346</v>
-      </c>
-      <c r="D159" t="s">
-        <v>517</v>
+        <v>338</v>
+      </c>
+      <c r="D159" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E159" t="e">
         <v>#N/A</v>
@@ -7553,59 +6545,53 @@
         <v>#N/A</v>
       </c>
       <c r="J159" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K159" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="C160" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D160" t="s">
-        <v>518</v>
-      </c>
-      <c r="E160" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E160" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F160" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H160" t="s">
-        <v>607</v>
+      <c r="G160" t="s">
+        <v>429</v>
+      </c>
+      <c r="H160" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I160" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K160" t="s">
-        <v>643</v>
+      <c r="J160" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>348</v>
+        <v>221</v>
       </c>
       <c r="C161" t="s">
-        <v>400</v>
-      </c>
-      <c r="D161" t="s">
-        <v>519</v>
+        <v>340</v>
+      </c>
+      <c r="D161" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E161" t="e">
         <v>#N/A</v>
@@ -7623,94 +6609,85 @@
         <v>#N/A</v>
       </c>
       <c r="J161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K161" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="C162" t="s">
-        <v>401</v>
+        <v>231</v>
       </c>
       <c r="D162" t="s">
-        <v>410</v>
-      </c>
-      <c r="E162" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E162" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F162" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H162" t="s">
-        <v>562</v>
+      <c r="G162" t="s">
+        <v>384</v>
+      </c>
+      <c r="H162" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I162" t="e">
         <v>#N/A</v>
       </c>
       <c r="J162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K162" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="C163" t="s">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="D163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E163" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E163" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F163" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H163" t="s">
-        <v>562</v>
+      <c r="G163" t="s">
+        <v>384</v>
+      </c>
+      <c r="H163" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I163" t="e">
         <v>#N/A</v>
       </c>
       <c r="J163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K163" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="C164" t="s">
-        <v>402</v>
-      </c>
-      <c r="D164" t="s">
-        <v>520</v>
+        <v>341</v>
+      </c>
+      <c r="D164" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E164" t="e">
         <v>#N/A</v>
@@ -7728,199 +6705,181 @@
         <v>#N/A</v>
       </c>
       <c r="J164" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K164" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="C165" t="s">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="D165" t="s">
-        <v>410</v>
-      </c>
-      <c r="E165" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E165" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F165" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G165" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H165" t="s">
-        <v>562</v>
+      <c r="G165" t="s">
+        <v>384</v>
+      </c>
+      <c r="H165" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I165" t="e">
         <v>#N/A</v>
       </c>
       <c r="J165" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K165" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>353</v>
+        <v>174</v>
       </c>
       <c r="C166" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D166" t="s">
-        <v>521</v>
-      </c>
-      <c r="E166" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E166" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F166" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G166" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H166" t="s">
-        <v>608</v>
+      <c r="G166" t="s">
+        <v>430</v>
+      </c>
+      <c r="H166" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I166" t="e">
         <v>#N/A</v>
       </c>
       <c r="J166" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K166" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="C167" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="D167" t="s">
-        <v>410</v>
-      </c>
-      <c r="E167" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E167" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F167" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G167" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H167" t="s">
-        <v>562</v>
+      <c r="G167" t="s">
+        <v>384</v>
+      </c>
+      <c r="H167" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I167" t="e">
         <v>#N/A</v>
       </c>
       <c r="J167" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K167" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="C168" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="D168" t="s">
-        <v>522</v>
-      </c>
-      <c r="E168" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E168" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F168" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G168" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H168" t="s">
-        <v>562</v>
+      <c r="G168" t="s">
+        <v>384</v>
+      </c>
+      <c r="H168" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I168" t="e">
         <v>#N/A</v>
       </c>
       <c r="J168" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K168" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>356</v>
+        <v>177</v>
       </c>
       <c r="C169" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D169" t="s">
-        <v>523</v>
-      </c>
-      <c r="E169" t="s">
-        <v>535</v>
+        <v>357</v>
+      </c>
+      <c r="E169" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F169" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H169" t="s">
-        <v>609</v>
+      <c r="G169" t="s">
+        <v>431</v>
+      </c>
+      <c r="H169" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I169" t="e">
         <v>#N/A</v>
       </c>
       <c r="J169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K169" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>357</v>
+        <v>225</v>
       </c>
       <c r="C170" t="s">
-        <v>404</v>
-      </c>
-      <c r="D170" t="s">
-        <v>524</v>
+        <v>345</v>
+      </c>
+      <c r="D170" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E170" t="e">
         <v>#N/A</v>
@@ -7938,129 +6897,117 @@
         <v>#N/A</v>
       </c>
       <c r="J170" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K170" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>358</v>
+        <v>226</v>
       </c>
       <c r="C171" t="s">
-        <v>405</v>
+        <v>231</v>
       </c>
       <c r="D171" t="s">
-        <v>410</v>
-      </c>
-      <c r="E171" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E171" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F171" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G171" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H171" t="s">
-        <v>562</v>
+      <c r="G171" t="s">
+        <v>384</v>
+      </c>
+      <c r="H171" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I171" t="e">
         <v>#N/A</v>
       </c>
       <c r="J171" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K171" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="C172" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D172" t="s">
-        <v>525</v>
+        <v>352</v>
       </c>
       <c r="E172" t="s">
-        <v>531</v>
+        <v>375</v>
       </c>
       <c r="F172" t="s">
-        <v>553</v>
+        <v>381</v>
       </c>
       <c r="G172" t="s">
-        <v>559</v>
-      </c>
-      <c r="H172" t="s">
-        <v>610</v>
+        <v>432</v>
+      </c>
+      <c r="H172" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I172" t="e">
         <v>#N/A</v>
       </c>
       <c r="J172" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K172" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="C173" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="D173" t="s">
-        <v>526</v>
+        <v>356</v>
       </c>
       <c r="E173" t="s">
-        <v>534</v>
-      </c>
-      <c r="F173" t="s">
-        <v>554</v>
-      </c>
-      <c r="G173" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H173" t="s">
-        <v>611</v>
+        <v>376</v>
+      </c>
+      <c r="F173" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G173" t="s">
+        <v>433</v>
+      </c>
+      <c r="H173" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I173" t="e">
         <v>#N/A</v>
       </c>
       <c r="J173" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>361</v>
+        <v>182</v>
       </c>
       <c r="C174" t="s">
-        <v>361</v>
-      </c>
-      <c r="D174" t="s">
-        <v>527</v>
+        <v>348</v>
+      </c>
+      <c r="D174" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E174" t="e">
         <v>#N/A</v>
@@ -8078,24 +7025,21 @@
         <v>#N/A</v>
       </c>
       <c r="J174" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K174" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>362</v>
+        <v>183</v>
       </c>
       <c r="C175" t="s">
-        <v>362</v>
-      </c>
-      <c r="D175" t="s">
-        <v>528</v>
+        <v>349</v>
+      </c>
+      <c r="D175" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E175" t="e">
         <v>#N/A</v>
@@ -8113,24 +7057,21 @@
         <v>#N/A</v>
       </c>
       <c r="J175" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K175" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="C176" t="s">
-        <v>363</v>
-      </c>
-      <c r="D176" t="s">
-        <v>529</v>
+        <v>350</v>
+      </c>
+      <c r="D176" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E176" t="e">
         <v>#N/A</v>
@@ -8148,114 +7089,102 @@
         <v>#N/A</v>
       </c>
       <c r="J176" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K176" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C177" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
       <c r="D177" t="s">
-        <v>410</v>
-      </c>
-      <c r="E177" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E177" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F177" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G177" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H177" t="s">
-        <v>562</v>
+      <c r="G177" t="s">
+        <v>384</v>
+      </c>
+      <c r="H177" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I177" t="e">
         <v>#N/A</v>
       </c>
       <c r="J177" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K177" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>365</v>
+        <v>186</v>
       </c>
       <c r="C178" t="s">
-        <v>365</v>
+        <v>231</v>
       </c>
       <c r="D178" t="s">
-        <v>410</v>
-      </c>
-      <c r="E178" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E178" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F178" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G178" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H178" t="s">
-        <v>562</v>
+      <c r="G178" t="s">
+        <v>384</v>
+      </c>
+      <c r="H178" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I178" t="e">
         <v>#N/A</v>
       </c>
       <c r="J178" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K178" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>366</v>
+        <v>187</v>
       </c>
       <c r="C179" t="s">
-        <v>366</v>
+        <v>231</v>
       </c>
       <c r="D179" t="s">
-        <v>410</v>
-      </c>
-      <c r="E179" t="s">
-        <v>532</v>
+        <v>353</v>
+      </c>
+      <c r="E179" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F179" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H179" t="s">
-        <v>562</v>
+      <c r="G179" t="s">
+        <v>384</v>
+      </c>
+      <c r="H179" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I179" t="e">
         <v>#N/A</v>
       </c>
       <c r="J179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K179" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -1172,7 +1172,7 @@
     <t>(?&lt;=se realizaron)(.*)(?=pruebas diagn)</t>
   </si>
   <si>
-    <t>Ընդհանուր թեստեր - ([0-9 .,]+)</t>
+    <t>(?&lt;=Ընդհանուր թեստեր - )(.*?)(?=\")</t>
   </si>
   <si>
     <t>1;GesTestungen</t>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="466">
   <si>
     <t>country</t>
   </si>
@@ -1793,8 +1793,8 @@
       <c r="D11" t="s">
         <v>357</v>
       </c>
-      <c r="E11" t="e">
-        <v>#N/A</v>
+      <c r="E11" t="s">
+        <v>237</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="466">
   <si>
     <t>country</t>
   </si>
@@ -1825,8 +1825,8 @@
       <c r="D12" t="s">
         <v>357</v>
       </c>
-      <c r="E12" t="e">
-        <v>#N/A</v>
+      <c r="E12" t="s">
+        <v>238</v>
       </c>
       <c r="F12" t="e">
         <v>#N/A</v>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="466">
   <si>
     <t>country</t>
   </si>
@@ -2049,8 +2049,8 @@
       <c r="D19" t="s">
         <v>357</v>
       </c>
-      <c r="E19" t="e">
-        <v>#N/A</v>
+      <c r="E19" t="s">
+        <v>244</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="466">
   <si>
     <t>country</t>
   </si>
@@ -2273,8 +2273,8 @@
       <c r="D26" t="s">
         <v>357</v>
       </c>
-      <c r="E26" t="e">
-        <v>#N/A</v>
+      <c r="E26" t="s">
+        <v>250</v>
       </c>
       <c r="F26" t="e">
         <v>#N/A</v>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="466">
   <si>
     <t>country</t>
   </si>
@@ -2433,8 +2433,8 @@
       <c r="D31" t="s">
         <v>357</v>
       </c>
-      <c r="E31" t="e">
-        <v>#N/A</v>
+      <c r="E31" t="s">
+        <v>252</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="467">
   <si>
     <t>country</t>
   </si>
@@ -1211,7 +1211,7 @@
     <t>last,Acumuladas</t>
   </si>
   <si>
-    <t>testirano ([.0-9]+) osoba</t>
+    <t>(?&lt;=ukupno testirano)(.*)(?=osoba, od)</t>
   </si>
   <si>
     <t>([ 0-9]+) muestras</t>
@@ -1323,6 +1323,9 @@
   </si>
   <si>
     <t>last,TESTS</t>
+  </si>
+  <si>
+    <t>(?&lt;=osoba, od toga)(.*)(?=u (protekla|posljednja) 24 sata)</t>
   </si>
   <si>
     <t>//*[@id="app"]/div[2]/div/div/div[2]/div[3]/h4</t>
@@ -1713,7 +1716,7 @@
         <v>#N/A</v>
       </c>
       <c r="J8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9">
@@ -1777,7 +1780,7 @@
         <v>#N/A</v>
       </c>
       <c r="J10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1812,7 @@
         <v>#N/A</v>
       </c>
       <c r="J11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12">
@@ -1841,7 +1844,7 @@
         <v>#N/A</v>
       </c>
       <c r="J12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13">
@@ -1873,7 +1876,7 @@
         <v>#N/A</v>
       </c>
       <c r="J13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14">
@@ -2161,7 +2164,7 @@
         <v>#N/A</v>
       </c>
       <c r="J22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23">
@@ -2449,7 +2452,7 @@
         <v>#N/A</v>
       </c>
       <c r="J31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32">
@@ -2609,7 +2612,7 @@
         <v>#N/A</v>
       </c>
       <c r="J36" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37">
@@ -2730,14 +2733,14 @@
       <c r="G40" t="s">
         <v>399</v>
       </c>
-      <c r="H40" t="e">
-        <v>#N/A</v>
+      <c r="H40" t="s">
+        <v>437</v>
       </c>
       <c r="I40" t="e">
         <v>#N/A</v>
       </c>
       <c r="J40" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41">
@@ -2801,7 +2804,7 @@
         <v>#N/A</v>
       </c>
       <c r="J42" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43">
@@ -2833,7 +2836,7 @@
         <v>#N/A</v>
       </c>
       <c r="J43" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44">
@@ -3089,7 +3092,7 @@
         <v>#N/A</v>
       </c>
       <c r="J51" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52">
@@ -3345,7 +3348,7 @@
         <v>#N/A</v>
       </c>
       <c r="J59" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60">
@@ -3857,7 +3860,7 @@
         <v>#N/A</v>
       </c>
       <c r="J75" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76">
@@ -3889,7 +3892,7 @@
         <v>#N/A</v>
       </c>
       <c r="J76" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77">
@@ -3953,7 +3956,7 @@
         <v>#N/A</v>
       </c>
       <c r="J78" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79">
@@ -4241,7 +4244,7 @@
         <v>#N/A</v>
       </c>
       <c r="J87" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88">
@@ -4337,7 +4340,7 @@
         <v>#N/A</v>
       </c>
       <c r="J90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91">
@@ -4401,7 +4404,7 @@
         <v>#N/A</v>
       </c>
       <c r="J92" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93">
@@ -4561,7 +4564,7 @@
         <v>#N/A</v>
       </c>
       <c r="J97" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98">
@@ -4785,7 +4788,7 @@
         <v>#N/A</v>
       </c>
       <c r="J104" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105">
@@ -5009,7 +5012,7 @@
         <v>#N/A</v>
       </c>
       <c r="J111" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112">
@@ -5169,7 +5172,7 @@
         <v>#N/A</v>
       </c>
       <c r="J116" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117">
@@ -5329,7 +5332,7 @@
         <v>#N/A</v>
       </c>
       <c r="J121" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122">
@@ -5387,7 +5390,7 @@
         <v>418</v>
       </c>
       <c r="H123" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I123" t="e">
         <v>#N/A</v>
@@ -5425,7 +5428,7 @@
         <v>#N/A</v>
       </c>
       <c r="J124" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125">
@@ -5547,7 +5550,7 @@
         <v>#N/A</v>
       </c>
       <c r="H128" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I128" t="e">
         <v>#N/A</v>
@@ -5585,7 +5588,7 @@
         <v>#N/A</v>
       </c>
       <c r="J129" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130">
@@ -5969,7 +5972,7 @@
         <v>#N/A</v>
       </c>
       <c r="J141" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="142">
@@ -6161,7 +6164,7 @@
         <v>#N/A</v>
       </c>
       <c r="J147" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="148">
@@ -6193,7 +6196,7 @@
         <v>#N/A</v>
       </c>
       <c r="J148" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149">
@@ -6225,7 +6228,7 @@
         <v>#N/A</v>
       </c>
       <c r="J149" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150">
@@ -6507,7 +6510,7 @@
         <v>428</v>
       </c>
       <c r="H158" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I158" t="e">
         <v>#N/A</v>
@@ -6577,7 +6580,7 @@
         <v>#N/A</v>
       </c>
       <c r="J160" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161">

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="467">
   <si>
     <t>country</t>
   </si>
@@ -2820,8 +2820,8 @@
       <c r="D43" t="s">
         <v>357</v>
       </c>
-      <c r="E43" t="e">
-        <v>#N/A</v>
+      <c r="E43" t="s">
+        <v>259</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="468">
   <si>
     <t>country</t>
   </si>
@@ -1326,6 +1326,9 @@
   </si>
   <si>
     <t>(?&lt;=osoba, od toga)(.*)(?=u (protekla|posljednja) 24 sata)</t>
+  </si>
+  <si>
+    <t>//*[@id="top"]/div[2]/section[6]/div[1]/table/tbody/tr[3]/td[3]</t>
   </si>
   <si>
     <t>//*[@id="app"]/div[2]/div/div/div[2]/div[3]/h4</t>
@@ -1716,7 +1719,7 @@
         <v>#N/A</v>
       </c>
       <c r="J8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9">
@@ -1780,7 +1783,7 @@
         <v>#N/A</v>
       </c>
       <c r="J10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11">
@@ -1812,7 +1815,7 @@
         <v>#N/A</v>
       </c>
       <c r="J11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12">
@@ -1844,7 +1847,7 @@
         <v>#N/A</v>
       </c>
       <c r="J12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13">
@@ -1876,7 +1879,7 @@
         <v>#N/A</v>
       </c>
       <c r="J13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14">
@@ -2164,7 +2167,7 @@
         <v>#N/A</v>
       </c>
       <c r="J22" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23">
@@ -2452,7 +2455,7 @@
         <v>#N/A</v>
       </c>
       <c r="J31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32">
@@ -2612,7 +2615,7 @@
         <v>#N/A</v>
       </c>
       <c r="J36" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37">
@@ -2740,7 +2743,7 @@
         <v>#N/A</v>
       </c>
       <c r="J40" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41">
@@ -2804,7 +2807,7 @@
         <v>#N/A</v>
       </c>
       <c r="J42" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43">
@@ -2836,7 +2839,7 @@
         <v>#N/A</v>
       </c>
       <c r="J43" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44">
@@ -2884,8 +2887,8 @@
       <c r="D45" t="s">
         <v>357</v>
       </c>
-      <c r="E45" t="e">
-        <v>#N/A</v>
+      <c r="E45" t="s">
+        <v>260</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
@@ -2893,8 +2896,8 @@
       <c r="G45" t="s">
         <v>402</v>
       </c>
-      <c r="H45" t="e">
-        <v>#N/A</v>
+      <c r="H45" t="s">
+        <v>438</v>
       </c>
       <c r="I45" t="e">
         <v>#N/A</v>
@@ -3092,7 +3095,7 @@
         <v>#N/A</v>
       </c>
       <c r="J51" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52">
@@ -3348,7 +3351,7 @@
         <v>#N/A</v>
       </c>
       <c r="J59" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60">
@@ -3860,7 +3863,7 @@
         <v>#N/A</v>
       </c>
       <c r="J75" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76">
@@ -3892,7 +3895,7 @@
         <v>#N/A</v>
       </c>
       <c r="J76" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77">
@@ -3956,7 +3959,7 @@
         <v>#N/A</v>
       </c>
       <c r="J78" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79">
@@ -4244,7 +4247,7 @@
         <v>#N/A</v>
       </c>
       <c r="J87" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88">
@@ -4340,7 +4343,7 @@
         <v>#N/A</v>
       </c>
       <c r="J90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91">
@@ -4404,7 +4407,7 @@
         <v>#N/A</v>
       </c>
       <c r="J92" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93">
@@ -4564,7 +4567,7 @@
         <v>#N/A</v>
       </c>
       <c r="J97" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98">
@@ -4788,7 +4791,7 @@
         <v>#N/A</v>
       </c>
       <c r="J104" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105">
@@ -5012,7 +5015,7 @@
         <v>#N/A</v>
       </c>
       <c r="J111" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112">
@@ -5172,7 +5175,7 @@
         <v>#N/A</v>
       </c>
       <c r="J116" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117">
@@ -5332,7 +5335,7 @@
         <v>#N/A</v>
       </c>
       <c r="J121" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122">
@@ -5390,7 +5393,7 @@
         <v>418</v>
       </c>
       <c r="H123" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I123" t="e">
         <v>#N/A</v>
@@ -5428,7 +5431,7 @@
         <v>#N/A</v>
       </c>
       <c r="J124" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125">
@@ -5550,7 +5553,7 @@
         <v>#N/A</v>
       </c>
       <c r="H128" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I128" t="e">
         <v>#N/A</v>
@@ -5588,7 +5591,7 @@
         <v>#N/A</v>
       </c>
       <c r="J129" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="130">
@@ -5972,7 +5975,7 @@
         <v>#N/A</v>
       </c>
       <c r="J141" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="142">
@@ -6164,7 +6167,7 @@
         <v>#N/A</v>
       </c>
       <c r="J147" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="148">
@@ -6196,7 +6199,7 @@
         <v>#N/A</v>
       </c>
       <c r="J148" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149">
@@ -6228,7 +6231,7 @@
         <v>#N/A</v>
       </c>
       <c r="J149" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="150">
@@ -6510,7 +6513,7 @@
         <v>428</v>
       </c>
       <c r="H158" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I158" t="e">
         <v>#N/A</v>
@@ -6580,7 +6583,7 @@
         <v>#N/A</v>
       </c>
       <c r="J160" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="161">

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="469">
   <si>
     <t>country</t>
   </si>
@@ -1326,6 +1326,9 @@
   </si>
   <si>
     <t>(?&lt;=osoba, od toga)(.*)(?=u (protekla|posljednja) 24 sata)</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[3]/div[1]/div[1]/div[1]/div/p[2]/span[2]</t>
   </si>
   <si>
     <t>//*[@id="top"]/div[2]/section[6]/div[1]/table/tbody/tr[3]/td[3]</t>
@@ -1719,7 +1722,7 @@
         <v>#N/A</v>
       </c>
       <c r="J8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9">
@@ -1783,7 +1786,7 @@
         <v>#N/A</v>
       </c>
       <c r="J10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11">
@@ -1815,7 +1818,7 @@
         <v>#N/A</v>
       </c>
       <c r="J11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12">
@@ -1847,7 +1850,7 @@
         <v>#N/A</v>
       </c>
       <c r="J12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
@@ -1879,7 +1882,7 @@
         <v>#N/A</v>
       </c>
       <c r="J13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
@@ -2167,7 +2170,7 @@
         <v>#N/A</v>
       </c>
       <c r="J22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23">
@@ -2455,7 +2458,7 @@
         <v>#N/A</v>
       </c>
       <c r="J31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32">
@@ -2615,7 +2618,7 @@
         <v>#N/A</v>
       </c>
       <c r="J36" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37">
@@ -2743,7 +2746,7 @@
         <v>#N/A</v>
       </c>
       <c r="J40" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41">
@@ -2807,7 +2810,7 @@
         <v>#N/A</v>
       </c>
       <c r="J42" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43">
@@ -2832,14 +2835,14 @@
       <c r="G43" t="s">
         <v>401</v>
       </c>
-      <c r="H43" t="e">
-        <v>#N/A</v>
+      <c r="H43" t="s">
+        <v>438</v>
       </c>
       <c r="I43" t="e">
         <v>#N/A</v>
       </c>
       <c r="J43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44">
@@ -2897,7 +2900,7 @@
         <v>402</v>
       </c>
       <c r="H45" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I45" t="e">
         <v>#N/A</v>
@@ -3095,7 +3098,7 @@
         <v>#N/A</v>
       </c>
       <c r="J51" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52">
@@ -3351,7 +3354,7 @@
         <v>#N/A</v>
       </c>
       <c r="J59" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60">
@@ -3863,7 +3866,7 @@
         <v>#N/A</v>
       </c>
       <c r="J75" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76">
@@ -3895,7 +3898,7 @@
         <v>#N/A</v>
       </c>
       <c r="J76" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77">
@@ -3959,7 +3962,7 @@
         <v>#N/A</v>
       </c>
       <c r="J78" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79">
@@ -4247,7 +4250,7 @@
         <v>#N/A</v>
       </c>
       <c r="J87" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88">
@@ -4343,7 +4346,7 @@
         <v>#N/A</v>
       </c>
       <c r="J90" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91">
@@ -4407,7 +4410,7 @@
         <v>#N/A</v>
       </c>
       <c r="J92" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93">
@@ -4567,7 +4570,7 @@
         <v>#N/A</v>
       </c>
       <c r="J97" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98">
@@ -4791,7 +4794,7 @@
         <v>#N/A</v>
       </c>
       <c r="J104" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105">
@@ -5015,7 +5018,7 @@
         <v>#N/A</v>
       </c>
       <c r="J111" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112">
@@ -5175,7 +5178,7 @@
         <v>#N/A</v>
       </c>
       <c r="J116" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117">
@@ -5335,7 +5338,7 @@
         <v>#N/A</v>
       </c>
       <c r="J121" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122">
@@ -5393,7 +5396,7 @@
         <v>418</v>
       </c>
       <c r="H123" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I123" t="e">
         <v>#N/A</v>
@@ -5431,7 +5434,7 @@
         <v>#N/A</v>
       </c>
       <c r="J124" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125">
@@ -5553,7 +5556,7 @@
         <v>#N/A</v>
       </c>
       <c r="H128" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I128" t="e">
         <v>#N/A</v>
@@ -5591,7 +5594,7 @@
         <v>#N/A</v>
       </c>
       <c r="J129" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130">
@@ -5975,7 +5978,7 @@
         <v>#N/A</v>
       </c>
       <c r="J141" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142">
@@ -6167,7 +6170,7 @@
         <v>#N/A</v>
       </c>
       <c r="J147" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148">
@@ -6199,7 +6202,7 @@
         <v>#N/A</v>
       </c>
       <c r="J148" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149">
@@ -6231,7 +6234,7 @@
         <v>#N/A</v>
       </c>
       <c r="J149" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150">
@@ -6513,7 +6516,7 @@
         <v>428</v>
       </c>
       <c r="H158" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I158" t="e">
         <v>#N/A</v>
@@ -6583,7 +6586,7 @@
         <v>#N/A</v>
       </c>
       <c r="J160" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161">

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -1160,7 +1160,7 @@
     <t>%d-%m-%Y</t>
   </si>
   <si>
-    <t>(?&lt;=tested: )(.*)(?= Key concerns)</t>
+    <t>(?&lt;=healthcare workers\)\. )(.*)(?= people out of)</t>
   </si>
   <si>
     <t>(?&lt;=Testime totale)(.*)(?=Raste pozitive)</t>

--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imane\Documents\DataAut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4FFAEC-6370-468E-A134-056BFF02666B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0721E9-299E-4C3F-AD14-97A152264302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="990" windowWidth="19400" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="457">
   <si>
     <t>country</t>
   </si>
@@ -71,21 +71,12 @@
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>https://www.humanitarianresponse.info/en/operations/afghanistan/health/documents/table</t>
-  </si>
-  <si>
     <t>pdf_list</t>
   </si>
   <si>
-    <t>operational_sitrep_covid|daily_brief_covid</t>
-  </si>
-  <si>
     <t>%d_%B_%Y</t>
   </si>
   <si>
-    <t>Samples tested: ([0-9 .,]+)</t>
-  </si>
-  <si>
     <t>Selenium</t>
   </si>
   <si>
@@ -107,18 +98,9 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>reporte[-_]matutino[-_]covid.*.pdf</t>
-  </si>
-  <si>
-    <t>%d-%m-%y</t>
-  </si>
-  <si>
     <t>([0-9 .,]+) pruebas diagnósticas</t>
   </si>
   <si>
-    <t>([0-9 .,]+) nuevas muestras</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
@@ -209,15 +191,6 @@
     <t>https://epistat.wiv-isp.be/covid/covid-19.html</t>
   </si>
   <si>
-    <t>https://epistat.sciensano.be/Data/COVID19BE_tests.csv</t>
-  </si>
-  <si>
-    <t>sum,TESTS</t>
-  </si>
-  <si>
-    <t>last,TESTS</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
@@ -737,12 +710,6 @@
     <t>https://www.doh.gov.ph/covid19tracker</t>
   </si>
   <si>
-    <t>https://docs.google.com/uc?id=1ZfgYe4Ko7CTalyhVF0qRqe2muVJbGVjg&amp;export=download</t>
-  </si>
-  <si>
-    <t>sum,Daily.Output...Tests.Conducted</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
@@ -932,18 +899,12 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>https://www.gub.uy/ministerio-salud-publica/coronavirus</t>
-  </si>
-  <si>
     <t>informe-situacion-sobre-coronavirus-covid-19-uruguay-</t>
   </si>
   <si>
     <t>%d-%m-%Y</t>
   </si>
   <si>
-    <t xml:space="preserve"> se han procesado ([0-9.,]+) test</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -968,12 +929,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>https://www.fhi.no/api/chartdata/api/91674</t>
-  </si>
-  <si>
-    <t>getData_json[['figures']][which(getData_json[['figures']][['key']]=='n_lab'),'number']</t>
-  </si>
-  <si>
     <t>getData_json[['testsAdministeredNumber']]</t>
   </si>
   <si>
@@ -1274,9 +1229,6 @@
     <t>https://gis.nicd.ac.za/portal/apps/opsdashboard/index.html#/0ec12f471aaa4055999366669b38482d</t>
   </si>
   <si>
-    <t xml:space="preserve"> ([ 0-9]+) muestras</t>
-  </si>
-  <si>
     <t>https://www.ministeriodesalud.go.cr/index.php/centro-de-prensa/noticias/741-noticias-2020/1725-situacion-nacional-covid-19</t>
   </si>
   <si>
@@ -1295,9 +1247,6 @@
     <t>https://www.facebook.com/SupportRooseveltSkerrit/photos</t>
   </si>
   <si>
-    <t>https://www.instagram.com/saludpublicard/</t>
-  </si>
-  <si>
     <t>http://www.health.gov.fj/covid-19-updates/</t>
   </si>
   <si>
@@ -1313,18 +1262,12 @@
     <t>https://twitter.com/saludhn</t>
   </si>
   <si>
-    <t>https://twitter.com/christufton</t>
-  </si>
-  <si>
     <t>https://www.mhlw.go.jp/stf/houdou/houdou_list_202007.html</t>
   </si>
   <si>
     <t>https://twitter.com/OmanVSCovid19</t>
   </si>
   <si>
-    <t>https://www.mspbs.gov.py/noticias.php</t>
-  </si>
-  <si>
     <t>https://zizonline.com/category/covid-19/</t>
   </si>
   <si>
@@ -1346,77 +1289,134 @@
     <t>https://www.mohap.gov.ae/en/MediaCenter/Pages/news.aspx#4f2627c6-74df-4ae5-9a14-d41e4734a7ee=%7B%22k%22%3A%22%22%7D#58c30df3-a5db-40b3-9e3f-e8817bb9f1f7=%7B%22k%22%3A%22%22%2C%22o%22%3A%5B%7B%22p%22%3A%22MOHPublishDateOWSDATEMP%22%2C%22d%22%3A1%7D%5D%7D</t>
   </si>
   <si>
-    <t>https://www.argentina.gob.ar/informes-diarios/agosto-de-2020</t>
-  </si>
-  <si>
     <t>//*[@id="content"]/div[1]/div[1]/div[1]/div/div[6]/div</t>
   </si>
   <si>
     <t>https://msan.gouvernement.lu/fr/graphiques-evolution.html</t>
   </si>
   <si>
+    <t>https://covid19ireland-geohive.hub.arcgis.com/pages/hospitals-icu--testing</t>
+  </si>
+  <si>
+    <t>https://koronavirus.gov.mk/vesti</t>
+  </si>
+  <si>
+    <t>https://viz.saude.gov.br/extensions/DEMAS_C19Insumos_TESTES/DEMAS_C19Insumos_TESTES.html</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SaudiMOH</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>https://corona.fo/?_l=en</t>
+  </si>
+  <si>
+    <t>//*[@id="ease_flexibleitem_9"]/grid[2]/column/grid[1]/column[5]/div[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="x3ef423376f3f4047a7073005772c2053"]/table/tbody/tr[1]/td[1]/h3/strong</t>
+  </si>
+  <si>
+    <t>https://www.nun.gl/</t>
+  </si>
+  <si>
+    <t>//*[@id="preamble"]/div/ul[4]/li[1]/span/span/span/span</t>
+  </si>
+  <si>
+    <t>([.0-9]+)</t>
+  </si>
+  <si>
+    <t>https://corona.gov.bd/</t>
+  </si>
+  <si>
+    <t>https://coronavirus.data.gov.uk/testing</t>
+  </si>
+  <si>
+    <t>https://www.hpb.health.gov.lk/en</t>
+  </si>
+  <si>
+    <t>https://twitter.com/KKMPutrajaya</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/main/section[1]/div/div[1]/ul/li[4]/div[1]/span</t>
+  </si>
+  <si>
+    <t>([0-9]+) (iš jų</t>
+  </si>
+  <si>
+    <t>https://www.msp.gob.do/web/?page_id=6948#1586785071804-577a2da4-6f72</t>
+  </si>
+  <si>
+    <t>https://www.mspbs.gov.py/reporte-covid19.html</t>
+  </si>
+  <si>
+    <t>https://www.argentina.gob.ar/coronavirus/informes-diarios/reportes/octubre2020</t>
+  </si>
+  <si>
+    <t>https://www.moh.gov.jm/?s=COVID-19+Clinical+Management+Summary</t>
+  </si>
+  <si>
+    <t>//*[@id="post-9795"]/div[3]/table/tbody/tr[24]/td[3]</t>
+  </si>
+  <si>
+    <t>https://www.gub.uy/sistema-nacional-emergencias/comunicacion/comunicados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> se han procesado ([.0-9]+) tests</t>
+  </si>
+  <si>
+    <t>covid-19-clinical-management-summary-for-</t>
+  </si>
+  <si>
+    <t>Month D, Yr</t>
+  </si>
+  <si>
+    <t>https://www.humanitarianresponse.info/en/operations/afghanistan/health/documents</t>
+  </si>
+  <si>
+    <t>workers. ([,0-9]+) people out of a population of </t>
+  </si>
+  <si>
+    <t>afghanistan-flash-update-covid-19-strategic-situation-report-no-</t>
+  </si>
+  <si>
+    <t>https://new.shendetesia.gov.al/?s=COVID-19%2F+Ministria+e+Sh%C3%ABndet%C3%ABsis%C3%AB%3A</t>
+  </si>
+  <si>
+    <t>covid-19-ministria-e-shendetesise-</t>
+  </si>
+  <si>
+    <t>%d/%m/%y</t>
+  </si>
+  <si>
+    <t>%d/%m/%Y</t>
+  </si>
+  <si>
+    <t>Testime totale ([0-9]+)</t>
+  </si>
+  <si>
     <t>testirano ([.0-9]+) osoba</t>
   </si>
   <si>
-    <t>https://covid19ireland-geohive.hub.arcgis.com/pages/hospitals-icu--testing</t>
-  </si>
-  <si>
-    <t>https://koronavirus.gov.mk/vesti</t>
-  </si>
-  <si>
-    <t>https://viz.saude.gov.br/extensions/DEMAS_C19Insumos_TESTES/DEMAS_C19Insumos_TESTES.html</t>
-  </si>
-  <si>
-    <t>https://twitter.com/SaudiMOH</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>https://corona.fo/?_l=en</t>
-  </si>
-  <si>
-    <t>//*[@id="ease_flexibleitem_9"]/grid[2]/column/grid[1]/column[5]/div[1]</t>
-  </si>
-  <si>
-    <t>//*[@id="x3ef423376f3f4047a7073005772c2053"]/table/tbody/tr[1]/td[1]/h3/strong</t>
-  </si>
-  <si>
-    <t>https://www.nun.gl/</t>
-  </si>
-  <si>
-    <t>//*[@id="preamble"]/div/ul[4]/li[1]/span/span/span/span</t>
-  </si>
-  <si>
-    <t>([.0-9]+)</t>
-  </si>
-  <si>
-    <t>https://new.shendetesia.gov.al/?s=COVID-19%2F+Ministria+e+Sh%C3%ABndet%C3%ABsis%C3%AB%3A</t>
-  </si>
-  <si>
-    <t>https://corona.gov.bd/</t>
-  </si>
-  <si>
-    <t>https://coronavirus.data.gov.uk/testing</t>
-  </si>
-  <si>
-    <t>https://www.hpb.health.gov.lk/en</t>
-  </si>
-  <si>
-    <t>https://twitter.com/KKMPutrajaya</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/main/section[1]/div/div[1]/ul/li[4]/div[1]/span</t>
-  </si>
-  <si>
-    <t>([0-9]+) (iš jų</t>
+    <t>cuba-reporta-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ([ 0-9]+) pruebas</t>
+  </si>
+  <si>
+    <t>reporte[-_]vespertino[-_]covid.*.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$]dddd\,\ mmmm\ d\,\ yyyy;@" x16r2:formatCode16="[$-en-CH,1]dddd\,\ mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,8 +1562,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1597,12 +1603,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1620,7 +1620,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1664,7 +1664,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1952,10 +1954,10 @@
   <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2005,595 +2007,583 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>320</v>
+      <c r="A3" s="32" t="s">
+        <v>305</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3"/>
+      <c r="G3" s="34" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>22</v>
+      <c r="A7" s="35" t="s">
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>456</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>450</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="G13" s="4"/>
       <c r="J13" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C14" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
-        <v>55</v>
+      <c r="A16" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="29" t="s">
-        <v>68</v>
+      <c r="A24" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>450</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="G24" s="4"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I35" s="2">
         <v>60556</v>
@@ -2602,295 +2592,301 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="21" t="s">
-        <v>331</v>
+      <c r="A41" s="32" t="s">
+        <v>316</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C41" t="s">
-        <v>332</v>
+        <v>317</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>454</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G42" s="10"/>
       <c r="J42" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="29" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C47" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C48" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H49"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="29" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="24" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="2"/>
@@ -2898,634 +2894,642 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="29" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="29" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C58" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="29" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B63" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C64" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="25" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E66" s="3"/>
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B68" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C68" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C69" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="29" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B72" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C72" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C73" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B74" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C74" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="29" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G76" s="4"/>
       <c r="J76" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="29" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="29" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="J79" s="7"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="29" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C82" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="29" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="J83" s="7"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="18" t="s">
-        <v>350</v>
+      <c r="A84" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C84" t="s">
-        <v>425</v>
-      </c>
-      <c r="G84" s="14"/>
+        <v>439</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>440</v>
+      </c>
       <c r="J84" s="7"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C85" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="G85" s="14"/>
       <c r="J85" s="7"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="29" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J86" s="7"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="24" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C89" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" t="s">
-        <v>174</v>
+        <v>164</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
       <c r="J90" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="29" t="s">
-        <v>175</v>
+      <c r="A92" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -3533,217 +3537,217 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="29" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="29" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="30" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="29" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="29" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="29" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="24" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
       <c r="J104" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="29" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="29" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="25" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B107" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
@@ -3751,13 +3755,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="21" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B108" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -3765,97 +3769,97 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="29" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="29" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="24" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="29" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="29" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C113" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="16" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C114" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5"/>
@@ -3863,1065 +3867,1056 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="29" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="29" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="29" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B117" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="29" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="31" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B119" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A120" s="29" t="s">
-        <v>214</v>
+      <c r="A120" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>310</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="4" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="29" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C122" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="J122" s="7"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="29" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="24" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C124" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="J125" s="7"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>365</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>428</v>
+        <v>350</v>
+      </c>
+      <c r="C126" t="s">
+        <v>437</v>
       </c>
       <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="29" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A128" s="29" t="s">
-        <v>231</v>
+      <c r="A128" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="B128" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>234</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="24" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="29" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B130" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="29" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="29" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
-        <v>245</v>
-      </c>
-      <c r="C133" t="s">
-        <v>246</v>
+        <v>234</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J133" s="7"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="27" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B134" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E134" s="3"/>
       <c r="G134" s="23" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="J134" s="7"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="29" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B136" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="29" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B138" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C138" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="G138" s="17"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B139" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C139" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="G139" s="17"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="29" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="24" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="29" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E142" s="13"/>
       <c r="G142" s="1" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="29" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="29" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="29" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="29" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="29" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="29" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C149" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="29" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B150" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="29" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B151" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="29" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B152" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C153" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="G153" s="4"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C154" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="29" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="18" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C156" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="29" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B157" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E157" s="13"/>
       <c r="G157" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="J157" s="7"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="24" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B158" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="19" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C159" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="29" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C160" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B161" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C161" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="J161" s="7"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B162" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B163" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B164" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C164" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="29" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B165" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B166" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C166" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="J166" s="7"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="29" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B167" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A168" s="33" t="s">
-        <v>291</v>
+      <c r="A168" s="29" t="s">
+        <v>280</v>
       </c>
       <c r="B168" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>453</v>
+        <v>431</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="29" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B169" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C169" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B170" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C170" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="29" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B171" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A172" s="29" t="s">
-        <v>297</v>
+      <c r="A172" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>143</v>
+        <v>441</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F172" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>301</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="29" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C173" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E173" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B174" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C174" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B175" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C175" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B176" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C176" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="29" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="B177" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="29" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B178" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="29" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B179" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -4931,7 +4926,7 @@
       <c r="G181" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D181" xr:uid="{EC2C1F91-E280-437D-BC55-172ABB182D9D}"/>
+  <autoFilter ref="A1:J179" xr:uid="{36608550-5126-48F1-AEB6-58A2D2F47A0E}"/>
   <hyperlinks>
     <hyperlink ref="C158" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C130" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4944,38 +4939,35 @@
     <hyperlink ref="E83" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="C104" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="C127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E2" r:id="rId13" display="https://www.humanitarianresponse.info/sites/www.humanitarianresponse.info/files/documents/files/daily_brief_covid-19_DATE.pdf" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E127" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C129" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C128" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E128" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C107" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C157" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E172" r:id="rId20" display="https://www.gub.uy/sistema-nacional-emergencias/comunicacion/comunicados/informe-situacion-sobre-coronavirus-covid-19-uruguay-DATE" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C172" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E77" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C42" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C144" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C76" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C137" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C61" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C79" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C134" r:id="rId29" display="https://www.rospotrebnadzor.ru/search/index.php?tags=&amp;q=%C8%ED%F4%EE%F0%EC%E0%F6%E8%EE%ED%ED%FB%E9+%E1%FE%EB%EB%E5%F2%E5%ED%FC+%EE+%F1%E8%F2%F3%E0%F6%E8%E8+%E8+%EF%F0%E8%ED%E8%EC%E0%E5%EC%FB%F5+%EC%E5%F0%E0%F5+%EF%EE+%ED%E5%E4%EE%EF%F3%F9%E5%ED%E8%FE+%F0%E0%F1%EF%F0%EE%F1%F2%F0%E0%ED%E5%ED%E8%FF+%E7%E0%E1%EE%EB%E5%E2%E0%ED%E8%E9%2C+%E2%FB%E7%E2%E0%ED%ED%FB%F5+%ED%EE%E2%FB%EC+%EA%EE%F0%EE%ED%E0%E2%E8%F0%F3%F1%EE%EC&amp;where=&amp;how=d&amp;from=&amp;to=" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C45" r:id="rId30" xr:uid="{83024962-8462-4F5D-8393-12094ED38B60}"/>
-    <hyperlink ref="C60" r:id="rId31" xr:uid="{DCC53C72-FB4E-4AFB-895F-9585847FB40B}"/>
-    <hyperlink ref="C126" r:id="rId32" xr:uid="{43FC9F2F-B663-4C23-8163-6D2A17697661}"/>
-    <hyperlink ref="C81" r:id="rId33" xr:uid="{39989161-B57F-49B8-928F-A8110BDA921E}"/>
-    <hyperlink ref="C119" r:id="rId34" xr:uid="{A3513D80-8A22-4E9D-93A3-E82C73FBD92B}"/>
-    <hyperlink ref="C24" r:id="rId35" xr:uid="{A115A20E-CA81-487C-BB1D-3710574B1176}"/>
-    <hyperlink ref="C57" r:id="rId36" xr:uid="{A6EB0E25-5C1C-4407-9F7B-5798B4F61260}"/>
-    <hyperlink ref="C67" r:id="rId37" xr:uid="{9369932F-0AB4-4F9D-90BE-2A3CC1A0A2BB}"/>
-    <hyperlink ref="C3" r:id="rId38" xr:uid="{B43E4E7A-A884-47E5-8F04-E7509AB3E657}"/>
-    <hyperlink ref="C59" r:id="rId39" xr:uid="{4A06E4E9-DA38-4EA3-8FC2-1CC692A7670E}"/>
-    <hyperlink ref="C168" r:id="rId40" xr:uid="{7D393478-B010-4DB1-B763-0EA2DC34680E}"/>
-    <hyperlink ref="C148" r:id="rId41" xr:uid="{2A41D897-9628-495B-B0E9-A6062F049BA5}"/>
+    <hyperlink ref="E127" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C129" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C128" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C107" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C157" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C172" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E77" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C144" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C76" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C137" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C61" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C79" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C134" r:id="rId25" display="https://www.rospotrebnadzor.ru/search/index.php?tags=&amp;q=%C8%ED%F4%EE%F0%EC%E0%F6%E8%EE%ED%ED%FB%E9+%E1%FE%EB%EB%E5%F2%E5%ED%FC+%EE+%F1%E8%F2%F3%E0%F6%E8%E8+%E8+%EF%F0%E8%ED%E8%EC%E0%E5%EC%FB%F5+%EC%E5%F0%E0%F5+%EF%EE+%ED%E5%E4%EE%EF%F3%F9%E5%ED%E8%FE+%F0%E0%F1%EF%F0%EE%F1%F2%F0%E0%ED%E5%ED%E8%FF+%E7%E0%E1%EE%EB%E5%E2%E0%ED%E8%E9%2C+%E2%FB%E7%E2%E0%ED%ED%FB%F5+%ED%EE%E2%FB%EC+%EA%EE%F0%EE%ED%E0%E2%E8%F0%F3%F1%EE%EC&amp;where=&amp;how=d&amp;from=&amp;to=" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C45" r:id="rId26" xr:uid="{83024962-8462-4F5D-8393-12094ED38B60}"/>
+    <hyperlink ref="C60" r:id="rId27" xr:uid="{DCC53C72-FB4E-4AFB-895F-9585847FB40B}"/>
+    <hyperlink ref="C81" r:id="rId28" xr:uid="{39989161-B57F-49B8-928F-A8110BDA921E}"/>
+    <hyperlink ref="C119" r:id="rId29" xr:uid="{A3513D80-8A22-4E9D-93A3-E82C73FBD92B}"/>
+    <hyperlink ref="C24" r:id="rId30" xr:uid="{A115A20E-CA81-487C-BB1D-3710574B1176}"/>
+    <hyperlink ref="C57" r:id="rId31" xr:uid="{A6EB0E25-5C1C-4407-9F7B-5798B4F61260}"/>
+    <hyperlink ref="C67" r:id="rId32" xr:uid="{9369932F-0AB4-4F9D-90BE-2A3CC1A0A2BB}"/>
+    <hyperlink ref="C59" r:id="rId33" xr:uid="{4A06E4E9-DA38-4EA3-8FC2-1CC692A7670E}"/>
+    <hyperlink ref="C168" r:id="rId34" xr:uid="{7D393478-B010-4DB1-B763-0EA2DC34680E}"/>
+    <hyperlink ref="C148" r:id="rId35" xr:uid="{2A41D897-9628-495B-B0E9-A6062F049BA5}"/>
+    <hyperlink ref="C133" r:id="rId36" xr:uid="{6F884BC7-EA11-47B4-966C-54E6010E9151}"/>
+    <hyperlink ref="E172" r:id="rId37" display="https://www.gub.uy/sistema-nacional-emergencias/comunicacion/comunicados/informe-situacion-sobre-coronavirus-covid-19-uruguay-DATE" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C90" r:id="rId38" xr:uid="{5D213398-640B-456C-A484-6296224A48A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imane\Documents\DataAut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0721E9-299E-4C3F-AD14-97A152264302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BBA5D8-0695-436D-8149-ABEAB6AE1A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="990" windowWidth="19400" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="473">
   <si>
     <t>country</t>
   </si>
@@ -98,9 +99,6 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>([0-9 .,]+) pruebas diagnósticas</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
@@ -116,9 +114,6 @@
     <t>Ընդհանուր թեստեր - ([0-9 .,]+)</t>
   </si>
   <si>
-    <t>light blue sentence</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -140,9 +135,6 @@
     <t>1;GesTestungen</t>
   </si>
   <si>
-    <t>last cell bottom row</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
@@ -155,27 +147,15 @@
     <t>/html/body/main/section/div/div/div[3]/div[6]/strong</t>
   </si>
   <si>
-    <t>last value bottom</t>
-  </si>
-  <si>
     <t>Bahrain</t>
   </si>
   <si>
     <t>https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
-    <t>//*[@id="renderbody"]/div[2]/div/div/table/thead/tr[1]/th/span</t>
-  </si>
-  <si>
-    <t>1st value blue</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>arcgis dashboard</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
@@ -209,9 +189,6 @@
     <t>https://covid-19.ba/</t>
   </si>
   <si>
-    <t>1st value top</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -239,15 +216,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html?topic=tilelink</t>
-  </si>
-  <si>
-    <t>/html/body/main/div[8]/div/table/tbody/tr/td[1]</t>
-  </si>
-  <si>
-    <t>value blue table further down</t>
-  </si>
-  <si>
     <t>Cape Verde</t>
   </si>
   <si>
@@ -287,9 +255,6 @@
     <t>last,Acumuladas</t>
   </si>
   <si>
-    <t>click on "muestras" to change the dashboard and square "mustras procesadas" will appear</t>
-  </si>
-  <si>
     <t>Comoros</t>
   </si>
   <si>
@@ -311,9 +276,6 @@
     <t>https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
-    <t>value near "testiranja"</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -335,9 +297,6 @@
     <t>//*[@id="count-test"]</t>
   </si>
   <si>
-    <t>value in first square top left</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -347,9 +306,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning</t>
-  </si>
-  <si>
     <t>//*[@id="top"]/div[2]/section[6]/div[1]/table/tbody/tr[2]/td[2]</t>
   </si>
   <si>
@@ -362,9 +318,6 @@
     <t>https://www.salud.gob.ec/actualizacion-de-casos-de-coronavirus-en-ecuador/</t>
   </si>
   <si>
-    <t>//section[@id='postcontent']/table/tbody/tr/td[2]/p/strong</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
@@ -395,9 +348,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>https://koroonakaart.ee/en</t>
-  </si>
-  <si>
     <t>json</t>
   </si>
   <si>
@@ -422,9 +372,6 @@
     <t>https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</t>
   </si>
   <si>
-    <t>1st line starting with "Testattuja"</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -437,9 +384,6 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>https://eody.gov.gr/category/deltia-typoy/?yeararchive=2020</t>
-  </si>
-  <si>
     <t>html_list</t>
   </si>
   <si>
@@ -464,18 +408,12 @@
     <t>([ 0-9]+)</t>
   </si>
   <si>
-    <t>value in last square</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
     <t>https://www.covid.is/tolulegar-upplysingar</t>
   </si>
   <si>
-    <t>value in table further down "Lab testing and capacity"</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -497,9 +435,6 @@
     <t>/html/body/div/div[2]/div[3]/div[1]/h4[1]</t>
   </si>
   <si>
-    <t>value in first square right column, above "Kasus dg Specimen"</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -524,9 +459,6 @@
     <t>https://hls.kz/</t>
   </si>
   <si>
-    <t>last value in grey in the dashboard</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
@@ -566,9 +498,6 @@
     <t>https://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
-    <t>value in before last sentence near "koronaviruso:"</t>
-  </si>
-  <si>
     <t>Luxembourg</t>
   </si>
   <si>
@@ -590,9 +519,6 @@
     <t>https://timesofmalta.com/articles/view/watch-live-daily-coronavirus-briefing.790073</t>
   </si>
   <si>
-    <t>dashboard further down</t>
-  </si>
-  <si>
     <t>Mauritania</t>
   </si>
   <si>
@@ -617,9 +543,6 @@
     <t>https://mohs.gov.mm/Main/content/publication/2019-ncov</t>
   </si>
   <si>
-    <t xml:space="preserve">value in first square left </t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -644,9 +567,6 @@
     <t>NewZealand</t>
   </si>
   <si>
-    <t>https://www.health.govt.nz/our-work/diseases-and-conditions/covid-19-novel-coronavirus/covid-19-current-situation/covid-19-current-cases</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -656,9 +576,6 @@
     <t>Norway</t>
   </si>
   <si>
-    <t>https://www.fhi.no/sv/smittsomme-sykdommer/corona/dags--og-ukerapporter/dags--og-ukerapporter-om-koronavirus/</t>
-  </si>
-  <si>
     <t>Occupied Palestinian Territory</t>
   </si>
   <si>
@@ -668,9 +585,6 @@
     <t>https://corona.ps/</t>
   </si>
   <si>
-    <t>value in 4th square (below 1st square)</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
@@ -680,12 +594,6 @@
     <t>Panama</t>
   </si>
   <si>
-    <t>https://geosocial.maps.arcgis.com/apps/opsdashboard/index.html#/2c6e932c690d467b85375af52b614472</t>
-  </si>
-  <si>
-    <t>select "Pruebas realizadas" bottom of the dashboard and value is under "Pruebas realizadas"</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
@@ -716,9 +624,6 @@
     <t>https://covid19.min-saude.pt/ponto-de-situacao-atual-em-portugal/</t>
   </si>
   <si>
-    <t>below "Amostras" in the dashboard</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
@@ -767,9 +672,6 @@
     <t>Scotland</t>
   </si>
   <si>
-    <t>https://www.gov.scot/publications/coronavirus-covid-19-daily-data-for-scotland/</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
@@ -803,21 +705,12 @@
     <t>https://korona.gov.sk/</t>
   </si>
   <si>
-    <t>1st value square</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
     <t>https://www.nijz.si/sl/dnevno-spremljanje-okuzb-s-sars-cov-2-covid-19/</t>
   </si>
   <si>
-    <t>//*[@id="node-5056"]/div[4]/div/div/div/table/tbody/tr[1]/td[1]/b</t>
-  </si>
-  <si>
-    <t>near "testiranj"</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -854,9 +747,6 @@
     <t>//div[7]/div/div/div/h5</t>
   </si>
   <si>
-    <t>last value on the left</t>
-  </si>
-  <si>
     <t>The Gambia</t>
   </si>
   <si>
@@ -902,9 +792,6 @@
     <t>informe-situacion-sobre-coronavirus-covid-19-uruguay-</t>
   </si>
   <si>
-    <t>%d-%m-%Y</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -929,9 +816,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>getData_json[['testsAdministeredNumber']]</t>
-  </si>
-  <si>
     <t>getData_json[['tamponi']]</t>
   </si>
   <si>
@@ -950,9 +834,6 @@
     <t>/html/body/div/div[2]/div[1]/div/div[1]/div[7]/div[2]/div</t>
   </si>
   <si>
-    <t>//*[@id="node-901196"]/div/div/table[1]/tbody/tr[2]/td[2]</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -968,9 +849,6 @@
     <t>Bhutan</t>
   </si>
   <si>
-    <t>https://bhutanfound.org/covid-19-coronavirus/</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -1016,9 +894,6 @@
     <t>Guatemala</t>
   </si>
   <si>
-    <t>https://www.prensalibre.com/guatemala/comunitario/mapa-en-tiempo-real-muestra-los-casos-de-coronavirus-en-guatemala/</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
@@ -1040,9 +915,6 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>https://govextra.gov.il/ministry-of-health/corona/corona-virus/</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
@@ -1085,9 +957,6 @@
     <t>PapuaNewGuinea</t>
   </si>
   <si>
-    <t>https://www.theguardian.com/world/2020/apr/01/coronavirus-in-the-pacific-weekly-briefing</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -1223,21 +1092,12 @@
     <t>проведено ([ 0-9]+) лабораторных</t>
   </si>
   <si>
-    <t>//*[@id="content"]/div/div[1]/div[6]/table/tbody/tr[4]/td[3]</t>
-  </si>
-  <si>
     <t>https://gis.nicd.ac.za/portal/apps/opsdashboard/index.html#/0ec12f471aaa4055999366669b38482d</t>
   </si>
   <si>
-    <t>https://www.ministeriodesalud.go.cr/index.php/centro-de-prensa/noticias/741-noticias-2020/1725-situacion-nacional-covid-19</t>
-  </si>
-  <si>
     <t>https://dashboard.covid19.data.gouv.fr/suivi-des-tests?location=FRA</t>
   </si>
   <si>
-    <t>https://gisbarbados.gov.bb/?s=COVID-19+situation+report</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/dhsbelize/photos</t>
   </si>
   <si>
@@ -1250,9 +1110,6 @@
     <t>http://www.health.gov.fj/covid-19-updates/</t>
   </si>
   <si>
-    <t>https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/Archiv_Juli.html</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/HealthGrenada/photos</t>
   </si>
   <si>
@@ -1286,9 +1143,6 @@
     <t>https://www.facebook.com/MOHBahamas/photos</t>
   </si>
   <si>
-    <t>https://www.mohap.gov.ae/en/MediaCenter/Pages/news.aspx#4f2627c6-74df-4ae5-9a14-d41e4734a7ee=%7B%22k%22%3A%22%22%7D#58c30df3-a5db-40b3-9e3f-e8817bb9f1f7=%7B%22k%22%3A%22%22%2C%22o%22%3A%5B%7B%22p%22%3A%22MOHPublishDateOWSDATEMP%22%2C%22d%22%3A1%7D%5D%7D</t>
-  </si>
-  <si>
     <t>//*[@id="content"]/div[1]/div[1]/div[1]/div/div[6]/div</t>
   </si>
   <si>
@@ -1298,15 +1152,9 @@
     <t>https://covid19ireland-geohive.hub.arcgis.com/pages/hospitals-icu--testing</t>
   </si>
   <si>
-    <t>https://koronavirus.gov.mk/vesti</t>
-  </si>
-  <si>
     <t>https://viz.saude.gov.br/extensions/DEMAS_C19Insumos_TESTES/DEMAS_C19Insumos_TESTES.html</t>
   </si>
   <si>
-    <t>https://twitter.com/SaudiMOH</t>
-  </si>
-  <si>
     <t>Western Sahara</t>
   </si>
   <si>
@@ -1322,9 +1170,6 @@
     <t>https://www.nun.gl/</t>
   </si>
   <si>
-    <t>//*[@id="preamble"]/div/ul[4]/li[1]/span/span/span/span</t>
-  </si>
-  <si>
     <t>([.0-9]+)</t>
   </si>
   <si>
@@ -1337,9 +1182,6 @@
     <t>https://www.hpb.health.gov.lk/en</t>
   </si>
   <si>
-    <t>https://twitter.com/KKMPutrajaya</t>
-  </si>
-  <si>
     <t>/html/body/div[1]/main/section[1]/div/div[1]/ul/li[4]/div[1]/span</t>
   </si>
   <si>
@@ -1352,18 +1194,12 @@
     <t>https://www.mspbs.gov.py/reporte-covid19.html</t>
   </si>
   <si>
-    <t>https://www.argentina.gob.ar/coronavirus/informes-diarios/reportes/octubre2020</t>
-  </si>
-  <si>
     <t>https://www.moh.gov.jm/?s=COVID-19+Clinical+Management+Summary</t>
   </si>
   <si>
     <t>//*[@id="post-9795"]/div[3]/table/tbody/tr[24]/td[3]</t>
   </si>
   <si>
-    <t>https://www.gub.uy/sistema-nacional-emergencias/comunicacion/comunicados</t>
-  </si>
-  <si>
     <t xml:space="preserve"> se han procesado ([.0-9]+) tests</t>
   </si>
   <si>
@@ -1397,9 +1233,6 @@
     <t>Testime totale ([0-9]+)</t>
   </si>
   <si>
-    <t>testirano ([.0-9]+) osoba</t>
-  </si>
-  <si>
     <t>cuba-reporta-</t>
   </si>
   <si>
@@ -1407,6 +1240,243 @@
   </si>
   <si>
     <t>reporte[-_]vespertino[-_]covid.*.pdf</t>
+  </si>
+  <si>
+    <t>https://gisbarbados.gov.bb/?s=COVID-19+update</t>
+  </si>
+  <si>
+    <t>//*[@id="node-901196"]/div/div/table[1]/tbody/tr[2]</t>
+  </si>
+  <si>
+    <t>Info is in articles that start with "В Беларуси на". In sentence "Всего проведено (…) теста". Problem is that they use "млн." for million and  "тыс." for thousand.</t>
+  </si>
+  <si>
+    <t>Publications always start with "Bolivia acumula". Value is CONFIRMADOS+SOSPECHOSOS+DESCARTADOS</t>
+  </si>
+  <si>
+    <t>https://eody.gov.gr/</t>
+  </si>
+  <si>
+    <t>https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/Okt_2020/Archiv_Oktober.html</t>
+  </si>
+  <si>
+    <t>https://tablerocovid.mspas.gob.gt/</t>
+  </si>
+  <si>
+    <t>https://www.gub.uy/sistema-nacional-emergencias/pagina-embebida/visualizador-casos-coronavirus-covid-19-uruguay</t>
+  </si>
+  <si>
+    <t>([.0-9]+) pruebas diagnósticas</t>
+  </si>
+  <si>
+    <t>testiran[oe] ([.0-9]+) osob[ae]</t>
+  </si>
+  <si>
+    <t>Testattuja näytteitä yhteensä: yli ([ 0-9]+)</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div[2]/div/div[2]/div/div[3]/div[2]/div/div/table/thead/tr[1]/th/span</t>
+  </si>
+  <si>
+    <t>//*[@id="postcontent"]/table/tbody/tr[1]/td[2]/p[1]/strong[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="node-5056"]/div[4]/div/div/div/table[1]/tbody/tr[1]/td[1]/strong</t>
+  </si>
+  <si>
+    <t>https://www.fhi.no/en/id/infectious-diseases/coronavirus/daily-reports/daily-reports-COVID19/</t>
+  </si>
+  <si>
+    <t>https://www.argentina.gob.ar/coronavirus/informes-diarios/reportes/noviembre2020</t>
+  </si>
+  <si>
+    <t>https://health-infobase.canada.ca/covid-19/epidemiological-summary-covid-19-cases.html</t>
+  </si>
+  <si>
+    <t>https://www.health.govt.nz/our-work/diseases-and-conditions/covid-19-novel-coronavirus/covid-19-data-and-statistics/covid-19-testing-data</t>
+  </si>
+  <si>
+    <t>https://datastudio.google.com/embed/u/0/reporting/9f5104d0-12fd-4e16-9a11-993685cfd40f/page/1M</t>
+  </si>
+  <si>
+    <t>//*[@id="content"]/div/div[1]/div[7]/table/tbody/tr[4]/td[3]</t>
+  </si>
+  <si>
+    <t>"Afghanistan COVID-19 Multi-Sectoral Response" Or publication "Afghanistan Flash Update | COVID-19" value before "people out of a population of". No fixed frequency, other publications without testind data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to first change language </t>
+  </si>
+  <si>
+    <t>Info not only in image, also in text at the bottom</t>
+  </si>
+  <si>
+    <t>There is not every day a publication. Publi title starting with "В Беларуси на". Info is between "Всего проведено" and "теста.". Use of "млн." and "млн." for million and thousand.</t>
+  </si>
+  <si>
+    <t>Need to choose "7.Tests" at the bottom of the dashboard near "Summary".</t>
+  </si>
+  <si>
+    <t>Publi starts with "COVID-19: se reportan". Every day. CONFIRMADOS+SOSPECHOSOS+DESCARTADOS</t>
+  </si>
+  <si>
+    <t>Excel-General --&gt; RESUMEN --&gt; "Mustras Realizadas"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every day publication. Value between "Cuba acumula" and "muestras". Sometimes is "el pais acumula" and "pruebas". </t>
+  </si>
+  <si>
+    <t>"Prover" bottom line</t>
+  </si>
+  <si>
+    <t>Always the same link. PDF changes day.</t>
+  </si>
+  <si>
+    <t>Not published every day. Every few days, not always same frequency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report published every day but testing info only in wednesday's reports ("Mittwoch"). Last blue table "Table 4: Number of SARS-CoV-2-laboratory tests in Germany". </t>
+  </si>
+  <si>
+    <t>Value in bold between "ελεγχθε" and  "κλινικά". Published daily.</t>
+  </si>
+  <si>
+    <t>Click on "Casos tamizados" on the left menu. Then it's 1st value on the left.</t>
+  </si>
+  <si>
+    <t>Always the same link. PDF changes every 2/3 weeks.</t>
+  </si>
+  <si>
+    <t>Problem there are 3 values to additionate. samples,domestic + samples, border screening 1 + samples, border screening 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Health Ministry's Updates on COVID-19" published every day. </t>
+  </si>
+  <si>
+    <t>This table published every day: https://www.facebook.com/MOH.GOV.IQ/photos/3413791365341904 (second value on top)</t>
+  </si>
+  <si>
+    <t>Value if for the day before the day when the press release is published.</t>
+  </si>
+  <si>
+    <t>Publications every day. "新型コロナウイルス感染症の現在の状況と厚生労働省の対応について" value below "【PCR検査の実施件数】". Difficulty: cumulative value corresponds to the date mentioned in the paragraph and not the date of the publication. Date format in Japonese.</t>
+  </si>
+  <si>
+    <t>ast value in grey in the dashboard.</t>
+  </si>
+  <si>
+    <t>Post "Instituti Kombëtar i Shëndetësisë Publike të Kosovës" evry day. Value between "cases" and "suspicious persons".</t>
+  </si>
+  <si>
+    <t>Value between "koronaviruso:" and "(iš jų – ".</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tests COVID-19" courbe verte à survoler.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dashboard further down</t>
+  </si>
+  <si>
+    <t>CONFIRMADOS+NEGATIVOS+SOSPECHOSOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value in first square left </t>
+  </si>
+  <si>
+    <t>Every Wednesday New tests (Not cumulative tests) for the past 7 days. Value is "Total number of tests of which results are know" in "Last week". Value goes to the "new tests" for the date mentioned above.</t>
+  </si>
+  <si>
+    <t>Below "Amostras" in the dashboard</t>
+  </si>
+  <si>
+    <t>Click on "Buletin de Presa". Value is between "prelucrate" and "de teste"</t>
+  </si>
+  <si>
+    <t>Publication starts with "Информационный бюллетень о". Every day but value does not always correspond to the date of the publication so need to take into account the date mentioned in paragraph. Value between "проведено" and "лабораторных"</t>
+  </si>
+  <si>
+    <t>Publication is "Aggiornamento dati Epidemia da Covid-19 al". From time to time, not daily. Calculation test sierologici+tamponi molecolari. </t>
+  </si>
+  <si>
+    <t>Two clicks to be made in order to display test data</t>
+  </si>
+  <si>
+    <t>Testing info only in Monday's press releases. Value between "se han efectuado hasta el momento" and "pruebas diagnósticas"</t>
+  </si>
+  <si>
+    <t>Publication "Veckorapport om covid-19 vecka" every Friday. Value in table at the beginning "Testade individer (PCR-test): "</t>
+  </si>
+  <si>
+    <t>Publications in the bottom "Bản tin cập nhật dịch bệnh Covid-19". Not every dail but almost. Value after "thực hiện"</t>
+  </si>
+  <si>
+    <t>http://geovision.uned.ac.cr/oges/index.html</t>
+  </si>
+  <si>
+    <t>https://datadashboard.health.gov.il/COVID-19/general</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kementeriankesihatanmalaysia/photos/10157490776386237</t>
+  </si>
+  <si>
+    <t>Every day there is a similar image and the value is "Jumlah Individu Disampel"</t>
+  </si>
+  <si>
+    <t>https://covid19.info.gov.pg/</t>
+  </si>
+  <si>
+    <t>//*[@id="post-166"]/div/div/div/section[4]/div[2]/div/div[2]/div/div/section[1]/div/div/div[2]/div/div/div/div/div/table/tbody/tr[11]/td[2]/p/span/span</t>
+  </si>
+  <si>
+    <t>https://covid19.moh.gov.sa/</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/profile/phs.covid.19#!/vizhome/COVID-19DailyDashboard_15960160643010/Dailyupdate</t>
+  </si>
+  <si>
+    <t>https://fcsa.gov.ae/en-us/Pages/Covid19/UAE-Covid-19-Updates.aspx</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MoHBhutan/photos/3641467919248131</t>
+  </si>
+  <si>
+    <t>Every day there is a new infographic and the value is "Total tested till date"</t>
+  </si>
+  <si>
+    <t>https://experience.arcgis.com/experience/aa41b29149f24e20a4007a0c4e13db1d</t>
+  </si>
+  <si>
+    <t>Info in file to download</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MINSAPma/status/1325931093804113925/photo/1</t>
+  </si>
+  <si>
+    <t>Every day a new infographic, info is "Pruebas realizadas"</t>
+  </si>
+  <si>
+    <t>Desde el 13 de marzo se han procesado</t>
   </si>
 </sst>
 </file>
@@ -1416,13 +1486,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dddd\,\ mmmm\ d\,\ yyyy;@" x16r2:formatCode16="[$-en-CH,1]dddd\,\ mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1568,6 +1645,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF303030"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1593,13 +1705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,58 +1727,61 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1954,10 +2069,10 @@
   <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2007,50 +2122,53 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>391</v>
+      </c>
+      <c r="J2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>305</v>
+      <c r="A3" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>452</v>
+        <v>396</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -2067,7 +2185,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
@@ -2084,74 +2202,72 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>382</v>
+      <c r="A6" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>338</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="G7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -2163,198 +2279,217 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
+      <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="J13" s="9" t="s">
-        <v>45</v>
+      <c r="J13" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="C14" t="s">
-        <v>399</v>
-      </c>
-      <c r="J14" s="9"/>
+        <v>401</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="G19" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" t="s">
+        <v>466</v>
+      </c>
+      <c r="J20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21" t="s">
+        <v>404</v>
+      </c>
+      <c r="J21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="C22" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="C17" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -2362,16 +2497,14 @@
       <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
-        <v>58</v>
+      <c r="A23" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -2384,27 +2517,27 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
-        <v>59</v>
+      <c r="A24" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="G24" s="4"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
-        <v>312</v>
+      <c r="A25" s="27" t="s">
+        <v>271</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2415,175 +2548,173 @@
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>299</v>
-      </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C29" t="s">
-        <v>315</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="29" t="s">
+      <c r="C35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="G35" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="I35" s="2">
         <v>60556</v>
@@ -2591,34 +2722,32 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="29" t="s">
-        <v>79</v>
+      <c r="A36" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="29" t="s">
-        <v>84</v>
+      <c r="A37" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -2631,251 +2760,251 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
-        <v>85</v>
+      <c r="A38" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>397</v>
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>457</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" t="s">
+        <v>398</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="J42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="29" t="s">
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="J45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="B46" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" t="s">
+        <v>355</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="J48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" t="s">
-        <v>454</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
         <v>92</v>
       </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="D49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
+        <v>413</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="J42" s="11" t="s">
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="29" t="s">
+      <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C51" t="s">
         <v>96</v>
       </c>
-      <c r="C43" t="s">
+      <c r="G51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="J51" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J43" s="7" t="s">
+    </row>
+    <row r="52" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="29" t="s">
+      <c r="B52" t="s">
         <v>100</v>
-      </c>
-      <c r="B44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C47" t="s">
-        <v>402</v>
-      </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="C48" t="s">
-        <v>436</v>
-      </c>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" t="s">
-        <v>116</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -2893,11 +3022,11 @@
       <c r="J52"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="29" t="s">
-        <v>117</v>
+      <c r="A53" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -2910,143 +3039,148 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="29" t="s">
-        <v>118</v>
+      <c r="A54" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>297</v>
+        <v>104</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H59" s="36"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C58" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="29" t="s">
-        <v>130</v>
+      <c r="A62" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -3060,31 +3194,34 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="B63" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G64" s="4"/>
+      <c r="J64" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="29" t="s">
-        <v>131</v>
+      <c r="A65" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -3097,63 +3234,68 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="25" t="s">
-        <v>132</v>
+      <c r="A66" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>405</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="J66" s="7"/>
+      <c r="J66" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="29" t="s">
-        <v>135</v>
+      <c r="A67" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="B68" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="C68" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="B69" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>407</v>
+      </c>
+      <c r="J69" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="29" t="s">
-        <v>136</v>
+      <c r="A70" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -3166,11 +3308,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="29" t="s">
-        <v>137</v>
+      <c r="A71" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -3184,363 +3326,370 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="C72" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="C73" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>341</v>
+      </c>
+      <c r="B74" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" t="s">
+        <v>288</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="J74" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="J76" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C82" t="s">
+        <v>458</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" t="s">
+        <v>134</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C84" t="s">
         <v>385</v>
       </c>
-      <c r="B74" t="s">
-        <v>329</v>
-      </c>
-      <c r="C74" t="s">
-        <v>330</v>
-      </c>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="29" t="s">
+      <c r="E84" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C85" t="s">
+        <v>360</v>
+      </c>
+      <c r="G85" s="12"/>
+      <c r="J85" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
         <v>139</v>
       </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="J87" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="4" t="s">
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" t="s">
+        <v>295</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="J89" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="J76" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F77" t="s">
-        <v>149</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C82" t="s">
-        <v>334</v>
-      </c>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" t="s">
-        <v>156</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="C84" t="s">
-        <v>439</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C85" t="s">
-        <v>408</v>
-      </c>
-      <c r="G85" s="14"/>
-      <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" t="s">
-        <v>161</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C89" t="s">
-        <v>338</v>
-      </c>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
-      <c r="J90" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="J90" s="7"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>386</v>
+      <c r="A91" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="25" t="s">
-        <v>166</v>
+      <c r="A92" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J92" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="27" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
+      <c r="B93" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="29" t="s">
-        <v>171</v>
+      <c r="A94" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -3553,11 +3702,11 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="29" t="s">
-        <v>172</v>
+      <c r="A95" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -3570,11 +3719,11 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="29" t="s">
-        <v>173</v>
+      <c r="A96" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -3587,42 +3736,45 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="30" t="s">
-        <v>174</v>
+      <c r="A97" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>176</v>
+        <v>382</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="25" t="s">
-        <v>177</v>
+      <c r="A98" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
+      </c>
+      <c r="J98" s="37" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" s="29" t="s">
-        <v>179</v>
+      <c r="A99" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
@@ -3635,20 +3787,20 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>340</v>
+      <c r="A100" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="29" t="s">
-        <v>180</v>
+      <c r="A101" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
@@ -3661,23 +3813,26 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="16" t="s">
-        <v>341</v>
+      <c r="A102" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="B102" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="C102" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="G102" s="4"/>
+      <c r="J102" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="29" t="s">
-        <v>181</v>
+      <c r="A103" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
         <v>16</v>
@@ -3690,27 +3845,27 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="24" t="s">
-        <v>182</v>
+      <c r="A104" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
-      <c r="J104" s="7" t="s">
-        <v>184</v>
+      <c r="J104" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="29" t="s">
-        <v>185</v>
+      <c r="A105" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
         <v>16</v>
@@ -3723,11 +3878,11 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A106" s="29" t="s">
-        <v>186</v>
+      <c r="A106" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s">
         <v>16</v>
@@ -3740,39 +3895,41 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A107" s="25" t="s">
-        <v>187</v>
+      <c r="A107" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
-      <c r="J107" s="7"/>
+      <c r="J107" s="8" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A108" s="21" t="s">
-        <v>392</v>
+      <c r="A108" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="B108" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="J108" s="7"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A109" s="29" t="s">
-        <v>189</v>
+      <c r="A109" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
@@ -3785,11 +3942,11 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110" s="29" t="s">
-        <v>190</v>
+      <c r="A110" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -3802,25 +3959,25 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111" s="24" t="s">
-        <v>191</v>
+      <c r="A111" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112" s="29" t="s">
-        <v>194</v>
+      <c r="A112" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
@@ -3833,14 +3990,14 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" s="29" t="s">
-        <v>195</v>
+      <c r="A113" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C113" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -3852,47 +4009,50 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A114" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>342</v>
+      <c r="A114" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5"/>
       <c r="I114" s="6"/>
+      <c r="J114" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>198</v>
+      <c r="A115" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A116" s="29" t="s">
-        <v>200</v>
+      <c r="A116" s="34" t="s">
+        <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>202</v>
+        <v>418</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
@@ -3900,16 +4060,14 @@
       <c r="G116" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J116" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="J116" s="7"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A117" s="29" t="s">
-        <v>203</v>
+      <c r="A117" s="27" t="s">
+        <v>176</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -3922,11 +4080,11 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A118" s="29" t="s">
-        <v>204</v>
+      <c r="A118" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
@@ -3939,31 +4097,31 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A119" s="31" t="s">
-        <v>345</v>
+      <c r="A119" s="35" t="s">
+        <v>302</v>
       </c>
       <c r="B119" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A120" s="25" t="s">
-        <v>205</v>
+      <c r="A120" s="27" t="s">
+        <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C120" t="s">
-        <v>206</v>
+        <v>415</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
@@ -3975,14 +4133,14 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A121" s="29" t="s">
-        <v>207</v>
+      <c r="A121" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C121" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>13</v>
@@ -3990,137 +4148,141 @@
       <c r="G121" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J121" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="J121" s="7"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>346</v>
+      <c r="A122" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="C122" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="J122" s="7"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A123" s="29" t="s">
-        <v>211</v>
+      <c r="A123" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A124" s="24" t="s">
-        <v>213</v>
+      <c r="A124" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>215</v>
+        <v>470</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>347</v>
+      <c r="A125" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>349</v>
+        <v>305</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="J125" s="7"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="C126" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A127" s="29" t="s">
-        <v>216</v>
+      <c r="A127" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A128" s="25" t="s">
-        <v>222</v>
+      <c r="A128" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E128" s="3"/>
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A129" s="24" t="s">
-        <v>224</v>
+      <c r="A129" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A130" s="29" t="s">
-        <v>227</v>
+      <c r="A130" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
@@ -4130,14 +4292,14 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A131" s="29" t="s">
-        <v>229</v>
+      <c r="A131" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -4147,11 +4309,11 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A132" s="29" t="s">
-        <v>232</v>
+      <c r="A132" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
@@ -4165,47 +4327,48 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J133" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A134" s="27" t="s">
-        <v>351</v>
+      <c r="A134" s="25" t="s">
+        <v>307</v>
       </c>
       <c r="B134" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="E134" s="3"/>
-      <c r="G134" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="J134" s="7"/>
+      <c r="G134" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A135" s="29" t="s">
-        <v>238</v>
+      <c r="A135" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
@@ -4219,63 +4382,66 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="B136" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A137" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>301</v>
+      <c r="A137" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>303</v>
+        <v>34</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="B138" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s">
-        <v>411</v>
-      </c>
-      <c r="G138" s="17"/>
+        <v>363</v>
+      </c>
+      <c r="G138" s="15"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="B139" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
-      </c>
-      <c r="G139" s="17"/>
+        <v>313</v>
+      </c>
+      <c r="G139" s="15"/>
+      <c r="J139" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A140" s="29" t="s">
-        <v>239</v>
+      <c r="A140" s="27" t="s">
+        <v>207</v>
       </c>
       <c r="B140" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
@@ -4288,43 +4454,37 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A141" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="B141" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>226</v>
+      <c r="A141" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C141" t="s">
+        <v>463</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="29" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>242</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E142" s="13"/>
-      <c r="G142" s="1" t="s">
-        <v>428</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C142" t="s">
+        <v>464</v>
+      </c>
+      <c r="E142" s="11"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A143" s="29" t="s">
-        <v>244</v>
+      <c r="A143" s="27" t="s">
+        <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
         <v>16</v>
@@ -4337,28 +4497,28 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A144" s="29" t="s">
-        <v>245</v>
+      <c r="A144" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A145" s="29" t="s">
-        <v>248</v>
+      <c r="A145" s="27" t="s">
+        <v>215</v>
       </c>
       <c r="B145" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
@@ -4371,11 +4531,11 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A146" s="29" t="s">
-        <v>249</v>
+      <c r="A146" s="27" t="s">
+        <v>216</v>
       </c>
       <c r="B146" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
@@ -4388,14 +4548,14 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A147" s="29" t="s">
-        <v>251</v>
+      <c r="A147" s="27" t="s">
+        <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>13</v>
@@ -4403,56 +4563,50 @@
       <c r="G147" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J147" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="J147" s="7"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A148" s="29" t="s">
-        <v>253</v>
+      <c r="A148" s="27" t="s">
+        <v>220</v>
       </c>
       <c r="B148" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J148" s="7" t="s">
-        <v>255</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="J148" s="7"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A149" s="29" t="s">
-        <v>256</v>
+      <c r="A149" s="27" t="s">
+        <v>222</v>
       </c>
       <c r="B149" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="C149" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J149" s="7" t="s">
-        <v>259</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="J149" s="7"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A150" s="29" t="s">
-        <v>260</v>
+      <c r="A150" s="27" t="s">
+        <v>224</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C150" t="s">
         <v>16</v>
@@ -4465,14 +4619,14 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A151" s="29" t="s">
-        <v>359</v>
+      <c r="A151" s="27" t="s">
+        <v>315</v>
       </c>
       <c r="B151" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>13</v>
@@ -4482,11 +4636,11 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A152" s="29" t="s">
-        <v>261</v>
+      <c r="A152" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="B152" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -4499,26 +4653,29 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A153" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>362</v>
+      <c r="A153" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="G153" s="4"/>
+      <c r="J153" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A154" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>364</v>
+      <c r="A154" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="C154" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>13</v>
@@ -4528,11 +4685,11 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A155" s="29" t="s">
-        <v>262</v>
+      <c r="A155" s="27" t="s">
+        <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C155" t="s">
         <v>16</v>
@@ -4545,102 +4702,103 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A156" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>365</v>
+      <c r="A156" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="C156" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="G156" s="4"/>
+      <c r="J156" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A157" s="29" t="s">
-        <v>263</v>
+      <c r="A157" s="27" t="s">
+        <v>227</v>
       </c>
       <c r="B157" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E157" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="E157" s="11"/>
       <c r="G157" s="1" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="J157" s="7"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A158" s="24" t="s">
-        <v>265</v>
+      <c r="A158" s="22" t="s">
+        <v>229</v>
       </c>
       <c r="B158" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A159" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>366</v>
+      <c r="A159" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="C159" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A160" s="29" t="s">
-        <v>269</v>
+      <c r="A160" s="27" t="s">
+        <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="C160" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J160" s="7" t="s">
-        <v>272</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="J160" s="7"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="C161" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="J161" s="7"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A162" s="29" t="s">
-        <v>273</v>
+      <c r="A162" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="C162" t="s">
         <v>16</v>
@@ -4653,11 +4811,11 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A163" s="29" t="s">
-        <v>275</v>
+      <c r="A163" s="27" t="s">
+        <v>238</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="C163" t="s">
         <v>16</v>
@@ -4671,22 +4829,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="B164" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="C164" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A165" s="29" t="s">
-        <v>276</v>
+      <c r="A165" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="C165" t="s">
         <v>16</v>
@@ -4699,29 +4857,29 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A166" s="29" t="s">
-        <v>277</v>
+      <c r="A166" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="B166" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="C166" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="J166" s="7"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A167" s="29" t="s">
-        <v>279</v>
+      <c r="A167" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="C167" t="s">
         <v>16</v>
@@ -4734,14 +4892,14 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A168" s="29" t="s">
-        <v>280</v>
+      <c r="A168" s="27" t="s">
+        <v>243</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>13</v>
@@ -4751,39 +4909,45 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A169" s="29" t="s">
-        <v>282</v>
+      <c r="A169" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="C169" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>373</v>
+      <c r="A170" s="38" t="s">
+        <v>329</v>
       </c>
       <c r="B170" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="C170" t="s">
-        <v>416</v>
+        <v>465</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A171" s="29" t="s">
-        <v>284</v>
+      <c r="A171" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="B171" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="C171" t="s">
         <v>16</v>
@@ -4796,84 +4960,87 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A172" s="25" t="s">
-        <v>286</v>
+      <c r="A172" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="B172" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F172" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>442</v>
+        <v>387</v>
+      </c>
+      <c r="J172" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A173" s="29" t="s">
-        <v>289</v>
+      <c r="A173" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="B173" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="C173" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E173" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="B174" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="C174" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="B175" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="C175" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="B176" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>380</v>
+        <v>336</v>
+      </c>
+      <c r="J176" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="29" t="s">
-        <v>423</v>
+      <c r="A177" s="27" t="s">
+        <v>372</v>
       </c>
       <c r="B177" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -4886,11 +5053,11 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="29" t="s">
-        <v>295</v>
+      <c r="A178" s="27" t="s">
+        <v>257</v>
       </c>
       <c r="B178" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -4903,11 +5070,11 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="29" t="s">
-        <v>296</v>
+      <c r="A179" s="27" t="s">
+        <v>258</v>
       </c>
       <c r="B179" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -4926,7 +5093,8 @@
       <c r="G181" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J179" xr:uid="{36608550-5126-48F1-AEB6-58A2D2F47A0E}"/>
+  <autoFilter ref="D1:D181" xr:uid="{35B058A2-5039-4F45-BA48-AD5348011C35}"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C158" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C130" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4935,39 +5103,32 @@
     <hyperlink ref="C16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="C35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C116" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E83" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C104" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E127" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C129" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C128" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C107" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C157" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C172" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E77" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C144" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C76" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C137" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C61" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C79" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C134" r:id="rId25" display="https://www.rospotrebnadzor.ru/search/index.php?tags=&amp;q=%C8%ED%F4%EE%F0%EC%E0%F6%E8%EE%ED%ED%FB%E9+%E1%FE%EB%EB%E5%F2%E5%ED%FC+%EE+%F1%E8%F2%F3%E0%F6%E8%E8+%E8+%EF%F0%E8%ED%E8%EC%E0%E5%EC%FB%F5+%EC%E5%F0%E0%F5+%EF%EE+%ED%E5%E4%EE%EF%F3%F9%E5%ED%E8%FE+%F0%E0%F1%EF%F0%EE%F1%F2%F0%E0%ED%E5%ED%E8%FF+%E7%E0%E1%EE%EB%E5%E2%E0%ED%E8%E9%2C+%E2%FB%E7%E2%E0%ED%ED%FB%F5+%ED%EE%E2%FB%EC+%EA%EE%F0%EE%ED%E0%E2%E8%F0%F3%F1%EE%EC&amp;where=&amp;how=d&amp;from=&amp;to=" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C45" r:id="rId26" xr:uid="{83024962-8462-4F5D-8393-12094ED38B60}"/>
-    <hyperlink ref="C60" r:id="rId27" xr:uid="{DCC53C72-FB4E-4AFB-895F-9585847FB40B}"/>
-    <hyperlink ref="C81" r:id="rId28" xr:uid="{39989161-B57F-49B8-928F-A8110BDA921E}"/>
-    <hyperlink ref="C119" r:id="rId29" xr:uid="{A3513D80-8A22-4E9D-93A3-E82C73FBD92B}"/>
-    <hyperlink ref="C24" r:id="rId30" xr:uid="{A115A20E-CA81-487C-BB1D-3710574B1176}"/>
-    <hyperlink ref="C57" r:id="rId31" xr:uid="{A6EB0E25-5C1C-4407-9F7B-5798B4F61260}"/>
-    <hyperlink ref="C67" r:id="rId32" xr:uid="{9369932F-0AB4-4F9D-90BE-2A3CC1A0A2BB}"/>
-    <hyperlink ref="C59" r:id="rId33" xr:uid="{4A06E4E9-DA38-4EA3-8FC2-1CC692A7670E}"/>
-    <hyperlink ref="C168" r:id="rId34" xr:uid="{7D393478-B010-4DB1-B763-0EA2DC34680E}"/>
-    <hyperlink ref="C148" r:id="rId35" xr:uid="{2A41D897-9628-495B-B0E9-A6062F049BA5}"/>
-    <hyperlink ref="C133" r:id="rId36" xr:uid="{6F884BC7-EA11-47B4-966C-54E6010E9151}"/>
-    <hyperlink ref="E172" r:id="rId37" display="https://www.gub.uy/sistema-nacional-emergencias/comunicacion/comunicados/informe-situacion-sobre-coronavirus-covid-19-uruguay-DATE" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C90" r:id="rId38" xr:uid="{5D213398-640B-456C-A484-6296224A48A2}"/>
+    <hyperlink ref="E83" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C104" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C127" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C129" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C128" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C107" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E77" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C42" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C144" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C76" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C137" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C61" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C79" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C134" r:id="rId22" display="https://www.rospotrebnadzor.ru/search/index.php?tags=&amp;q=%C8%ED%F4%EE%F0%EC%E0%F6%E8%EE%ED%ED%FB%E9+%E1%FE%EB%EB%E5%F2%E5%ED%FC+%EE+%F1%E8%F2%F3%E0%F6%E8%E8+%E8+%EF%F0%E8%ED%E8%EC%E0%E5%EC%FB%F5+%EC%E5%F0%E0%F5+%EF%EE+%ED%E5%E4%EE%EF%F3%F9%E5%ED%E8%FE+%F0%E0%F1%EF%F0%EE%F1%F2%F0%E0%ED%E5%ED%E8%FF+%E7%E0%E1%EE%EB%E5%E2%E0%ED%E8%E9%2C+%E2%FB%E7%E2%E0%ED%ED%FB%F5+%ED%EE%E2%FB%EC+%EA%EE%F0%EE%ED%E0%E2%E8%F0%F3%F1%EE%EC&amp;where=&amp;how=d&amp;from=&amp;to=" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C81" r:id="rId23" xr:uid="{39989161-B57F-49B8-928F-A8110BDA921E}"/>
+    <hyperlink ref="C24" r:id="rId24" xr:uid="{A115A20E-CA81-487C-BB1D-3710574B1176}"/>
+    <hyperlink ref="C57" r:id="rId25" xr:uid="{A6EB0E25-5C1C-4407-9F7B-5798B4F61260}"/>
+    <hyperlink ref="C67" r:id="rId26" xr:uid="{9369932F-0AB4-4F9D-90BE-2A3CC1A0A2BB}"/>
+    <hyperlink ref="C168" r:id="rId27" xr:uid="{7D393478-B010-4DB1-B763-0EA2DC34680E}"/>
+    <hyperlink ref="C148" r:id="rId28" xr:uid="{2A41D897-9628-495B-B0E9-A6062F049BA5}"/>
+    <hyperlink ref="C133" r:id="rId29" xr:uid="{6F884BC7-EA11-47B4-966C-54E6010E9151}"/>
+    <hyperlink ref="E172" r:id="rId30" display="https://www.gub.uy/sistema-nacional-emergencias/comunicacion/comunicados/informe-situacion-sobre-coronavirus-covid-19-uruguay-DATE" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C90" r:id="rId31" xr:uid="{5D213398-640B-456C-A484-6296224A48A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/manual/tests_urls.xlsx
+++ b/manual/tests_urls.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imane\Documents\DataAut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0721E9-299E-4C3F-AD14-97A152264302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133C5615-68AD-4F53-8F76-E4DA89FBBED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="990" windowWidth="19400" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="1740" yWindow="1670" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="465">
   <si>
     <t>country</t>
   </si>
@@ -98,9 +99,6 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>([0-9 .,]+) pruebas diagnósticas</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
@@ -164,18 +162,12 @@
     <t>https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
-    <t>//*[@id="renderbody"]/div[2]/div/div/table/thead/tr[1]/th/span</t>
-  </si>
-  <si>
     <t>1st value blue</t>
   </si>
   <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>arcgis dashboard</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
@@ -239,15 +231,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html?topic=tilelink</t>
-  </si>
-  <si>
-    <t>/html/body/main/div[8]/div/table/tbody/tr/td[1]</t>
-  </si>
-  <si>
-    <t>value blue table further down</t>
-  </si>
-  <si>
     <t>Cape Verde</t>
   </si>
   <si>
@@ -311,9 +294,6 @@
     <t>https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
-    <t>value near "testiranja"</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -362,9 +342,6 @@
     <t>https://www.salud.gob.ec/actualizacion-de-casos-de-coronavirus-en-ecuador/</t>
   </si>
   <si>
-    <t>//section[@id='postcontent']/table/tbody/tr/td[2]/p/strong</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
@@ -437,9 +414,6 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>https://eody.gov.gr/category/deltia-typoy/?yeararchive=2020</t>
-  </si>
-  <si>
     <t>html_list</t>
   </si>
   <si>
@@ -644,9 +618,6 @@
     <t>NewZealand</t>
   </si>
   <si>
-    <t>https://www.health.govt.nz/our-work/diseases-and-conditions/covid-19-novel-coronavirus/covid-19-current-situation/covid-19-current-cases</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -656,9 +627,6 @@
     <t>Norway</t>
   </si>
   <si>
-    <t>https://www.fhi.no/sv/smittsomme-sykdommer/corona/dags--og-ukerapporter/dags--og-ukerapporter-om-koronavirus/</t>
-  </si>
-  <si>
     <t>Occupied Palestinian Territory</t>
   </si>
   <si>
@@ -680,9 +648,6 @@
     <t>Panama</t>
   </si>
   <si>
-    <t>https://geosocial.maps.arcgis.com/apps/opsdashboard/index.html#/2c6e932c690d467b85375af52b614472</t>
-  </si>
-  <si>
     <t>select "Pruebas realizadas" bottom of the dashboard and value is under "Pruebas realizadas"</t>
   </si>
   <si>
@@ -812,9 +777,6 @@
     <t>https://www.nijz.si/sl/dnevno-spremljanje-okuzb-s-sars-cov-2-covid-19/</t>
   </si>
   <si>
-    <t>//*[@id="node-5056"]/div[4]/div/div/div/table/tbody/tr[1]/td[1]/b</t>
-  </si>
-  <si>
     <t>near "testiranj"</t>
   </si>
   <si>
@@ -902,9 +864,6 @@
     <t>informe-situacion-sobre-coronavirus-covid-19-uruguay-</t>
   </si>
   <si>
-    <t>%d-%m-%Y</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -950,9 +909,6 @@
     <t>/html/body/div/div[2]/div[1]/div/div[1]/div[7]/div[2]/div</t>
   </si>
   <si>
-    <t>//*[@id="node-901196"]/div/div/table[1]/tbody/tr[2]/td[2]</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -1016,9 +972,6 @@
     <t>Guatemala</t>
   </si>
   <si>
-    <t>https://www.prensalibre.com/guatemala/comunitario/mapa-en-tiempo-real-muestra-los-casos-de-coronavirus-en-guatemala/</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
@@ -1223,9 +1176,6 @@
     <t>проведено ([ 0-9]+) лабораторных</t>
   </si>
   <si>
-    <t>//*[@id="content"]/div/div[1]/div[6]/table/tbody/tr[4]/td[3]</t>
-  </si>
-  <si>
     <t>https://gis.nicd.ac.za/portal/apps/opsdashboard/index.html#/0ec12f471aaa4055999366669b38482d</t>
   </si>
   <si>
@@ -1235,9 +1185,6 @@
     <t>https://dashboard.covid19.data.gouv.fr/suivi-des-tests?location=FRA</t>
   </si>
   <si>
-    <t>https://gisbarbados.gov.bb/?s=COVID-19+situation+report</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/dhsbelize/photos</t>
   </si>
   <si>
@@ -1250,9 +1197,6 @@
     <t>http://www.health.gov.fj/covid-19-updates/</t>
   </si>
   <si>
-    <t>https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/Archiv_Juli.html</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/HealthGrenada/photos</t>
   </si>
   <si>
@@ -1298,9 +1242,6 @@
     <t>https://covid19ireland-geohive.hub.arcgis.com/pages/hospitals-icu--testing</t>
   </si>
   <si>
-    <t>https://koronavirus.gov.mk/vesti</t>
-  </si>
-  <si>
     <t>https://viz.saude.gov.br/extensions/DEMAS_C19Insumos_TESTES/DEMAS_C19Insumos_TESTES.html</t>
   </si>
   <si>
@@ -1322,9 +1263,6 @@
     <t>https://www.nun.gl/</t>
   </si>
   <si>
-    <t>//*[@id="preamble"]/div/ul[4]/li[1]/span/span/span/span</t>
-  </si>
-  <si>
     <t>([.0-9]+)</t>
   </si>
   <si>
@@ -1352,18 +1290,12 @@
     <t>https://www.mspbs.gov.py/reporte-covid19.html</t>
   </si>
   <si>
-    <t>https://www.argentina.gob.ar/coronavirus/informes-diarios/reportes/octubre2020</t>
-  </si>
-  <si>
     <t>https://www.moh.gov.jm/?s=COVID-19+Clinical+Management+Summary</t>
   </si>
   <si>
     <t>//*[@id="post-9795"]/div[3]/table/tbody/tr[24]/td[3]</t>
   </si>
   <si>
-    <t>https://www.gub.uy/sistema-nacional-emergencias/comunicacion/comunicados</t>
-  </si>
-  <si>
     <t xml:space="preserve"> se han procesado ([.0-9]+) tests</t>
   </si>
   <si>
@@ -1397,9 +1329,6 @@
     <t>Testime totale ([0-9]+)</t>
   </si>
   <si>
-    <t>testirano ([.0-9]+) osoba</t>
-  </si>
-  <si>
     <t>cuba-reporta-</t>
   </si>
   <si>
@@ -1407,6 +1336,102 @@
   </si>
   <si>
     <t>reporte[-_]vespertino[-_]covid.*.pdf</t>
+  </si>
+  <si>
+    <t>https://gisbarbados.gov.bb/?s=COVID-19+update</t>
+  </si>
+  <si>
+    <t>//*[@id="node-901196"]/div/div/table[1]/tbody/tr[2]</t>
+  </si>
+  <si>
+    <t>"Afghanistan Flash Update" contains the info but not published every day and frequency is random. Sometimes there are other publications but not interesting to us.</t>
+  </si>
+  <si>
+    <t>Need to click on "English" and then It could work with Selenium may be</t>
+  </si>
+  <si>
+    <t>Info is in articles that start with "В Беларуси на". In sentence "Всего проведено (…) теста". Problem is that they use "млн." for million and  "тыс." for thousand.</t>
+  </si>
+  <si>
+    <t>Click on "UPDATES"</t>
+  </si>
+  <si>
+    <t>Publications always start with "Bolivia acumula". Value is CONFIRMADOS+SOSPECHOSOS+DESCARTADOS</t>
+  </si>
+  <si>
+    <t>Sometimes it is: testirane ([.0-9]+) osobe</t>
+  </si>
+  <si>
+    <t>Use of "mil" for thousand</t>
+  </si>
+  <si>
+    <t>Prøver (number with 7 digits)</t>
+  </si>
+  <si>
+    <t>Not published every day so needs date specification (muestras en total)</t>
+  </si>
+  <si>
+    <t>Value only present in Wednesday publications so needs date format. In "Tabelle 4: Anzahl der SARS-CoV-2-Testungen in Deutschland (Stand 06.10.2020, 12:00 Uhr); *KW=Kalenderwoche" last value bottom "Summe"</t>
+  </si>
+  <si>
+    <t>https://eody.gov.gr/</t>
+  </si>
+  <si>
+    <t>Publications always start with "Ημερήσια έκθεση επιτήρησης COVID-19". Then click on PDF value is between "ελεγχθεί" and "κλινικά"</t>
+  </si>
+  <si>
+    <t>https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/Okt_2020/Archiv_Oktober.html</t>
+  </si>
+  <si>
+    <t>total tests also mentioned in text below the image</t>
+  </si>
+  <si>
+    <t>https://tablerocovid.mspas.gob.gt/</t>
+  </si>
+  <si>
+    <t>https://www.gub.uy/sistema-nacional-emergencias/pagina-embebida/visualizador-casos-coronavirus-covid-19-uruguay</t>
+  </si>
+  <si>
+    <t>([.0-9]+) pruebas diagnósticas</t>
+  </si>
+  <si>
+    <t>testiran[oe] ([.0-9]+) osob[ae]</t>
+  </si>
+  <si>
+    <t>Testattuja näytteitä yhteensä: yli ([ 0-9]+)</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div[2]/div/div[2]/div/div[3]/div[2]/div/div/table/thead/tr[1]/th/span</t>
+  </si>
+  <si>
+    <t>//*[@id="postcontent"]/table/tbody/tr[1]/td[2]/p[1]/strong[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="node-5056"]/div[4]/div/div/div/table[1]/tbody/tr[1]/td[1]/strong</t>
+  </si>
+  <si>
+    <t>//*[@id="content"]/div/div[1]/div[8]/table/tbody/tr[4]/td[3]</t>
+  </si>
+  <si>
+    <t>https://www.fhi.no/en/id/infectious-diseases/coronavirus/daily-reports/daily-reports-COVID19/</t>
+  </si>
+  <si>
+    <t>https://www.argentina.gob.ar/coronavirus/informes-diarios/reportes/noviembre2020</t>
+  </si>
+  <si>
+    <t>//*[@id="main"]/p[4]/strong[1]/span</t>
+  </si>
+  <si>
+    <t>https://health-infobase.canada.ca/covid-19/epidemiological-summary-covid-19-cases.html</t>
+  </si>
+  <si>
+    <t>https://www.health.govt.nz/our-work/diseases-and-conditions/covid-19-novel-coronavirus/covid-19-data-and-statistics/covid-19-testing-data</t>
+  </si>
+  <si>
+    <t>https://datastudio.google.com/embed/u/0/reporting/9f5104d0-12fd-4e16-9a11-993685cfd40f/page/1M</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MINSAPma</t>
   </si>
 </sst>
 </file>
@@ -1416,13 +1441,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dddd\,\ mmmm\ d\,\ yyyy;@" x16r2:formatCode16="[$-en-CH,1]dddd\,\ mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1568,8 +1600,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF303030"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1603,6 +1668,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1615,58 +1686,63 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1954,10 +2030,10 @@
   <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2007,50 +2083,53 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>423</v>
+      </c>
+      <c r="J2" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>305</v>
+      <c r="A3" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>452</v>
+        <v>428</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -2067,7 +2146,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
@@ -2084,74 +2163,74 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>382</v>
+      <c r="A6" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="G7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -2163,198 +2242,215 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="J13" s="9" t="s">
-        <v>45</v>
+      <c r="J13" s="34" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C14" t="s">
-        <v>399</v>
-      </c>
-      <c r="J14" s="9"/>
+        <v>433</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>46</v>
+      <c r="A15" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>437</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="C17" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>295</v>
+      </c>
+      <c r="J20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="C22" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -2363,15 +2459,15 @@
         <v>14</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
-        <v>58</v>
+      <c r="A23" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -2384,27 +2480,27 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
-        <v>59</v>
+      <c r="A24" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="G24" s="4"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
-        <v>312</v>
+      <c r="A25" s="28" t="s">
+        <v>297</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2415,175 +2511,173 @@
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="B29" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" t="s">
+        <v>300</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C29" t="s">
-        <v>315</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="29" t="s">
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="29" t="s">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="29" t="s">
+      <c r="G35" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="I35" s="2">
         <v>60556</v>
@@ -2591,54 +2685,54 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B38" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2648,234 +2742,236 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E41" t="s">
+        <v>430</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="J42" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="29" t="s">
+      <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" t="s">
-        <v>454</v>
-      </c>
-      <c r="G41" s="20" t="s">
+      <c r="J43" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C47" t="s">
+        <v>384</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C48" t="s">
+        <v>415</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="J48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
         <v>455</v>
       </c>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="J42" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="29" t="s">
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="C51" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="29" t="s">
+      <c r="G51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C47" t="s">
-        <v>402</v>
-      </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="C48" t="s">
-        <v>436</v>
-      </c>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
+      <c r="J51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="52" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="B52" t="s">
         <v>108</v>
-      </c>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" t="s">
-        <v>116</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -2893,160 +2989,161 @@
       <c r="J52"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
         <v>117</v>
       </c>
-      <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="29" t="s">
+      <c r="C57" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" t="s">
+        <v>385</v>
+      </c>
+      <c r="J58" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" t="s">
         <v>118</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="J59" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E54" t="s">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C58" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="29" t="s">
-        <v>129</v>
-      </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="29" t="s">
-        <v>130</v>
+      <c r="A62" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -3060,31 +3157,34 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B63" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="G64" s="4"/>
+      <c r="J64" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="29" t="s">
-        <v>131</v>
+      <c r="A65" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -3097,63 +3197,65 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="25" t="s">
-        <v>132</v>
+      <c r="A66" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="J66" s="7"/>
+      <c r="J66" s="8" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="29" t="s">
-        <v>135</v>
+      <c r="A67" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B68" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B69" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="29" t="s">
-        <v>136</v>
+      <c r="A70" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -3166,11 +3268,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="29" t="s">
-        <v>137</v>
+      <c r="A71" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -3184,533 +3286,533 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C72" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B73" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B74" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="29" t="s">
-        <v>139</v>
+      <c r="A75" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="19" t="s">
-        <v>143</v>
+      <c r="A76" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G76" s="4"/>
       <c r="J76" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C82" t="s">
+        <v>318</v>
+      </c>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="28" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="29" t="s">
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B77" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="D83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" t="s">
         <v>147</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="G83" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C84" t="s">
+        <v>417</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" t="s">
+        <v>389</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="F77" t="s">
+      <c r="B86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="29" t="s">
+      <c r="D86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="13" t="s">
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" s="1" t="s">
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" t="s">
         <v>152</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C82" t="s">
-        <v>334</v>
-      </c>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="29" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" t="s">
         <v>154</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" t="s">
+        <v>322</v>
+      </c>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="C84" t="s">
-        <v>439</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C85" t="s">
-        <v>408</v>
-      </c>
-      <c r="G85" s="14"/>
-      <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" t="s">
-        <v>161</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C89" t="s">
-        <v>338</v>
-      </c>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
       <c r="J90" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>386</v>
+      <c r="A91" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>370</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" t="s">
         <v>166</v>
       </c>
-      <c r="B92" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="G97" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J97" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="29" t="s">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B98" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C98" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12" t="s">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="29" t="s">
+      <c r="B99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B101" t="s">
         <v>171</v>
       </c>
-      <c r="C94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="29" t="s">
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B102" t="s">
+        <v>325</v>
+      </c>
+      <c r="C102" t="s">
+        <v>412</v>
+      </c>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B103" t="s">
         <v>172</v>
       </c>
-      <c r="C95" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="29" t="s">
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B104" t="s">
         <v>173</v>
       </c>
-      <c r="C96" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="30" t="s">
+      <c r="C104" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B97" t="s">
-        <v>174</v>
-      </c>
-      <c r="C97" t="s">
-        <v>175</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B98" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B99" t="s">
-        <v>179</v>
-      </c>
-      <c r="C99" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B101" t="s">
-        <v>180</v>
-      </c>
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="B102" t="s">
-        <v>341</v>
-      </c>
-      <c r="C102" t="s">
-        <v>433</v>
-      </c>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" t="s">
-        <v>181</v>
-      </c>
-      <c r="C103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B104" t="s">
-        <v>182</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
       <c r="J104" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="29" t="s">
-        <v>185</v>
+      <c r="A105" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C105" t="s">
         <v>16</v>
@@ -3723,11 +3825,11 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A106" s="29" t="s">
-        <v>186</v>
+      <c r="A106" s="28" t="s">
+        <v>177</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
         <v>16</v>
@@ -3740,39 +3842,39 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A107" s="25" t="s">
-        <v>187</v>
+      <c r="A107" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="J107" s="7"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A108" s="21" t="s">
-        <v>392</v>
+      <c r="A108" s="20" t="s">
+        <v>376</v>
       </c>
       <c r="B108" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="J108" s="7"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A109" s="29" t="s">
-        <v>189</v>
+      <c r="A109" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
@@ -3785,11 +3887,11 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110" s="29" t="s">
-        <v>190</v>
+      <c r="A110" s="28" t="s">
+        <v>181</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -3802,25 +3904,25 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111" s="24" t="s">
-        <v>191</v>
+      <c r="A111" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112" s="29" t="s">
-        <v>194</v>
+      <c r="A112" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
@@ -3833,14 +3935,14 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" s="29" t="s">
-        <v>195</v>
+      <c r="A113" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C113" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -3852,47 +3954,47 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A114" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>342</v>
+      <c r="A114" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5"/>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>198</v>
+      <c r="A115" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A116" s="29" t="s">
-        <v>200</v>
+      <c r="A116" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="B116" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>202</v>
+        <v>462</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
@@ -3901,15 +4003,15 @@
         <v>17</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A117" s="29" t="s">
-        <v>203</v>
+      <c r="A117" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -3922,11 +4024,11 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A118" s="29" t="s">
-        <v>204</v>
+      <c r="A118" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
@@ -3939,31 +4041,31 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A119" s="31" t="s">
-        <v>345</v>
+      <c r="A119" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="B119" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A120" s="25" t="s">
-        <v>205</v>
+      <c r="A120" s="28" t="s">
+        <v>195</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C120" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
@@ -3975,14 +4077,14 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A121" s="29" t="s">
-        <v>207</v>
+      <c r="A121" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C121" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>13</v>
@@ -3991,136 +4093,136 @@
         <v>17</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>346</v>
+      <c r="A122" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>330</v>
       </c>
       <c r="C122" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="J122" s="7"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A123" s="29" t="s">
-        <v>211</v>
+      <c r="A123" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A124" s="24" t="s">
-        <v>213</v>
+      <c r="A124" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
+        <v>464</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>349</v>
+        <v>332</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>333</v>
       </c>
       <c r="J125" s="7"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C126" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A127" s="29" t="s">
-        <v>216</v>
+      <c r="A127" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A128" s="25" t="s">
-        <v>222</v>
+      <c r="A128" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E128" s="3"/>
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A129" s="24" t="s">
-        <v>224</v>
+      <c r="A129" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="B129" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A130" s="29" t="s">
-        <v>227</v>
+      <c r="A130" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
@@ -4130,14 +4232,14 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A131" s="29" t="s">
-        <v>229</v>
+      <c r="A131" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -4147,11 +4249,11 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A132" s="29" t="s">
-        <v>232</v>
+      <c r="A132" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
@@ -4164,48 +4266,45 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A133" s="29" t="s">
-        <v>234</v>
+      <c r="A133" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="J133" s="7"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A134" s="27" t="s">
-        <v>351</v>
+      <c r="A134" s="26" t="s">
+        <v>335</v>
       </c>
       <c r="B134" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E134" s="3"/>
-      <c r="G134" s="23" t="s">
-        <v>394</v>
+      <c r="G134" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="J134" s="7"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A135" s="29" t="s">
-        <v>238</v>
+      <c r="A135" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
@@ -4219,274 +4318,268 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B136" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A137" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>301</v>
+      <c r="A137" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>303</v>
+        <v>36</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B138" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C138" t="s">
-        <v>411</v>
-      </c>
-      <c r="G138" s="17"/>
+        <v>392</v>
+      </c>
+      <c r="G138" s="16"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B139" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
-      </c>
-      <c r="G139" s="17"/>
+        <v>341</v>
+      </c>
+      <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A140" s="29" t="s">
+      <c r="A140" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B140" t="s">
+        <v>228</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A141" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A142" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" t="s">
+        <v>230</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A143" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" t="s">
+        <v>232</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A144" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" t="s">
+        <v>233</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B145" t="s">
+        <v>236</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A146" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B146" t="s">
+        <v>238</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A147" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B147" t="s">
+        <v>239</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C140" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A141" s="24" t="s">
+      <c r="D147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A148" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="B141" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A142" s="29" t="s">
+      <c r="B148" t="s">
+        <v>241</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B142" t="s">
-        <v>242</v>
-      </c>
-      <c r="C142" s="13" t="s">
+      <c r="D148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J148" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E142" s="13"/>
-      <c r="G142" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A143" s="29" t="s">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A149" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B149" t="s">
         <v>244</v>
       </c>
-      <c r="C143" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A144" s="29" t="s">
+      <c r="C149" t="s">
         <v>245</v>
       </c>
-      <c r="B144" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" s="3" t="s">
+      <c r="D149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J149" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G144" s="1" t="s">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A150" s="28" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A145" s="29" t="s">
+      <c r="B150" t="s">
+        <v>247</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A151" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B151" t="s">
+        <v>344</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A152" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="B145" t="s">
-        <v>248</v>
-      </c>
-      <c r="C145" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A146" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="B146" t="s">
-        <v>250</v>
-      </c>
-      <c r="C146" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A147" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="B147" t="s">
-        <v>251</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J147" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A148" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="B148" t="s">
-        <v>253</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J148" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A149" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="B149" t="s">
-        <v>256</v>
-      </c>
-      <c r="C149" t="s">
-        <v>257</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J149" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A150" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="B150" t="s">
-        <v>260</v>
-      </c>
-      <c r="C150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A151" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="B151" t="s">
-        <v>360</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A152" s="29" t="s">
-        <v>261</v>
-      </c>
       <c r="B152" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -4499,26 +4592,26 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A153" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>362</v>
+      <c r="A153" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="C153" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="G153" s="4"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A154" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>364</v>
+      <c r="A154" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>348</v>
       </c>
       <c r="C154" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>13</v>
@@ -4528,11 +4621,11 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A155" s="29" t="s">
-        <v>262</v>
+      <c r="A155" s="28" t="s">
+        <v>249</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C155" t="s">
         <v>16</v>
@@ -4545,102 +4638,102 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A156" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>365</v>
+      <c r="A156" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>349</v>
       </c>
       <c r="C156" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A157" s="29" t="s">
-        <v>263</v>
+      <c r="A157" s="38" t="s">
+        <v>250</v>
       </c>
       <c r="B157" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E157" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="E157" s="12"/>
       <c r="G157" s="1" t="s">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="J157" s="7"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A158" s="24" t="s">
-        <v>265</v>
+      <c r="A158" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="B158" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A159" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>366</v>
+      <c r="A159" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="C159" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A160" s="29" t="s">
-        <v>269</v>
+      <c r="A160" s="28" t="s">
+        <v>256</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C160" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B161" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C161" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="J161" s="7"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A162" s="29" t="s">
-        <v>273</v>
+      <c r="A162" s="28" t="s">
+        <v>260</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C162" t="s">
         <v>16</v>
@@ -4653,11 +4746,11 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A163" s="29" t="s">
-        <v>275</v>
+      <c r="A163" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C163" t="s">
         <v>16</v>
@@ -4671,22 +4764,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B164" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C164" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A165" s="29" t="s">
-        <v>276</v>
+      <c r="A165" s="28" t="s">
+        <v>263</v>
       </c>
       <c r="B165" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C165" t="s">
         <v>16</v>
@@ -4699,29 +4792,29 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A166" s="29" t="s">
-        <v>277</v>
+      <c r="A166" s="28" t="s">
+        <v>264</v>
       </c>
       <c r="B166" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C166" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="J166" s="7"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A167" s="29" t="s">
-        <v>279</v>
+      <c r="A167" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="B167" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C167" t="s">
         <v>16</v>
@@ -4734,14 +4827,14 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A168" s="29" t="s">
-        <v>280</v>
+      <c r="A168" s="28" t="s">
+        <v>267</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>13</v>
@@ -4751,39 +4844,39 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A169" s="29" t="s">
-        <v>282</v>
+      <c r="A169" s="28" t="s">
+        <v>269</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C169" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B170" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C170" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A171" s="29" t="s">
-        <v>284</v>
+      <c r="A171" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="B171" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C171" t="s">
         <v>16</v>
@@ -4796,84 +4889,81 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A172" s="25" t="s">
-        <v>286</v>
+      <c r="A172" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="B172" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F172" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A173" s="29" t="s">
-        <v>289</v>
+      <c r="A173" s="28" t="s">
+        <v>275</v>
       </c>
       <c r="B173" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C173" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E173" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B174" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C174" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B175" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C175" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B176" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C176" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="29" t="s">
-        <v>423</v>
+      <c r="A177" s="28" t="s">
+        <v>403</v>
       </c>
       <c r="B177" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -4886,11 +4976,11 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="29" t="s">
-        <v>295</v>
+      <c r="A178" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="B178" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -4903,11 +4993,11 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="29" t="s">
-        <v>296</v>
+      <c r="A179" s="28" t="s">
+        <v>282</v>
       </c>
       <c r="B179" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -4926,7 +5016,8 @@
       <c r="G181" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J179" xr:uid="{36608550-5126-48F1-AEB6-58A2D2F47A0E}"/>
+  <autoFilter ref="D1:D181" xr:uid="{35B058A2-5039-4F45-BA48-AD5348011C35}"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C158" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C130" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4935,39 +5026,33 @@
     <hyperlink ref="C16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="C35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C116" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E83" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C104" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E127" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C129" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C128" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C107" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C157" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C172" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E77" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C144" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C76" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C137" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C61" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C79" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C134" r:id="rId25" display="https://www.rospotrebnadzor.ru/search/index.php?tags=&amp;q=%C8%ED%F4%EE%F0%EC%E0%F6%E8%EE%ED%ED%FB%E9+%E1%FE%EB%EB%E5%F2%E5%ED%FC+%EE+%F1%E8%F2%F3%E0%F6%E8%E8+%E8+%EF%F0%E8%ED%E8%EC%E0%E5%EC%FB%F5+%EC%E5%F0%E0%F5+%EF%EE+%ED%E5%E4%EE%EF%F3%F9%E5%ED%E8%FE+%F0%E0%F1%EF%F0%EE%F1%F2%F0%E0%ED%E5%ED%E8%FF+%E7%E0%E1%EE%EB%E5%E2%E0%ED%E8%E9%2C+%E2%FB%E7%E2%E0%ED%ED%FB%F5+%ED%EE%E2%FB%EC+%EA%EE%F0%EE%ED%E0%E2%E8%F0%F3%F1%EE%EC&amp;where=&amp;how=d&amp;from=&amp;to=" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C45" r:id="rId26" xr:uid="{83024962-8462-4F5D-8393-12094ED38B60}"/>
-    <hyperlink ref="C60" r:id="rId27" xr:uid="{DCC53C72-FB4E-4AFB-895F-9585847FB40B}"/>
-    <hyperlink ref="C81" r:id="rId28" xr:uid="{39989161-B57F-49B8-928F-A8110BDA921E}"/>
-    <hyperlink ref="C119" r:id="rId29" xr:uid="{A3513D80-8A22-4E9D-93A3-E82C73FBD92B}"/>
-    <hyperlink ref="C24" r:id="rId30" xr:uid="{A115A20E-CA81-487C-BB1D-3710574B1176}"/>
-    <hyperlink ref="C57" r:id="rId31" xr:uid="{A6EB0E25-5C1C-4407-9F7B-5798B4F61260}"/>
-    <hyperlink ref="C67" r:id="rId32" xr:uid="{9369932F-0AB4-4F9D-90BE-2A3CC1A0A2BB}"/>
-    <hyperlink ref="C59" r:id="rId33" xr:uid="{4A06E4E9-DA38-4EA3-8FC2-1CC692A7670E}"/>
-    <hyperlink ref="C168" r:id="rId34" xr:uid="{7D393478-B010-4DB1-B763-0EA2DC34680E}"/>
-    <hyperlink ref="C148" r:id="rId35" xr:uid="{2A41D897-9628-495B-B0E9-A6062F049BA5}"/>
-    <hyperlink ref="C133" r:id="rId36" xr:uid="{6F884BC7-EA11-47B4-966C-54E6010E9151}"/>
-    <hyperlink ref="E172" r:id="rId37" display="https://www.gub.uy/sistema-nacional-emergencias/comunicacion/comunicados/informe-situacion-sobre-coronavirus-covid-19-uruguay-DATE" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C90" r:id="rId38" xr:uid="{5D213398-640B-456C-A484-6296224A48A2}"/>
+    <hyperlink ref="E83" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C104" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C127" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C129" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C128" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C107" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E77" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C42" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C144" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C76" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C137" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C61" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C79" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C134" r:id="rId22" display="https://www.rospotrebnadzor.ru/search/index.php?tags=&amp;q=%C8%ED%F4%EE%F0%EC%E0%F6%E8%EE%ED%ED%FB%E9+%E1%FE%EB%EB%E5%F2%E5%ED%FC+%EE+%F1%E8%F2%F3%E0%F6%E8%E8+%E8+%EF%F0%E8%ED%E8%EC%E0%E5%EC%FB%F5+%EC%E5%F0%E0%F5+%EF%EE+%ED%E5%E4%EE%EF%F3%F9%E5%ED%E8%FE+%F0%E0%F1%EF%F0%EE%F1%F2%F0%E0%ED%E5%ED%E8%FF+%E7%E0%E1%EE%EB%E5%E2%E0%ED%E8%E9%2C+%E2%FB%E7%E2%E0%ED%ED%FB%F5+%ED%EE%E2%FB%EC+%EA%EE%F0%EE%ED%E0%E2%E8%F0%F3%F1%EE%EC&amp;where=&amp;how=d&amp;from=&amp;to=" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C45" r:id="rId23" xr:uid="{83024962-8462-4F5D-8393-12094ED38B60}"/>
+    <hyperlink ref="C81" r:id="rId24" xr:uid="{39989161-B57F-49B8-928F-A8110BDA921E}"/>
+    <hyperlink ref="C24" r:id="rId25" xr:uid="{A115A20E-CA81-487C-BB1D-3710574B1176}"/>
+    <hyperlink ref="C57" r:id="rId26" xr:uid="{A6EB0E25-5C1C-4407-9F7B-5798B4F61260}"/>
+    <hyperlink ref="C67" r:id="rId27" xr:uid="{9369932F-0AB4-4F9D-90BE-2A3CC1A0A2BB}"/>
+    <hyperlink ref="C168" r:id="rId28" xr:uid="{7D393478-B010-4DB1-B763-0EA2DC34680E}"/>
+    <hyperlink ref="C148" r:id="rId29" xr:uid="{2A41D897-9628-495B-B0E9-A6062F049BA5}"/>
+    <hyperlink ref="C133" r:id="rId30" xr:uid="{6F884BC7-EA11-47B4-966C-54E6010E9151}"/>
+    <hyperlink ref="E172" r:id="rId31" display="https://www.gub.uy/sistema-nacional-emergencias/comunicacion/comunicados/informe-situacion-sobre-coronavirus-covid-19-uruguay-DATE" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C90" r:id="rId32" xr:uid="{5D213398-640B-456C-A484-6296224A48A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>